--- a/data/raw-data/news.xlsx
+++ b/data/raw-data/news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,68 +458,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NÓNG: Đưa người mẹ giết con để trục lợi bảo hiểm về dựng lại hiện trường, ngàn người theo dõi</t>
+          <t>Thêm một tuyển thủ Việt Nam bị gãy chân</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909443/907058fb37b5deeb87a4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909808/8350c6dfa99140cf1980.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nong-dua-nguoi-me-giet-con-de-truc-loi-bao-hiem-ve-dung-lai-hien-truong-ngan-nguoi-theo-doi-r51909443.epi</t>
+          <t>https://lite.baomoi.com/them-mot-tuyen-thu-viet-nam-bi-gay-chan-r51909808.epi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổ chức học 2 buổi/ngày: Bộ GD&amp;ĐT chưa có chủ trương bắt buộc</t>
+          <t>Tìm 'cơ' trong 'nguy'</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_114_51908923/7c715ff130bfd9e180ae.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_06_294_51909857/912e47bd28f3c1ad98e2.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/to-chuc-hoc-2-buoi-ngay-bo-gd-dt-chua-co-chu-truong-bat-buoc-r51908923.epi</t>
+          <t>https://lite.baomoi.com/tim-co-trong-nguy-r51909857.epi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thủ môn mắc lỗi nghiệp dư, Bình Dương thua đậm HAGL</t>
+          <t>Ngỡ ngàng với nghề 'ngắn hạn' của người mẹ giết con để trục lợi bảo hiểm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_83_51908990/c5081ad775999cc7c588.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51908961/b1386b8604c8ed96b4d9.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-mon-mac-loi-nghiep-du-binh-duong-thua-dam-hagl-r51908990.epi</t>
+          <t>https://lite.baomoi.com/ngo-ngang-voi-nghe-ngan-han-cua-nguoi-me-giet-con-de-truc-loi-bao-hiem-r51908961.epi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nga bất ngờ 'mở cửa' với việc phương Tây bảo đảm an ninh cho Ukraine?</t>
+          <t>Thất bại đau đớn cho U17 Trung Quốc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51909092/d6351e9071de9880c1cf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_329_51910046/ff936afd05b3ecedb5a2.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-bat-ngo-mo-cua-voi-viec-phuong-tay-bao-dam-an-ninh-cho-ukraine-r51909092.epi</t>
+          <t>https://lite.baomoi.com/that-bai-dau-don-cho-u17-trung-quoc-r51910046.epi</t>
         </is>
       </c>
     </row>
@@ -543,187 +543,187 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lời kể của người thoát chết khi văng khỏi xe khách sau va chạm với xe tải</t>
+          <t>Thử thách bản thân, rèn luyện bản lĩnh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_23_51909247/54145ba434eaddb484fb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51910077/3646d702b84c5112085d.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/loi-ke-cua-nguoi-thoat-chet-khi-vang-khoi-xe-khach-sau-va-cham-voi-xe-tai-r51909247.epi</t>
+          <t>https://lite.baomoi.com/thu-thach-ban-than-ren-luyen-ban-linh-r51910077.epi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Khoảnh khắc bé trai 3 tuổi hốt hoảng báo tin bạn đuối nước khiến triệu người thót tim</t>
+          <t>Quang Linh Vlogs, Hằng Du Mục bị bắt: Ai chỉ đạo mua bột rau củ để làm kẹo Kera?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_83_51909578/98a769280666ef38b677.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khoanh-khac-be-trai-3-tuoi-hot-hoang-bao-tin-ban-duoi-nuoc-khien-trieu-nguoi-thot-tim-r51909412.epi</t>
+          <t>https://lite.baomoi.com/quang-linh-vlogs-hang-du-muc-bi-bat-ai-chi-dao-mua-bot-rau-cu-de-lam-keo-kera-r51909578.epi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7 chú tiểu bị xâm hại tình dục trong một ngôi chùa tại Đà Lạt</t>
+          <t>Giá vàng hôm nay 7/4/2025: Giá vàng chưa thể tăng ngay, nhà đầu tư 'ôm' tiền mặt, thị trường đang rất biến động</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_338_51908935/13f9d752b81c5142080d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_194_51909637/78a496c1f98f10d1499e.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/7-chu-tieu-bi-xam-hai-tinh-duc-trong-mot-ngoi-chua-tai-da-lat-r51908935.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-7-4-2025-gia-vang-chua-the-tang-ngay-nha-dau-tu-om-tien-mat-thi-truong-dang-rat-bien-dong-r51909637.epi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>54 người chết vì tai nạn trong hai ngày nghỉ lễ</t>
+          <t>Địa chấn tại Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_83_51909539/a493c12dae63473d1e72.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_119_51909732/82fb9473fb3d12634b2c.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/54-nguoi-chet-vi-tai-nan-trong-hai-ngay-nghi-le-r51909539.epi</t>
+          <t>https://lite.baomoi.com/dia-chan-tai-premier-league-r51909732.epi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Giá vàng hôm nay 7/4/2025: Giá vàng chưa thể tăng ngay, nhà đầu tư 'ôm' tiền mặt, thị trường đang rất biến động</t>
+          <t>Đặc phái viên Tổng Bí thư, Phó Thủ tướng Hồ Đức Phớc sang Mỹ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_194_51909637/6bae3d2b5265bb3be274.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51910069/5aeb039d6cd3858ddcc2.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gia-vang-hom-nay-7-4-2025-gia-vang-chua-the-tang-ngay-nha-dau-tu-om-tien-mat-thi-truong-dang-rat-bien-dong-r51909637.epi</t>
+          <t>https://lite.baomoi.com/dac-phai-vien-tong-bi-thu-pho-thu-tuong-ho-duc-phoc-sang-my-r51910069.epi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Từ đêm 6 - 16/4, Đông Nam Bộ nắng nóng diện rộng</t>
+          <t>Malaysia và nhiều nước đánh giá cao Tổng Bí thư Tô Lâm điện đàm với Tổng thống Hoa Kỳ, ủng hộ cách tiếp cận của Việt Nam</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51908595/b32c8fe5e0ab09f550ba.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_146_51908802/070085d2ea9c03c25a8d.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tu-dem-6-16-4-dong-nam-bo-nang-nong-dien-rong-r51908595.epi</t>
+          <t>https://lite.baomoi.com/malaysia-va-nhieu-nuoc-danh-gia-cao-tong-bi-thu-to-lam-dien-dam-voi-tong-thong-hoa-ky-ung-ho-cach-tiep-can-cua-viet-nam-r51908802.epi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Họp báo Chính phủ thường kỳ tháng 3: Tăng trưởng quý I cao nhất trong 5 năm</t>
+          <t>Từ đêm 6 - 16/4, Đông Nam Bộ nắng nóng diện rộng</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_06_146_51907516/d38854943adad3848acb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51908595/b32c8fe5e0ab09f550ba.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hop-bao-chinh-phu-thuong-ky-thang-3-tang-truong-quy-i-cao-nhat-trong-5-nam-r51907516.epi</t>
+          <t>https://lite.baomoi.com/tu-dem-6-16-4-dong-nam-bo-nang-nong-dien-rong-r51908595.epi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hoa hậu Thùy Tiên 'có liên quan' vụ án kẹo Kera</t>
+          <t>Tổ chức khởi công, khánh thành trực tuyến đồng loạt các công trình lớn chào mừng 50 năm giải phóng miền Nam, thống nhất đất nước</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_119_51909224/3bca6b60042eed70b43f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_146_51910071/c3798307ec4905175c58.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hoa-hau-thuy-tien-co-lien-quan-vu-an-keo-kera-r51909224.epi</t>
+          <t>https://lite.baomoi.com/to-chuc-khoi-cong-khanh-thanh-truc-tuyen-dong-loat-cac-cong-trinh-lon-chao-mung-50-nam-giai-phong-mien-nam-thong-nhat-dat-nuoc-r51910071.epi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Huỳnh Như tỏa sáng, TP Hồ Chí Minh vô địch Cúp Quốc gia</t>
+          <t>Cập nhật diễn tiến vụ 'mẹ giết con để trục lợi bảo hiểm' đến rạng sáng 7-4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_65_51909600/c799f717985971072848.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51910036/4ff76b9f04d1ed8fb4c0.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/huynh-nhu-toa-sang-tp-ho-chi-minh-vo-dich-cup-quoc-gia-r51909600.epi</t>
+          <t>https://lite.baomoi.com/cap-nhat-dien-tien-vu-me-giet-con-de-truc-loi-bao-hiem-den-rang-sang-7-4-r51910036.epi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ấn tượng Chương trình cầu truyền hình 'Bản trường ca hòa bình' tại ba miền</t>
+          <t>Kết quả vòng 31 Ngoại hạng Anh đêm 6/4: MU hòa tiếc nuối trước Man City</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51909651/8b6825ec4aa2a3fcfab3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_65_51907610/501dc676a93840661929.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/an-tuong-chuong-trinh-cau-truyen-hinh-ban-truong-ca-hoa-binh-tai-ba-mien-r51909651.epi</t>
+          <t>https://lite.baomoi.com/ket-qua-vong-31-ngoai-hang-anh-dem-6-4-mu-hoa-tiec-nuoi-truoc-man-city-r51907610.epi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Doãn Ngọc Tân gãy xương mác, tuyển Việt Nam tổn thất trước trận gặp Malaysia</t>
+          <t>Chủ tịch Quốc hội Trần Thanh Mẫn tiếp Chủ tịch Hội hữu nghị Uzbekistan-Việt Nam</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_83_51909520/0ac7a678c93620687927.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_65_51910070/27082a464508ac56f519.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/doan-ngoc-tan-gay-xuong-mac-tuyen-viet-nam-ton-that-truoc-tran-gap-malaysia-r51909520.epi</t>
+          <t>https://lite.baomoi.com/chu-tich-quoc-hoi-tran-thanh-man-tiep-chu-tich-hoi-huu-nghi-uzbekistan-viet-nam-r51910070.epi</t>
         </is>
       </c>
     </row>
@@ -747,170 +747,170 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nữ TP HCM vô địch Cúp Quốc gia, duy trì vị thế số 1 bóng đá nữ</t>
+          <t>Nga bất ngờ 'mở cửa' với việc phương Tây bảo đảm an ninh cho Ukraine?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909255/cc72f1ce9e8077de2e91.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51909092/d6351e9071de9880c1cf.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nu-tp-hcm-vo-dich-cup-quoc-gia-duy-tri-vi-the-so-1-bong-da-nu-r51909255.epi</t>
+          <t>https://lite.baomoi.com/nga-bat-ngo-mo-cua-voi-viec-phuong-tay-bao-dam-an-ninh-cho-ukraine-r51909092.epi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Malaysia và nhiều nước đánh giá cao Tổng Bí thư Tô Lâm điện đàm với Tổng thống Hoa Kỳ, ủng hộ cách tiếp cận của Việt Nam</t>
+          <t>Báo in Người Lao Động 7-4: Nhiều trường ĐH đồng loạt tăng học phí</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_146_51908802/070085d2ea9c03c25a8d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51909984/ecdb11457e0b9755ce1a.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/malaysia-va-nhieu-nuoc-danh-gia-cao-tong-bi-thu-to-lam-dien-dam-voi-tong-thong-hoa-ky-ung-ho-cach-tiep-can-cua-viet-nam-r51908802.epi</t>
+          <t>https://lite.baomoi.com/bao-in-nguoi-lao-dong-7-4-nhieu-truong-dh-dong-loat-tang-hoc-phi-r51909984.epi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CLB TP HCM hụt chiến thắng đáng tiếc</t>
+          <t>Man Utd, Man City hòa tẻ nhạt</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909581/024f3fcf5081b9dfe090.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_83_51910050/639f83f9ecb705e95ca6.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/clb-tp-hcm-hut-chien-thang-dang-tiec-r51909581.epi</t>
+          <t>https://lite.baomoi.com/man-utd-man-city-hoa-te-nhat-r51910050.epi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chương trình hạt nhân của Iran 'tăng nhiệt', Mỹ chuyển tổ hợp THAAD thứ 2 cho Israel</t>
+          <t>Doanh số xe sang tại Singapore 'lao dốc' vì người mua muốn tránh phô trương sự giàu có</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_194_51908308/26a934525b1cb242eb0d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_465_51910041/d26325074a49a317fa58.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chuong-trinh-hat-nhan-cua-iran-tang-nhiet-my-chuyen-to-hop-thaad-thu-2-cho-israel-r51908308.epi</t>
+          <t>https://lite.baomoi.com/doanh-so-xe-sang-tai-singapore-lao-doc-vi-nguoi-mua-muon-tranh-pho-truong-su-giau-co-r51910041.epi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dậy sóng với quyết định của Nguyễn Xuân Son</t>
+          <t>Phu nhân Chủ tịch Quốc hội tham quan Khu trưng bày nghệ thuật NBU, Uzbekistan</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_329_51907660/3c17ea0984476d193456.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_16_51910057/35bd53d23c9cd5c28c8d.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/day-song-voi-quyet-dinh-cua-nguyen-xuan-son-r51907660.epi</t>
+          <t>https://lite.baomoi.com/phu-nhan-chu-tich-quoc-hoi-tham-quan-khu-trung-bay-nghe-thuat-nbu-uzbekistan-r51910057.epi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Doanh nghiệp Mỹ - Việt cùng gửi thư đề nghị Chính phủ Mỹ hoãn áp thuế đối ứng</t>
+          <t>Việt Nam tham gia tích cực, có trách nhiệm vào các hoạt động của IPU và hợp tác liên nghị viện đa phương</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_114_51909509/f637ce8ba1c5489b11d4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_16_51910039/0411f875973b7e65272a.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/doanh-nghiep-my-viet-cung-gui-thu-de-nghi-chinh-phu-my-hoan-ap-thue-doi-ung-r51909509.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-tham-gia-tich-cuc-co-trach-nhiem-vao-cac-hoat-dong-cua-ipu-va-hop-tac-lien-nghi-vien-da-phuong-r51910039.epi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Myanmar tri ân 5 đoàn cứu hộ quốc tế giúp đỡ người dân sau vụ động đất</t>
+          <t>NSND Tự Long khóc khi nói về Soobin Hoàng Sơn</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_94_51909560/46ce1d4f72019b5fc210.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_20_51909986/4376e9e886a66ff836b7.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/myanmar-tri-an-5-doan-cuu-ho-quoc-te-giup-do-nguoi-dan-sau-vu-dong-dat-r51909560.epi</t>
+          <t>https://lite.baomoi.com/nsnd-tu-long-khoc-khi-noi-ve-soobin-hoang-son-r51909986.epi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phó Chủ tịch Quốc hội Trần Quang Phương gặp Phó Chủ tịch Quốc hội Thụy Điển</t>
+          <t>Nguyễn Hữu Thắng tạo 'siêu phẩm' bàn thắng từ khoảng cách hơn 50m</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_65_51909624/ac6b42ee2da0c4fe9db1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909892/34fd7f681026f978a037.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pho-chu-tich-quoc-hoi-tran-quang-phuong-gap-pho-chu-tich-quoc-hoi-thuy-dien-r51909624.epi</t>
+          <t>https://lite.baomoi.com/nguyen-huu-thang-tao-sieu-pham-ban-thang-tu-khoang-cach-hon-50m-r51909892.epi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bắt giữ nhóm thanh, thiếu niên mang kiếm 'truy lùng' đối thủ</t>
+          <t>Siêu phẩm từ sân nhà giúp Thể Công Viettel thoát thua Quảng Nam</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_258_51909602/f0159d96f2d81b8642c9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_23_51910008/0140e4218b6f62313b7e.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bat-giu-nhom-thanh-thieu-nien-mang-kiem-truy-lung-doi-thu-r51909602.epi</t>
+          <t>https://lite.baomoi.com/sieu-pham-tu-san-nha-giup-the-cong-viettel-thoat-thua-quang-nam-r51910008.epi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sao U22 Việt Nam chói sáng, cùng Hoàng Đức giúp Ninh Bình thắng to</t>
+          <t>Vụ kẹo Kera: Tối 6-4, TikToker Phan Bảo Long xin lỗi, cộng đồng mạng đề nghị công an vào cuộc</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_23_51909599/2e7ba6f3c9bd20e379ac.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909283/60b4cf05a04b4915105a.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sao-u22-viet-nam-choi-sang-cung-hoang-duc-giup-ninh-binh-thang-to-r51909599.epi</t>
+          <t>https://lite.baomoi.com/vu-keo-kera-toi-6-4-tiktoker-phan-bao-long-xin-loi-cong-dong-mang-de-nghi-cong-an-vao-cuoc-r51909283.epi</t>
         </is>
       </c>
     </row>
@@ -934,714 +934,765 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rùng rợn 'Ngôi nhà quỷ dữ': 1 phụ nữ đấu với 200 linh hồn</t>
+          <t>Myanmar hứng chịu 89 dư chấn sau trận động đất mạnh</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_180_51908918/123b3ee251acb8f2e1bd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_14_51909889/e29573001c4ef510ac5f.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/rung-ron-ngoi-nha-quy-du-1-phu-nu-dau-voi-200-linh-hon-r51908918.epi</t>
+          <t>https://lite.baomoi.com/myanmar-hung-chiu-89-du-chan-sau-tran-dong-dat-manh-r51909889.epi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Siêu phẩm lốp bóng từ khoảng cách hơn 50 mét ở V.League</t>
+          <t>TP.HCM vô địch giải bóng đá nữ Cúp Quốc gia 2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_119_51909553/2077f4f39bbd72e32bac.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_83_51909967/8a606dfc02b2ebecb2a3.jpg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sieu-pham-lop-bong-tu-khoang-cach-hon-50-met-o-v-league-r51909553.epi</t>
+          <t>https://lite.baomoi.com/tp-hcm-vo-dich-giai-bong-da-nu-cup-quoc-gia-2025-r51909967.epi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bộ GD&amp;ĐT đang khảo sát nghiên cứu, chưa có tuyên bố THCS, THPT bắt buộc phải học 2 buổi/ngày</t>
+          <t>MU ngăn Man City trở lại top 4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_146_51909757/e0f49c7ef3301a6e4321.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_119_51909731/a0e99480fbce12904bdf.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-gd-dt-dang-khao-sat-nghien-cuu-chua-co-tuyen-bo-thcs-thpt-bat-buoc-phai-hoc-2-buoi-ngay-r51909757.epi</t>
+          <t>https://lite.baomoi.com/mu-ngan-man-city-tro-lai-top-4-r51909731.epi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pha kiến tạo đẳng cấp của Hai Long</t>
+          <t>Đường Hồ Chí Minh trên biển: Khát vọng tự do, thống nhất đất nước</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_119_51909564/57935c12335cda02834d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_65_51910023/55aef1e99ea777f92eb6.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pha-kien-tao-dang-cap-cua-hai-long-r51909564.epi</t>
+          <t>https://lite.baomoi.com/duong-ho-chi-minh-tren-bien-khat-vong-tu-do-thong-nhat-dat-nuoc-r51910023.epi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Malaysia và Indonesia khẳng định không áp thuế trả đũa</t>
+          <t>Xác định đội đầu tiên xuống hạng ở Premier League 2024/25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51909620/d1d5e95786196f473608.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_106_51909962/31651cf873b69ae8c3a7.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/malaysia-va-indonesia-khang-dinh-khong-ap-thue-tra-dua-r51909620.epi</t>
+          <t>https://lite.baomoi.com/xac-dinh-doi-dau-tien-xuong-hang-o-premier-league-2024-25-r51909962.epi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cú ngược dòng ngoạn mục của Văn Toàn</t>
+          <t>'Giải quyết các yêu cầu chính đáng của phía Hoa Kỳ trên cơ sở lợi ích hài hòa, rủi ro chia sẻ'</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_329_51909144/c603d9aab6e45fba06f5.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_599_51909885/d84db0dfdf9136cf6f80.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cu-nguoc-dong-ngoan-muc-cua-van-toan-r51909144.epi</t>
+          <t>https://lite.baomoi.com/giai-quyet-cac-yeu-cau-chinh-dang-cua-phia-hoa-ky-tren-co-so-loi-ich-hai-hoa-rui-ro-chia-se-r51909885.epi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Khai mạc Lễ hội Bánh dân gian Nam Bộ lần thứ XII năm 2025 tại Cần Thơ</t>
+          <t>Những điều cần biết về hộp số sàn ô tô, tài xế lâu năm chưa chắc đã nắm rõ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_65_51909507/242327ac48e2a1bcf8f3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_304_51910080/ddca088167cf8e91d7de.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khai-mac-le-hoi-banh-dan-gian-nam-bo-lan-thu-xii-nam-2025-tai-can-tho-r51909507.epi</t>
+          <t>https://lite.baomoi.com/nhung-dieu-can-biet-ve-hop-so-san-o-to-tai-xe-lau-nam-chua-chac-da-nam-ro-r51910080.epi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Đại sứ Mỹ cảm ơn Việt Nam đã thấu hiểu quan ngại của Washington về việc áp thuế</t>
+          <t>Cố vấn Tổng thống Trump: Hơn 50 quốc gia đã liên hệ đàm phán thương mại với Hoa Kỳ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_30_51908825/bf93b338dc7635286c67.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51909856/0bca215a4e14a74afe05.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dai-su-my-cam-on-viet-nam-da-thau-hieu-quan-ngai-cua-washington-ve-viec-ap-thue-r51908825.epi</t>
+          <t>https://lite.baomoi.com/co-van-tong-thong-trump-hon-50-quoc-gia-da-lien-he-dam-phan-thuong-mai-voi-hoa-ky-r51909856.epi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Thủ tướng Phạm Minh Chính: Bình tĩnh ứng phó với chính sách thuế đối ứng của Hoa Kỳ</t>
+          <t>Bảng giá iPhone tháng 4/2025: Nhiều sản phẩm giảm giá mạnh</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_197_51908259/cc92ba6bd5253c7b6534.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_304_51910079/f806264d4903a05df912.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-pham-minh-chinh-binh-tinh-ung-pho-voi-chinh-sach-thue-doi-ung-cua-hoa-ky-r51908259.epi</t>
+          <t>https://lite.baomoi.com/bang-gia-iphone-thang-4-2025-nhieu-san-pham-giam-gia-manh-r51910079.epi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Công Phượng tái xuất ấn tượng, Bình Phước bỏ túi 3 điểm</t>
+          <t>Rực rỡ, hoành tráng và đầy cảm xúc với cầu truyền hình 'Bản trường ca hòa bình'</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_23_51909504/a83e24b64bf8a2a6fbe9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909909/c5fef26a9d24747a2d35.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cong-phuong-tai-xuat-an-tuong-binh-phuoc-bo-tui-3-diem-r51909504.epi</t>
+          <t>https://lite.baomoi.com/ruc-ro-hoanh-trang-va-day-cam-xuc-voi-cau-truyen-hinh-ban-truong-ca-hoa-binh-r51909909.epi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Thống đốc: Chắc chắn thị trường tài chính, tiền tệ diễn biến phức tạp hàng ngày, hàng giờ</t>
+          <t>Đoàn cứu hộ Việt Nam kết thúc tìm kiếm cứu nạn động đất ở Myanmar</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_72_51909399/e3e77c5e1310fa4ea301.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_106_51909728/404629ce4680afdef691.jpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thong-doc-chac-chan-thi-truong-tai-chinh-tien-te-dien-bien-phuc-tap-hang-ngay-hang-gio-r51909399.epi</t>
+          <t>https://lite.baomoi.com/doan-cuu-ho-viet-nam-ket-thuc-tim-kiem-cuu-nan-dong-dat-o-myanmar-r51909728.epi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ảnh tuổi 19 của Lọ Lem</t>
+          <t>Nguyễn Thị Oanh, Hoàng Nguyên Thanh vô địch VTV Phú Quốc Marathon</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_119_51909558/b5870d0662488b16d259.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909754/566dcbe7a4a94df714b8.jpg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/anh-tuoi-19-cua-lo-lem-r51909558.epi</t>
+          <t>https://lite.baomoi.com/nguyen-thi-oanh-hoang-nguyen-thanh-vo-dich-vtv-phu-quoc-marathon-r51909754.epi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nguyên tắc xử lý người phạm tội và pháp nhân thương mại phạm tội trong dự thảo Bộ luật Hình sự (sửa đổi)</t>
+          <t>Khoảnh khắc bé trai 3 tuổi hốt hoảng báo tin bạn đuối nước khiến triệu người thót tim</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909534/8a0c6bb204fceda2b4ed.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguyen-tac-xu-ly-nguoi-pham-toi-va-phap-nhan-thuong-mai-pham-toi-trong-du-thao-bo-luat-hinh-su-sua-doi-r51909534.epi</t>
+          <t>https://lite.baomoi.com/khoanh-khac-be-trai-3-tuoi-hot-hoang-bao-tin-ban-duoi-nuoc-khien-trieu-nguoi-thot-tim-r51909412.epi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Xác minh vụ 'giành địa bàn, đánh tài xế' liên quan đến Bệnh viện Đa khoa Khánh Hòa</t>
+          <t>Bộ Giáo dục Đào tạo thông tin việc dạy học 2 buổi mỗi ngày ở cấp THCS và PTTH</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_5_51909598/e9356cb603f8eaa6b3e9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_293_51908461/ba2385a4eaea03b45afb.jpg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xac-minh-vu-gianh-dia-ban-danh-tai-xe-lien-quan-den-benh-vien-da-khoa-khanh-hoa-r51909598.epi</t>
+          <t>https://lite.baomoi.com/bo-giao-duc-dao-tao-thong-tin-viec-day-hoc-2-buoi-moi-ngay-o-cap-thcs-va-ptth-r51908461.epi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Thời tiết ngày 7/4: Miền Bắc Tiếp tục có mưa rào và dông vài nơi</t>
+          <t>Viện trưởng VKSND huyện trực tiếp kiểm sát xét xử phiên tòa rút kinh nghiệm</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909408/a463b8edd7a33efd67b2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909708/fa51a7d8c89621c87887.jpg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thoi-tiet-ngay-7-4-mien-bac-tiep-tuc-co-mua-rao-va-dong-vai-noi-r51909408.epi</t>
+          <t>https://lite.baomoi.com/vien-truong-vksnd-huyen-truc-tiep-kiem-sat-xet-xu-phien-toa-rut-kinh-nghiem-r51909708.epi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VKSND tối cao thông báo rút kinh nghiệm kiểm sát việc giải quyết vụ án kinh doanh thương mại</t>
+          <t>Nóng nhất trong ngày: Giá vàng tiếp đà lao dốc; Cây dại xưa cho lợn ăn nay hóa 'mỏ vàng'</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909440/fda5881ee7500e0e5741.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_296_51908561/bdcd320b5d45b41bed54.jpg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vksnd-toi-cao-thong-bao-rut-kinh-nghiem-kiem-sat-viec-giai-quyet-vu-an-kinh-doanh-thuong-mai-r51909440.epi</t>
+          <t>https://lite.baomoi.com/nong-nhat-trong-ngay-gia-vang-tiep-da-lao-doc-cay-dai-xua-cho-lon-an-nay-hoa-mo-vang-r51908561.epi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Thí sinh 'Hoa hậu Việt Nam' tích cực tập luyện, sẵn sàng cho đêm Chung khảo toàn quốc</t>
+          <t>Chương trình hạt nhân của Iran 'tăng nhiệt', Mỹ chuyển tổ hợp THAAD thứ 2 cho Israel</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_176_51909572/834243c22c8cc5d29c9d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_194_51908308/26a934525b1cb242eb0d.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thi-sinh-hoa-hau-viet-nam-tich-cuc-tap-luyen-san-sang-cho-dem-chung-khao-toan-quoc-r51909572.epi</t>
+          <t>https://lite.baomoi.com/chuong-trinh-hat-nhan-cua-iran-tang-nhiet-my-chuyen-to-hop-thaad-thu-2-cho-israel-r51908308.epi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Nga tấn công căn cứ pháo binh trung tâm của Ukraine</t>
+          <t>Trung Quốc-Phần Lan thúc đẩy hợp tác kiểu mới hướng tới tương lai</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_236_51909511/bbb18e0de143081d5152.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_194_51909813/0909098666c88f96d6d9.jpg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-tan-cong-can-cu-phao-binh-trung-tam-cua-ukraine-r51909511.epi</t>
+          <t>https://lite.baomoi.com/trung-quoc-phan-lan-thuc-day-hop-tac-kieu-moi-huong-toi-tuong-lai-r51909813.epi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Thu ngân sách Nhà nước quý 1/2025 tăng gần 30% so với cùng kỳ</t>
+          <t>Chuẩn bị mâm lễ vật giỗ Tổ Hùng Vương đơn giản mà thành kính</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909537/86ca8142ee0c07525e1d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_94_51909855/de0fcf9fa0d1498f10c0.jpg</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-ngan-sach-nha-nuoc-quy-1-2025-tang-gan-30-so-voi-cung-ky-r51909537.epi</t>
+          <t>https://lite.baomoi.com/chuan-bi-mam-le-vat-gio-to-hung-vuong-don-gian-ma-thanh-kinh-r51909855.epi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Xử nghiêm xe khách dừng, đỗ đón khách sai quy định</t>
+          <t>Kiều bào tại Pháp khẳng định bản sắc dân tộc và gắn kết với quê hương</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_106_51909532/87215b9f34d1dd8f84c0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909973/99e2b57eda30336e6a21.jpg</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xu-nghiem-xe-khach-dung-do-don-khach-sai-quy-dinh-r51909532.epi</t>
+          <t>https://lite.baomoi.com/kieu-bao-tai-phap-khang-dinh-ban-sac-dan-toc-va-gan-ket-voi-que-huong-r51909973.epi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Con trai dạy thư pháp kiếm tiền, trả nợ 71 tỷ đồng thay cha mẹ</t>
+          <t>Lời kể của người thoát chết khi văng khỏi xe khách sau va chạm với xe tải</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_83_51909304/4d879f34f07a1924406b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909247/54145ba434eaddb484fb.jpg</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/con-trai-day-thu-phap-kiem-tien-tra-no-71-ty-dong-thay-cha-me-r51909304.epi</t>
+          <t>https://lite.baomoi.com/loi-ke-cua-nguoi-thoat-chet-khi-vang-khoi-xe-khach-sau-va-cham-voi-xe-tai-r51909247.epi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Câu lạc bộ bóng đá Bắc Ninh xuất quân thi đấu Giải hạng Nhì Quốc gia 2025</t>
+          <t>5 kiểu chân váy tối giản ai cũng có thể mặc đẹp</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909530/c78fca30a57e4c20156f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_338_51909846/8d7005e06aae83f0dabf.jpg</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cau-lac-bo-bong-da-bac-ninh-xuat-quan-thi-dau-giai-hang-nhi-quoc-gia-2025-r51909530.epi</t>
+          <t>https://lite.baomoi.com/5-kieu-chan-vay-toi-gian-ai-cung-co-the-mac-dep-r51909846.epi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lãi suất cho vay tiếp tục giảm, áp lực tỷ giá gia tăng</t>
+          <t>VCCI gửi thư tới các đối tác thuyết phục ủng hộ việc hoãn áp dụng thuế đối ứng</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_3_51909659/d2e4ee60812e6870313f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_72_51909723/b01c4d9422dacb8492cb.jpg</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lai-suat-cho-vay-tiep-tuc-giam-ap-luc-ty-gia-gia-tang-r51909659.epi</t>
+          <t>https://lite.baomoi.com/vcci-gui-thu-toi-cac-doi-tac-thuyet-phuc-ung-ho-viec-hoan-ap-dung-thue-doi-ung-r51909723.epi</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EU tìm sự đồng thuận trong hành động đáp trả thuế quan của Mỹ</t>
+          <t>Sao U22 Việt Nam chói sáng, cùng Hoàng Đức giúp Ninh Bình thắng to</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_72_51909401/3539ab80c4ce2d9074df.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909599/2e7ba6f3c9bd20e379ac.jpg</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/eu-tim-su-dong-thuan-trong-hanh-dong-dap-tra-thue-quan-cua-my-r51909401.epi</t>
+          <t>https://lite.baomoi.com/sao-u22-viet-nam-choi-sang-cung-hoang-duc-giup-ninh-binh-thang-to-r51909599.epi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nguy cơ ngồi tù 10 năm vì cố mở cửa máy bay trên không</t>
+          <t>Con trai dạy thư pháp kiếm tiền, trả nợ 71 tỷ đồng thay cha mẹ</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_119_51909557/552dd7acb8e251bc08f3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_83_51909304/4d879f34f07a1924406b.jpg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguy-co-ngoi-tu-10-nam-vi-co-mo-cua-may-bay-tren-khong-r51909557.epi</t>
+          <t>https://lite.baomoi.com/con-trai-day-thu-phap-kiem-tien-tra-no-71-ty-dong-thay-cha-me-r51909304.epi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ukraine nguy cơ trở thành 'trung tâm buôn bán vũ khí' lớn nhất thế giới hậu xung đột</t>
+          <t>Núi lửa Dukono phun trào, Indonesia phát cảnh báo an toàn hàng không</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909442/645c16e779a990f7c9b8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_14_51909829/f4dc194d76039f5dc612.jpg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ukraine-nguy-co-tro-thanh-trung-tam-buon-ban-vu-khi-lon-nhat-the-gioi-hau-xung-dot-r51909442.epi</t>
+          <t>https://lite.baomoi.com/nui-lua-dukono-phun-trao-indonesia-phat-canh-bao-an-toan-hang-khong-r51909829.epi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Những lý do khiến Hoa Kỳ khó có thể phá vỡ liên kết Nga - Trung</t>
+          <t>Bắt giữ nhóm thanh, thiếu niên mang kiếm 'truy lùng' đối thủ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909441/a243d1f8beb657e80ea7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909602/f0159d96f2d81b8642c9.jpg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhung-ly-do-khien-hoa-ky-kho-co-the-pha-vo-lien-ket-nga-trung-r51909441.epi</t>
+          <t>https://lite.baomoi.com/bat-giu-nhom-thanh-thieu-nien-mang-kiem-truy-lung-doi-thu-r51909602.epi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mất thị trường Trung Quốc, nông sản Mỹ sẽ đi về đâu?</t>
+          <t>Bảng xếp hạng V.League 2024-2025 mới nhất vòng 17</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909709/093555bc3af2d3ac8ae3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_83_51909082/6cccc66ea920407e1931.jpg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mat-thi-truong-trung-quoc-nong-san-my-se-di-ve-dau-r51909709.epi</t>
+          <t>https://lite.baomoi.com/bang-xep-hang-v-league-2024-2025-moi-nhat-vong-17-r51909082.epi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mỹ thu hồi toàn bộ thị thực cấp cho công dân Nam Sudan</t>
+          <t>Bắt 2 thanh niên liều lĩnh cướp 2 chiếc Iphone 15 ProMax</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909407/631661920edce782becd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909900/c98b4a1f2551cc0f9540.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-thu-hoi-toan-bo-thi-thuc-cap-cho-cong-dan-nam-sudan-r51909407.epi</t>
+          <t>https://lite.baomoi.com/bat-2-thanh-nien-lieu-linh-cuop-2-chiec-iphone-15-promax-r51909900.epi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Chủ tịch Chứng khoán SSI Nguyễn Duy Hưng: Niềm tin vào tiềm năng nội tại đang rất lớn</t>
+          <t>Phó Chủ tịch Quốc hội Trần Quang Phương gặp Phó Chủ tịch Quốc hội Thụy Điển</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_15_51909348/265697e2f8ac11f248bd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909624/a11b8a4ee5000c5e5511.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chu-tich-chung-khoan-ssi-nguyen-duy-hung-niem-tin-vao-tiem-nang-noi-tai-dang-rat-lon-r51909348.epi</t>
+          <t>https://lite.baomoi.com/pho-chu-tich-quoc-hoi-tran-quang-phuong-gap-pho-chu-tich-quoc-hoi-thuy-dien-r51909624.epi</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Du khách cần lưu ý điều gì khi Đền Hùng quá đông đúc?</t>
+          <t>Trên 400 VĐV tranh tài tại Vòng bảng Giải bóng chuyền hạng A Quốc gia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909324/b24a32db5d95b4cbed84.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909697/93a7552e3a60d33e8a71.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/du-khach-can-luu-y-dieu-gi-khi-den-hung-qua-dong-duc-r51909324.epi</t>
+          <t>https://lite.baomoi.com/tren-400-vdv-tranh-tai-tai-vong-bang-giai-bong-chuyen-hang-a-quoc-gia-r51909697.epi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Giá cà phê hôm nay 7/4: Giá cà phê trong nước chững lại ở mức 127.200 đồng/kg</t>
+          <t>Mỹ tục 'xông nhà' ở Nam Định chính thức là Di sản văn hóa phi vật thể quốc gia</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909432/8db2140f7b41921fcb50.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_197_51909774/b42ad7a7b8e951b708f8.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gia-ca-phe-hom-nay-7-4-gia-ca-phe-trong-nuoc-chung-lai-o-muc-127-200-dong-kg-r51909432.epi</t>
+          <t>https://lite.baomoi.com/my-tuc-xong-nha-o-nam-dinh-chinh-thuc-la-di-san-van-hoa-phi-vat-the-quoc-gia-r51909774.epi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mẹ chàng trai nói lời hay, cô gái xúc động muốn về làm dâu</t>
+          <t>Thống đốc: Chắc chắn thị trường tài chính, tiền tệ diễn biến phức tạp hàng ngày, hàng giờ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909436/b74c65f70ab9e3e7baa8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_72_51909399/e3e77c5e1310fa4ea301.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/me-chang-trai-noi-loi-hay-co-gai-xuc-dong-muon-ve-lam-dau-r51909436.epi</t>
+          <t>https://lite.baomoi.com/thong-doc-chac-chan-thi-truong-tai-chinh-tien-te-dien-bien-phuc-tap-hang-ngay-hang-gio-r51909399.epi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hải Phòng chính thức khai thác nhiều cầu cảng mới tại Lạch Huyện</t>
+          <t>Siêu phẩm lốp bóng từ khoảng cách hơn 50 mét ở V.League</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_3_51909482/6b4134fc5bb2b2eceba3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_119_51909553/2077f4f39bbd72e32bac.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hai-phong-chinh-thuc-khai-thac-nhieu-cau-cang-moi-tai-lach-huyen-r51909482.epi</t>
+          <t>https://lite.baomoi.com/sieu-pham-lop-bong-tu-khoang-cach-hon-50-met-o-v-league-r51909553.epi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Chính quyền địa phương cấp xã sắp tới sẽ có một trung tâm phục vụ hành chính công</t>
+          <t>Trường đại học đầu tiên trên thế giới tuyển một trí tuệ nhân tạo làm sinh viên</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909377/d059c2eeada044fe1db1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909823/c102b78cd8c2319c68d3.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chinh-quyen-dia-phuong-cap-xa-sap-toi-se-co-mot-trung-tam-phuc-vu-hanh-chinh-cong-r51909377.epi</t>
+          <t>https://lite.baomoi.com/truong-dai-hoc-dau-tien-tren-the-gioi-tuyen-mot-tri-tue-nhan-tao-lam-sinh-vien-r51909823.epi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Vụ Bệnh viện tỉnh Khánh Hòa bị tố độc quyền xe chuyển bệnh nhân: Công an vào cuộc xác minh</t>
+          <t>Israel tiếp tục không kích vào Lebanon</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_114_51909202/01de8958e6160f485607.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909623/64e4c770a83e4160182f.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-benh-vien-tinh-khanh-hoa-bi-to-doc-quyen-xe-chuyen-benh-nhan-cong-an-vao-cuoc-xac-minh-r51909202.epi</t>
+          <t>https://lite.baomoi.com/israel-tiep-tuc-khong-kich-vao-lebanon-r51909623.epi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nga, Mỹ có thể nối lại tiếp xúc song phương vào tuần tới</t>
+          <t>Thứ trưởng Bộ Tài chính: Tăng trưởng kinh tế các quý tiếp theo vẫn ở mức cao</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909349/b9ade5198a5763093a46.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_3_51909650/ee631be774a99df7c4b8.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-my-co-the-noi-lai-tiep-xuc-song-phuong-vao-tuan-toi-r51909349.epi</t>
+          <t>https://lite.baomoi.com/thu-truong-bo-tai-chinh-tang-truong-kinh-te-cac-quy-tiep-theo-van-o-muc-cao-r51909650.epi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Đánh bại Đông Á Thanh Hóa, Hà Nội FC tiếp tục 'nuôi mộng' vô địch V.league</t>
+          <t>Đoàn cứu nạn, cứu hộ Việt Nam chia sẻ nỗi mất mát với người dân vùng động đất Myanmar</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_5_51909587/4c2189a2e6ec0fb256fd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_14_51909871/3b73eae185af6cf135be.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/danh-bai-dong-a-thanh-hoa-ha-noi-fc-tiep-tuc-nuoi-mong-vo-dich-v-league-r51909587.epi</t>
+          <t>https://lite.baomoi.com/doan-cuu-nan-cuu-ho-viet-nam-chia-se-noi-mat-mat-voi-nguoi-dan-vung-dong-dat-myanmar-r51909871.epi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Chủ tịch Quốc hội Trần Thanh Mẫn gặp Chủ tịch Hội đồng Liên bang Nga và Chủ tịch Hạ viện Ấn Độ</t>
+          <t>Thuế quan của ông Trump bắt đầu phát huy uy lực</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909049/cc21af86c0c8299670d9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_296_51908927/e9e95b31347fdd21846e.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chu-tich-quoc-hoi-tran-thanh-man-gap-chu-tich-hoi-dong-lien-bang-nga-va-chu-tich-ha-vien-an-do-r51909049.epi</t>
+          <t>https://lite.baomoi.com/thue-quan-cua-ong-trump-bat-dau-phat-huy-uy-luc-r51908927.epi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cận cảnh cuộc sống những người định cư đầu tiên tại Nebraska</t>
+          <t>Truyền hình trên nền tảng số là để tìm những khán giả ngày mai</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_180_51909290/339ac62aa964403a1975.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_197_51909773/9668f3e59cab75f52cba.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/can-canh-cuoc-song-nhung-nguoi-dinh-cu-dau-tien-tai-nebraska-r51909290.epi</t>
+          <t>https://lite.baomoi.com/truyen-hinh-tren-nen-tang-so-la-de-tim-nhung-khan-gia-ngay-mai-r51909773.epi</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Không Việt kiều, CLB nữ TP.HCM vẫn vô địch giải Quốc gia</t>
+          <t>Công Phượng tái xuất ấn tượng, Bình Phước bỏ túi 3 điểm</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_119_51909372/824989fee6b00fee56a1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909504/a83e24b64bf8a2a6fbe9.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khong-viet-kieu-clb-nu-tp-hcm-van-vo-dich-giai-quoc-gia-r51909372.epi</t>
+          <t>https://lite.baomoi.com/cong-phuong-tai-xuat-an-tuong-binh-phuoc-bo-tui-3-diem-r51909504.epi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Phố núi gìn giữ hồn dân tộc qua từng chiếc bánh chưng, bánh giầy</t>
+          <t>Đám cưới Hyomin và chú rể má lúm: Váy cưới lạ mắt, hội chị em T-ARA điểm danh</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_296_51909404/86c02a794537ac69f526.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_105_51909752/9e8e5a04354adc14855b.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pho-nui-gin-giu-hon-dan-toc-qua-tung-chiec-banh-chung-banh-giay-r51909404.epi</t>
+          <t>https://lite.baomoi.com/dam-cuoi-hyomin-va-chu-re-ma-lum-vay-cuoi-la-mat-hoi-chi-em-t-ara-diem-danh-r51909752.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chính quyền Trump 2.0 và sự thay đổi trong cục diện quan hệ Hoa Kỳ - Đông Á</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909711/09565edf3191d8cf8180.jpg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chinh-quyen-trump-2-0-va-su-thay-doi-trong-cuc-dien-quan-he-hoa-ky-dong-a-r51909711.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Liên đảng đối lập ở Australia muốn cắt giảm mạnh số lượng sinh viên quốc tế</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909622/ae750b23646d8d33d47c.jpg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lien-dang-doi-lap-o-australia-muon-cat-giam-manh-so-luong-sinh-vien-quoc-te-r51909622.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Myanmar tri ân 5 đoàn cứu hộ quốc tế giúp đỡ người dân sau vụ động đất</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_94_51909560/46ce1d4f72019b5fc210.jpg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/myanmar-tri-an-5-doan-cuu-ho-quoc-te-giup-do-nguoi-dan-sau-vu-dong-dat-r51909560.epi</t>
         </is>
       </c>
     </row>

--- a/data/raw-data/news.xlsx
+++ b/data/raw-data/news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1241 +458,3893 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thêm một tuyển thủ Việt Nam bị gãy chân</t>
+          <t>Thủ tướng: Sẵn sàng để ngày 1/7 vận hành bộ máy mới sau sắp xếp, sáp nhập</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909808/8350c6dfa99140cf1980.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_83_51976294/daff3ecd5d83b4dded92.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/them-mot-tuyen-thu-viet-nam-bi-gay-chan-r51909808.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-san-sang-de-ngay-1-7-van-hanh-bo-may-moi-sau-sap-xep-sap-nhap-r51976294.epi</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tìm 'cơ' trong 'nguy'</t>
+          <t>Việt Nam chính thức công bố thanh toán thành công bệnh mắt hột</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_06_294_51909857/912e47bd28f3c1ad98e2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_106_51976588/79536d6b0e25e77bbe34.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tim-co-trong-nguy-r51909857.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-chinh-thuc-cong-bo-thanh-toan-thanh-cong-benh-mat-hot-r51976588.epi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ngỡ ngàng với nghề 'ngắn hạn' của người mẹ giết con để trục lợi bảo hiểm</t>
+          <t>Ông Trump lên tiếng sau cuộc tấn công của Nga vào thành phố Sumy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51908961/b1386b8604c8ed96b4d9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51975700/224ce67f85316c6f3520.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ngo-ngang-voi-nghe-ngan-han-cua-nguoi-me-giet-con-de-truc-loi-bao-hiem-r51908961.epi</t>
+          <t>https://lite.baomoi.com/ong-trump-len-tieng-sau-cuoc-tan-cong-cua-nga-vao-thanh-pho-sumy-r51975700.epi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thất bại đau đớn cho U17 Trung Quốc</t>
+          <t>Lộ diện 2 giám đốc 'bù nhìn' trong vụ sữa bột giả thu lợi 500 tỷ đồng</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_329_51910046/ff936afd05b3ecedb5a2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51974884/9b5e2734447aad24f46b.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/that-bai-dau-don-cho-u17-trung-quoc-r51910046.epi</t>
+          <t>https://lite.baomoi.com/lo-dien-2-giam-doc-bu-nhin-trong-vu-sua-bot-gia-thu-loi-500-ty-dong-r51974884.epi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Những hình ảnh xúc động thắm tình quân dân ở ga Biên Hòa</t>
+          <t>Người may 'niềm tin chiến thắng'</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_114_51904918/8a9eb3fdddb334ed6da2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51975781/7bd5a686c5c82c9675d9.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhung-hinh-anh-xuc-dong-tham-tinh-quan-dan-o-ga-bien-hoa-r51904918.epi</t>
+          <t>https://lite.baomoi.com/nguoi-may-niem-tin-chien-thang-r51975781.epi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Thử thách bản thân, rèn luyện bản lĩnh</t>
+          <t>Vụ sập lan can trường học, 3 nữ sinh bị thương: Công an vào cuộc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51910077/3646d702b84c5112085d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51975707/8f174c252f6bc6359f7a.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-thach-ban-than-ren-luyen-ban-linh-r51910077.epi</t>
+          <t>https://lite.baomoi.com/vu-sap-lan-can-truong-hoc-3-nu-sinh-bi-thuong-cong-an-vao-cuoc-r51975707.epi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Quang Linh Vlogs, Hằng Du Mục bị bắt: Ai chỉ đạo mua bột rau củ để làm kẹo Kera?</t>
+          <t>Giá vàng SJC lập đỉnh mới 107,5 triệu đồng/lượng, bất chấp giá thế giới giảm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_83_51909578/98a769280666ef38b677.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_17_51974438/da3066a905e7ecb9b5f6.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-linh-vlogs-hang-du-muc-bi-bat-ai-chi-dao-mua-bot-rau-cu-de-lam-keo-kera-r51909578.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-sjc-lap-dinh-moi-107-5-trieu-dong-luong-bat-chap-gia-the-gioi-giam-r51974438.epi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Giá vàng hôm nay 7/4/2025: Giá vàng chưa thể tăng ngay, nhà đầu tư 'ôm' tiền mặt, thị trường đang rất biến động</t>
+          <t>Làm rõ vụ đánh nhau vì giành khách ở đỉnh đèo Hải Vân</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_194_51909637/78a496c1f98f10d1499e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51975927/1c2c9875fb3b12654b2a.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gia-vang-hom-nay-7-4-2025-gia-vang-chua-the-tang-ngay-nha-dau-tu-om-tien-mat-thi-truong-dang-rat-bien-dong-r51909637.epi</t>
+          <t>https://lite.baomoi.com/lam-ro-vu-danh-nhau-vi-gianh-khach-o-dinh-deo-hai-van-r51975927.epi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Địa chấn tại Premier League</t>
+          <t>Phiên tòa xét xử cựu Tổng thống Hàn Quốc diễn biến rất phức tạp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_119_51909732/82fb9473fb3d12634b2c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51975393/4ee653a730e9d9b780f8.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dia-chan-tai-premier-league-r51909732.epi</t>
+          <t>https://lite.baomoi.com/phien-toa-xet-xu-cuu-tong-thong-han-quoc-dien-bien-rat-phuc-tap-r51975393.epi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Đặc phái viên Tổng Bí thư, Phó Thủ tướng Hồ Đức Phớc sang Mỹ</t>
+          <t>Vĩnh biệt thành viên thân thương của 'Gia đình Tin tức'</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51910069/5aeb039d6cd3858ddcc2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51976177/3cefa2e3c1ad28f371bc.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dac-phai-vien-tong-bi-thu-pho-thu-tuong-ho-duc-phoc-sang-my-r51910069.epi</t>
+          <t>https://lite.baomoi.com/vinh-biet-thanh-vien-than-thuong-cua-gia-dinh-tin-tuc-r51976177.epi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Malaysia và nhiều nước đánh giá cao Tổng Bí thư Tô Lâm điện đàm với Tổng thống Hoa Kỳ, ủng hộ cách tiếp cận của Việt Nam</t>
+          <t>Tiến tới Đại hội XIV của Đảng: Nhiều ý kiến tâm huyết góp ý vào Dự thảo Báo cáo chính trị</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_146_51908802/070085d2ea9c03c25a8d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51976000/3f26a07cc3322a6c7323.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/malaysia-va-nhieu-nuoc-danh-gia-cao-tong-bi-thu-to-lam-dien-dam-voi-tong-thong-hoa-ky-ung-ho-cach-tiep-can-cua-viet-nam-r51908802.epi</t>
+          <t>https://lite.baomoi.com/tien-toi-dai-hoi-xiv-cua-dang-nhieu-y-kien-tam-huyet-gop-y-vao-du-thao-bao-cao-chinh-tri-r51976000.epi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Từ đêm 6 - 16/4, Đông Nam Bộ nắng nóng diện rộng</t>
+          <t>Thủ tướng: Chuẩn bị sẵn sàng để vận hành bộ máy mới của chính quyền địa phương 2 cấp từ 1/7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51908595/b32c8fe5e0ab09f550ba.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_146_51976007/09e503ef60a189ffd0b0.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tu-dem-6-16-4-dong-nam-bo-nang-nong-dien-rong-r51908595.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-chuan-bi-san-sang-de-van-hanh-bo-may-moi-cua-chinh-quyen-dia-phuong-2-cap-tu-1-7-r51976007.epi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tổ chức khởi công, khánh thành trực tuyến đồng loạt các công trình lớn chào mừng 50 năm giải phóng miền Nam, thống nhất đất nước</t>
+          <t>TP Hồ Chí Minh: Đã xác minh được danh tính người đàn ông 'hít xà đơn' trên tàu metro số 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_146_51910071/c3798307ec4905175c58.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51974935/e86bf50796497f172658.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/to-chuc-khoi-cong-khanh-thanh-truc-tuyen-dong-loat-cac-cong-trinh-lon-chao-mung-50-nam-giai-phong-mien-nam-thong-nhat-dat-nuoc-r51910071.epi</t>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-da-xac-minh-duoc-danh-tinh-nguoi-dan-ong-hit-xa-don-tren-tau-metro-so-1-r51974935.epi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cập nhật diễn tiến vụ 'mẹ giết con để trục lợi bảo hiểm' đến rạng sáng 7-4</t>
+          <t>Thủ tướng: Sẵn sàng vận hành bộ máy mới chính quyền địa phương 2 cấp từ ngày 1/7</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51910036/4ff76b9f04d1ed8fb4c0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51976555/6518582e3b60d23e8b71.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cap-nhat-dien-tien-vu-me-giet-con-de-truc-loi-bao-hiem-den-rang-sang-7-4-r51910036.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-san-sang-van-hanh-bo-may-moi-chinh-quyen-dia-phuong-2-cap-tu-ngay-1-7-r51976555.epi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kết quả vòng 31 Ngoại hạng Anh đêm 6/4: MU hòa tiếc nuối trước Man City</t>
+          <t>Tên gọi dự kiến của 36 xã, phường ở Bình Dương sau sáp nhập</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_65_51907610/501dc676a93840661929.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51976320/76b78b9ae8d4018a58c5.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ket-qua-vong-31-ngoai-hang-anh-dem-6-4-mu-hoa-tiec-nuoi-truoc-man-city-r51907610.epi</t>
+          <t>https://lite.baomoi.com/ten-goi-du-kien-cua-36-xa-phuong-o-binh-duong-sau-sap-nhap-r51976320.epi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chủ tịch Quốc hội Trần Thanh Mẫn tiếp Chủ tịch Hội hữu nghị Uzbekistan-Việt Nam</t>
+          <t>Bình Dương bứt phá kinh tế đầu năm, sẵn sàng hợp lực cùng TP. Hồ Chí Minh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_65_51910070/27082a464508ac56f519.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_293_51976553/f139c10fa2414b1f1250.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chu-tich-quoc-hoi-tran-thanh-man-tiep-chu-tich-hoi-huu-nghi-uzbekistan-viet-nam-r51910070.epi</t>
+          <t>https://lite.baomoi.com/binh-duong-but-pha-kinh-te-dau-nam-san-sang-hop-luc-cung-tp-ho-chi-minh-r51976553.epi</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cận cảnh ngôi chùa được làm từ vỏ ốc ở Cam Ranh</t>
+          <t>Mê mẩn với 'vương giả chi hoa' đua nhau khoe sắc giữa Hoàng cung Huế</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_05_465_51899256/12d7a519c85721097846.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51976024/b4ca48972bd9c2879bc8.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/can-canh-ngoi-chua-duoc-lam-tu-vo-oc-o-cam-ranh-r51899256.epi</t>
+          <t>https://lite.baomoi.com/me-man-voi-vuong-gia-chi-hoa-dua-nhau-khoe-sac-giua-hoang-cung-hue-r51976024.epi</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nga bất ngờ 'mở cửa' với việc phương Tây bảo đảm an ninh cho Ukraine?</t>
+          <t>Thủ tướng: Sắp xếp trung tâm y tế, trường học phải đảm bảo thuận lợi cho người dân</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51909092/d6351e9071de9880c1cf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_14_65_51975873/29be659a06d4ef8ab6c5.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nga-bat-ngo-mo-cua-voi-viec-phuong-tay-bao-dam-an-ninh-cho-ukraine-r51909092.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-sap-xep-trung-tam-y-te-truong-hoc-phai-dam-bao-thuan-loi-cho-nguoi-dan-r51975873.epi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Báo in Người Lao Động 7-4: Nhiều trường ĐH đồng loạt tăng học phí</t>
+          <t>Đại tướng Phan Văn Giang tiếp xúc bên lề với Bộ trưởng Bộ Quốc phòng Trung Quốc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_15_51909984/ecdb11457e0b9755ce1a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_16_51975888/23bd3bea58a4b1fae8b5.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bao-in-nguoi-lao-dong-7-4-nhieu-truong-dh-dong-loat-tang-hoc-phi-r51909984.epi</t>
+          <t>https://lite.baomoi.com/dai-tuong-phan-van-giang-tiep-xuc-ben-le-voi-bo-truong-bo-quoc-phong-trung-quoc-r51975888.epi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Man Utd, Man City hòa tẻ nhạt</t>
+          <t>Hoa hậu H'Hen Niê rơi nước mắt khi nhắc về chồng</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_83_51910050/639f83f9ecb705e95ca6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51976434/e05e6a6d0923e07db932.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/man-utd-man-city-hoa-te-nhat-r51910050.epi</t>
+          <t>https://lite.baomoi.com/hoa-hau-h-hen-nie-roi-nuoc-mat-khi-nhac-ve-chong-r51976434.epi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Doanh số xe sang tại Singapore 'lao dốc' vì người mua muốn tránh phô trương sự giàu có</t>
+          <t>Chủ quán bán đĩa rau muống xào 500.000 đồng ở Nha Trang chây ì nộp phạt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_465_51910041/d26325074a49a317fa58.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_83_51975154/67011d767e389766ce29.jpg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/doanh-so-xe-sang-tai-singapore-lao-doc-vi-nguoi-mua-muon-tranh-pho-truong-su-giau-co-r51910041.epi</t>
+          <t>https://lite.baomoi.com/chu-quan-ban-dia-rau-muong-xao-500-000-dong-o-nha-trang-chay-i-nop-phat-r51975154.epi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Phu nhân Chủ tịch Quốc hội tham quan Khu trưng bày nghệ thuật NBU, Uzbekistan</t>
+          <t>Thủ tướng chủ trì phiên họp Ban Chỉ đạo xây dựng Đề án phát triển kinh tế tư nhân</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_16_51910057/35bd53d23c9cd5c28c8d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_293_51975846/a1a9c4fca7b24eec17a3.jpg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phu-nhan-chu-tich-quoc-hoi-tham-quan-khu-trung-bay-nghe-thuat-nbu-uzbekistan-r51910057.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-chu-tri-phien-hop-ban-chi-dao-xay-dung-de-an-phat-trien-kinh-te-tu-nhan-r51975846.epi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Việt Nam tham gia tích cực, có trách nhiệm vào các hoạt động của IPU và hợp tác liên nghị viện đa phương</t>
+          <t>Tổng Bí thư Tô Lâm hội đàm với Tổng Bí thư, Chủ tịch nước Trung Quốc Tập Cận Bình</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_16_51910039/0411f875973b7e65272a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51976237/10461d627e2c9772ce3d.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/viet-nam-tham-gia-tich-cuc-co-trach-nhiem-vao-cac-hoat-dong-cua-ipu-va-hop-tac-lien-nghi-vien-da-phuong-r51910039.epi</t>
+          <t>https://lite.baomoi.com/tong-bi-thu-to-lam-hoi-dam-voi-tong-bi-thu-chu-tich-nuoc-trung-quoc-tap-can-binh-r51976237.epi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NSND Tự Long khóc khi nói về Soobin Hoàng Sơn</t>
+          <t>Dư luận rúng động phòng chat tình dục liên quan showbiz</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_20_51909986/4376e9e886a66ff836b7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51976587/033a7602154cfc12a55d.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nsnd-tu-long-khoc-khi-noi-ve-soobin-hoang-son-r51909986.epi</t>
+          <t>https://lite.baomoi.com/du-luan-rung-dong-phong-chat-tinh-duc-lien-quan-showbiz-r51976587.epi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Thắng tạo 'siêu phẩm' bàn thắng từ khoảng cách hơn 50m</t>
+          <t>Bé trai chào đời được nửa ngày, mẹ bỗng nhiên rời đi mất liên lạc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909892/34fd7f681026f978a037.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51976693/773e7301104ff911a05e.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguyen-huu-thang-tao-sieu-pham-ban-thang-tu-khoang-cach-hon-50m-r51909892.epi</t>
+          <t>https://lite.baomoi.com/be-trai-chao-doi-duoc-nua-ngay-me-bong-nhien-roi-di-mat-lien-lac-r51976693.epi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Siêu phẩm từ sân nhà giúp Thể Công Viettel thoát thua Quảng Nam</t>
+          <t>Trưng bày các văn kiện hợp tác giữa hai nước Việt Nam-Trung Quốc</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_23_51910008/0140e4218b6f62313b7e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_293_51976596/3f20ee1b8d55640b3d44.jpg</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sieu-pham-tu-san-nha-giup-the-cong-viettel-thoat-thua-quang-nam-r51910008.epi</t>
+          <t>https://lite.baomoi.com/trung-bay-cac-van-kien-hop-tac-giua-hai-nuoc-viet-nam-trung-quoc-r51976596.epi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vụ kẹo Kera: Tối 6-4, TikToker Phan Bảo Long xin lỗi, cộng đồng mạng đề nghị công an vào cuộc</t>
+          <t>Lời khai ban đầu của vợ chém người chồng đang ngủ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909283/60b4cf05a04b4915105a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_114_51972560/09ddd677b5395c670528.jpg</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-keo-kera-toi-6-4-tiktoker-phan-bao-long-xin-loi-cong-dong-mang-de-nghi-cong-an-vao-cuoc-r51909283.epi</t>
+          <t>https://lite.baomoi.com/loi-khai-ban-dau-cua-vo-chem-nguoi-chong-dang-ngu-r51972560.epi</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cảnh hoa anh đào đang bung nở rực rỡ khắp thế giới</t>
+          <t>Hoa anh đào 'nhuộm hồng' đường phố ở Đức</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_03_119_51882908/69b3b52fc7612e3f7770.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_465_51970988/30704c882fc6c6989fd7.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/canh-hoa-anh-dao-dang-bung-no-ruc-ro-khap-the-gioi-r51882908.epi</t>
+          <t>https://lite.baomoi.com/hoa-anh-dao-nhuom-hong-duong-pho-o-duc-r51970988.epi</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Myanmar hứng chịu 89 dư chấn sau trận động đất mạnh</t>
+          <t>Phản ứng của Doãn Quốc Đam, MC Hoàng Linh về quảng cáo sữa giả</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_14_51909889/e29573001c4ef510ac5f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51975999/4dbed7e4b4aa5df404bb.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/myanmar-hung-chiu-89-du-chan-sau-tran-dong-dat-manh-r51909889.epi</t>
+          <t>https://lite.baomoi.com/phan-ung-cua-doan-quoc-dam-mc-hoang-linh-ve-quang-cao-sua-gia-r51975999.epi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TP.HCM vô địch giải bóng đá nữ Cúp Quốc gia 2025</t>
+          <t>Tổng thống Trump chính thức lên tiếng về việc Nga tấn công thành phố Sumy của Ukraine</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_83_51909967/8a606dfc02b2ebecb2a3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51973682/00ca0e486d068458dd17.jpg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-vo-dich-giai-bong-da-nu-cup-quoc-gia-2025-r51909967.epi</t>
+          <t>https://lite.baomoi.com/tong-thong-trump-chinh-thuc-len-tieng-ve-viec-nga-tan-cong-thanh-pho-sumy-cua-ukraine-r51973682.epi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MU ngăn Man City trở lại top 4</t>
+          <t>Việt Nam – Hàn Quốc phấn đấu đạt 150 tỉ USD kim ngạch thương mại vào năm 2030</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_119_51909731/a0e99480fbce12904bdf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_114_51976575/b54a1c727f3c9662cf2d.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mu-ngan-man-city-tro-lai-top-4-r51909731.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-han-quoc-phan-dau-dat-150-ti-usd-kim-ngach-thuong-mai-vao-nam-2030-r51976575.epi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Đường Hồ Chí Minh trên biển: Khát vọng tự do, thống nhất đất nước</t>
+          <t>Chiếc ví đen bị bỏ quên tại Nội Bài và pha 'quay xe' trong đêm của vị khách</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_65_51910023/55aef1e99ea777f92eb6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51975736/fd60f74694087d562419.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/duong-ho-chi-minh-tren-bien-khat-vong-tu-do-thong-nhat-dat-nuoc-r51910023.epi</t>
+          <t>https://lite.baomoi.com/chiec-vi-den-bi-bo-quen-tai-noi-bai-va-pha-quay-xe-trong-dem-cua-vi-khach-r51975736.epi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Xác định đội đầu tiên xuống hạng ở Premier League 2024/25</t>
+          <t>Vụ sữa giả: Luật sư nói gì về trách nhiệm của những người nổi tiếng?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_106_51909962/31651cf873b69ae8c3a7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_14_65_51976605/3b2c4f292c67c5399c76.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xac-dinh-doi-dau-tien-xuong-hang-o-premier-league-2024-25-r51909962.epi</t>
+          <t>https://lite.baomoi.com/vu-sua-gia-luat-su-noi-gi-ve-trach-nhiem-cua-nhung-nguoi-noi-tieng-r51976605.epi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>'Giải quyết các yêu cầu chính đáng của phía Hoa Kỳ trên cơ sở lợi ích hài hòa, rủi ro chia sẻ'</t>
+          <t>TP.HCM nắng nóng, tiêu thụ điện đạt kỷ lục</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_599_51909885/d84db0dfdf9136cf6f80.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_114_51976574/da737b4b1805f15ba814.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/giai-quyet-cac-yeu-cau-chinh-dang-cua-phia-hoa-ky-tren-co-so-loi-ich-hai-hoa-rui-ro-chia-se-r51909885.epi</t>
+          <t>https://lite.baomoi.com/tp-hcm-nang-nong-tieu-thu-dien-dat-ky-luc-r51976574.epi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Những điều cần biết về hộp số sàn ô tô, tài xế lâu năm chưa chắc đã nắm rõ</t>
+          <t>Ngọc Thanh Tâm gây sốt khi đánh trống điêu luyện trong concert Chị đẹp</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_304_51910080/ddca088167cf8e91d7de.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51976606/aaa378981bd6f288abc7.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhung-dieu-can-biet-ve-hop-so-san-o-to-tai-xe-lau-nam-chua-chac-da-nam-ro-r51910080.epi</t>
+          <t>https://lite.baomoi.com/ngoc-thanh-tam-gay-sot-khi-danh-trong-dieu-luyen-trong-concert-chi-dep-r51976606.epi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cố vấn Tổng thống Trump: Hơn 50 quốc gia đã liên hệ đàm phán thương mại với Hoa Kỳ</t>
+          <t>TP.HCM sẽ sáp nhập Sở Giao thông Công chánh</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_294_51909856/0bca215a4e14a74afe05.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51976678/11c15ac4398ad0d4899b.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-van-tong-thong-trump-hon-50-quoc-gia-da-lien-he-dam-phan-thuong-mai-voi-hoa-ky-r51909856.epi</t>
+          <t>https://lite.baomoi.com/tp-hcm-se-sap-nhap-so-giao-thong-cong-chanh-r51976678.epi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bảng giá iPhone tháng 4/2025: Nhiều sản phẩm giảm giá mạnh</t>
+          <t>Triển khai nhiều dự án giao thông kết nối Đắk Nông – Lâm Đồng</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_07_304_51910079/f806264d4903a05df912.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_112_51976569/def016c875869cd8c597.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bang-gia-iphone-thang-4-2025-nhieu-san-pham-giam-gia-manh-r51910079.epi</t>
+          <t>https://lite.baomoi.com/trien-khai-nhieu-du-an-giao-thong-ket-noi-dak-nong-lam-dong-r51976569.epi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Rực rỡ, hoành tráng và đầy cảm xúc với cầu truyền hình 'Bản trường ca hòa bình'</t>
+          <t>Thủ tướng Phạm Minh Chính chủ trì hội nghị tổng kết việc thực hiện Nghị quyết số 18-NQ/TW</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_06_15_51909909/c5fef26a9d24747a2d35.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_14_51975624/09067f4d1c03f55dac12.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ruc-ro-hoanh-trang-va-day-cam-xuc-voi-cau-truyen-hinh-ban-truong-ca-hoa-binh-r51909909.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-pham-minh-chinh-chu-tri-hoi-nghi-tong-ket-viec-thuc-hien-nghi-quyet-so-18-nq-tw-r51975624.epi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Đoàn cứu hộ Việt Nam kết thúc tìm kiếm cứu nạn động đất ở Myanmar</t>
+          <t>Phim có Khả Như không còn bán được vé</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_106_51909728/404629ce4680afdef691.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/doan-cuu-ho-viet-nam-ket-thuc-tim-kiem-cuu-nan-dong-dat-o-myanmar-r51909728.epi</t>
+          <t>https://lite.baomoi.com/phim-co-kha-nhu-khong-con-ban-duoc-ve-r51976499.epi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Oanh, Hoàng Nguyên Thanh vô địch VTV Phú Quốc Marathon</t>
+          <t>Dập tắt vụ cháy tại kho xưởng chứa xốp</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909754/566dcbe7a4a94df714b8.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguyen-thi-oanh-hoang-nguyen-thanh-vo-dich-vtv-phu-quoc-marathon-r51909754.epi</t>
+          <t>https://lite.baomoi.com/dap-tat-vu-chay-tai-kho-xuong-chua-xop-r51976461.epi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Khoảnh khắc bé trai 3 tuổi hốt hoảng báo tin bạn đuối nước khiến triệu người thót tim</t>
+          <t>Lấy mẫu xét nghiệm tìm nguyên nhân 11 con bò chết bất thường</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khoanh-khac-be-trai-3-tuoi-hot-hoang-bao-tin-ban-duoi-nuoc-khien-trieu-nguoi-thot-tim-r51909412.epi</t>
+          <t>https://lite.baomoi.com/lay-mau-xet-nghiem-tim-nguyen-nhan-11-con-bo-chet-bat-thuong-r51976314.epi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bộ Giáo dục Đào tạo thông tin việc dạy học 2 buổi mỗi ngày ở cấp THCS và PTTH</t>
+          <t>Thường vụ Quốc hội cho ý kiến về hồ sơ đề nghị sửa đổi Hiến pháp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_293_51908461/ba2385a4eaea03b45afb.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-giao-duc-dao-tao-thong-tin-viec-day-hoc-2-buoi-moi-ngay-o-cap-thcs-va-ptth-r51908461.epi</t>
+          <t>https://lite.baomoi.com/thuong-vu-quoc-hoi-cho-y-kien-ve-ho-so-de-nghi-sua-doi-hien-phap-r51976354.epi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Viện trưởng VKSND huyện trực tiếp kiểm sát xét xử phiên tòa rút kinh nghiệm</t>
+          <t>Nhiều hộ dân ở Thành phố Huế vẫn chưa thoát 'kiếp' nhà chồ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909708/fa51a7d8c89621c87887.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vien-truong-vksnd-huyen-truc-tiep-kiem-sat-xet-xu-phien-toa-rut-kinh-nghiem-r51909708.epi</t>
+          <t>https://lite.baomoi.com/nhieu-ho-dan-o-thanh-pho-hue-van-chua-thoat-kiep-nha-cho-r51976809.epi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nóng nhất trong ngày: Giá vàng tiếp đà lao dốc; Cây dại xưa cho lợn ăn nay hóa 'mỏ vàng'</t>
+          <t>Đảng ủy UBND TP HCM: Đề xuất nhất thể hóa Ban Tổ chức với Sở Nội vụ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_296_51908561/bdcd320b5d45b41bed54.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nong-nhat-trong-ngay-gia-vang-tiep-da-lao-doc-cay-dai-xua-cho-lon-an-nay-hoa-mo-vang-r51908561.epi</t>
+          <t>https://lite.baomoi.com/dang-uy-ubnd-tp-hcm-de-xuat-nhat-the-hoa-ban-to-chuc-voi-so-noi-vu-r51976411.epi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chương trình hạt nhân của Iran 'tăng nhiệt', Mỹ chuyển tổ hợp THAAD thứ 2 cho Israel</t>
+          <t>TP.HCM nghiên cứu chính sách hỗ trợ cho cán bộ thuộc diện tinh giản</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_194_51908308/26a934525b1cb242eb0d.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chuong-trinh-hat-nhan-cua-iran-tang-nhiet-my-chuyen-to-hop-thaad-thu-2-cho-israel-r51908308.epi</t>
+          <t>https://lite.baomoi.com/tp-hcm-nghien-cuu-chinh-sach-ho-tro-cho-can-bo-thuoc-dien-tinh-gian-r51976315.epi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Trung Quốc-Phần Lan thúc đẩy hợp tác kiểu mới hướng tới tương lai</t>
+          <t>Thông qua nghị quyết về việc sắp xếp đơn vị hành chính</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_194_51909813/0909098666c88f96d6d9.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/trung-quoc-phan-lan-thuc-day-hop-tac-kieu-moi-huong-toi-tuong-lai-r51909813.epi</t>
+          <t>https://lite.baomoi.com/thong-qua-nghi-quyet-ve-viec-sap-xep-don-vi-hanh-chinh-r51975652.epi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chuẩn bị mâm lễ vật giỗ Tổ Hùng Vương đơn giản mà thành kính</t>
+          <t>Người đàn ông bán bánh mì không tham của rơi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_94_51909855/de0fcf9fa0d1498f10c0.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chuan-bi-mam-le-vat-gio-to-hung-vuong-don-gian-ma-thanh-kinh-r51909855.epi</t>
+          <t>https://lite.baomoi.com/nguoi-dan-ong-ban-banh-mi-khong-tham-cua-roi-r51976482.epi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kiều bào tại Pháp khẳng định bản sắc dân tộc và gắn kết với quê hương</t>
+          <t>Nhật Bản 'không nóng lòng thỏa hiệp với Mỹ'</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909973/99e2b57eda30336e6a21.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/kieu-bao-tai-phap-khang-dinh-ban-sac-dan-toc-va-gan-ket-voi-que-huong-r51909973.epi</t>
+          <t>https://lite.baomoi.com/nhat-ban-khong-nong-long-thoa-hiep-voi-my-r51976571.epi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lời kể của người thoát chết khi văng khỏi xe khách sau va chạm với xe tải</t>
+          <t>Nhà ga T3 Tân Sơn Nhất đón chuyến bay đầu tiên từ ngày 17-4</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909247/54145ba434eaddb484fb.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/loi-ke-cua-nguoi-thoat-chet-khi-vang-khoi-xe-khach-sau-va-cham-voi-xe-tai-r51909247.epi</t>
+          <t>https://lite.baomoi.com/nha-ga-t3-tan-son-nhat-don-chuyen-bay-dau-tien-tu-ngay-17-4-r51976020.epi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5 kiểu chân váy tối giản ai cũng có thể mặc đẹp</t>
+          <t>Thủ tướng chủ trì Phiên họp thứ 3 Ban Chỉ đạo xây dựng đề án phát triển kinh tế tư nhân</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_338_51909846/8d7005e06aae83f0dabf.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/5-kieu-chan-vay-toi-gian-ai-cung-co-the-mac-dep-r51909846.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-chu-tri-phien-hop-thu-3-ban-chi-dao-xay-dung-de-an-phat-trien-kinh-te-tu-nhan-r51976521.epi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VCCI gửi thư tới các đối tác thuyết phục ủng hộ việc hoãn áp dụng thuế đối ứng</t>
+          <t>Đồng Nai phạt nặng nhiều doanh nghiệp vi phạm môi trường</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_72_51909723/b01c4d9422dacb8492cb.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vcci-gui-thu-toi-cac-doi-tac-thuyet-phuc-ung-ho-viec-hoan-ap-dung-thue-doi-ung-r51909723.epi</t>
+          <t>https://lite.baomoi.com/dong-nai-phat-nang-nhieu-doanh-nghiep-vi-pham-moi-truong-r51976520.epi</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sao U22 Việt Nam chói sáng, cùng Hoàng Đức giúp Ninh Bình thắng to</t>
+          <t>Cử tri Ninh Bình kỳ vọng vào những quyết sách của Trung ương sẽ kiến tạo và vì dân</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909599/2e7ba6f3c9bd20e379ac.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sao-u22-viet-nam-choi-sang-cung-hoang-duc-giup-ninh-binh-thang-to-r51909599.epi</t>
+          <t>https://lite.baomoi.com/cu-tri-ninh-binh-ky-vong-vao-nhung-quyet-sach-cua-trung-uong-se-kien-tao-va-vi-dan-r51976633.epi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Con trai dạy thư pháp kiếm tiền, trả nợ 71 tỷ đồng thay cha mẹ</t>
+          <t>Cựu Tổng thống Hàn Quốc Yoon Suk Yeol hầu tòa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_83_51909304/4d879f34f07a1924406b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976466/f43a52083146d8188157.jpg</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/con-trai-day-thu-phap-kiem-tien-tra-no-71-ty-dong-thay-cha-me-r51909304.epi</t>
+          <t>https://lite.baomoi.com/cuu-tong-thong-han-quoc-yoon-suk-yeol-hau-toa-r51976466.epi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Núi lửa Dukono phun trào, Indonesia phát cảnh báo an toàn hàng không</t>
+          <t>Cảnh Bangkok 'vỡ trận' lễ Songkran</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_14_51909829/f4dc194d76039f5dc612.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975660/9ba4e6e985a76cf935b6.jpg</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nui-lua-dukono-phun-trao-indonesia-phat-canh-bao-an-toan-hang-khong-r51909829.epi</t>
+          <t>https://lite.baomoi.com/canh-bangkok-vo-tran-le-songkran-r51975660.epi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bắt giữ nhóm thanh, thiếu niên mang kiếm 'truy lùng' đối thủ</t>
+          <t>Vi phạm phòng cháy chữa cháy – không còn là nhắc nhở</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909602/f0159d96f2d81b8642c9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51976454/dcfb17c974879dd9c496.jpg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bat-giu-nhom-thanh-thieu-nien-mang-kiem-truy-lung-doi-thu-r51909602.epi</t>
+          <t>https://lite.baomoi.com/vi-pham-phong-chay-chua-chay-khong-con-la-nhac-nho-r51976454.epi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bảng xếp hạng V.League 2024-2025 mới nhất vòng 17</t>
+          <t>Dự báo thời tiết ngày mai 15/4/2025: Miền Bắc hết lạnh chưa?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_83_51909082/6cccc66ea920407e1931.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976259/b8aa958cf6c21f9c46d3.jpg</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bang-xep-hang-v-league-2024-2025-moi-nhat-vong-17-r51909082.epi</t>
+          <t>https://lite.baomoi.com/du-bao-thoi-tiet-ngay-mai-15-4-2025-mien-bac-het-lanh-chua-r51976259.epi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bắt 2 thanh niên liều lĩnh cướp 2 chiếc Iphone 15 ProMax</t>
+          <t>Đề xuất mức phí trên đường bộ cao tốc Bắc - Nam cao nhất 1.300 đồng/km</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909900/c98b4a1f2551cc0f9540.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976199/39aaaa8fc9c1209f79d0.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bat-2-thanh-nien-lieu-linh-cuop-2-chiec-iphone-15-promax-r51909900.epi</t>
+          <t>https://lite.baomoi.com/de-xuat-muc-phi-tren-duong-bo-cao-toc-bac-nam-cao-nhat-1-300-dong-km-r51976199.epi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Phó Chủ tịch Quốc hội Trần Quang Phương gặp Phó Chủ tịch Quốc hội Thụy Điển</t>
+          <t>Sẽ khởi công dự án đường sắt cao tốc Bắc - Nam sớm hơn dự kiến</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909624/a11b8a4ee5000c5e5511.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976198/350cd529b6675f390676.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pho-chu-tich-quoc-hoi-tran-quang-phuong-gap-pho-chu-tich-quoc-hoi-thuy-dien-r51909624.epi</t>
+          <t>https://lite.baomoi.com/se-khoi-cong-du-an-duong-sat-cao-toc-bac-nam-som-hon-du-kien-r51976198.epi</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Trên 400 VĐV tranh tài tại Vòng bảng Giải bóng chuyền hạng A Quốc gia</t>
+          <t>Phát hiện, bắt giữ 3 xe vận chuyển 352 bình khí cười ở Quảng Ninh</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909697/93a7552e3a60d33e8a71.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976308/50d7ddd0be9e57c00e8f.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tren-400-vdv-tranh-tai-tai-vong-bang-giai-bong-chuyen-hang-a-quoc-gia-r51909697.epi</t>
+          <t>https://lite.baomoi.com/phat-hien-bat-giu-3-xe-van-chuyen-352-binh-khi-cuoi-o-quang-ninh-r51976308.epi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mỹ tục 'xông nhà' ở Nam Định chính thức là Di sản văn hóa phi vật thể quốc gia</t>
+          <t>Bắc Giang chuẩn bị đưa 75 lô đất ra tổ chức đấu giá</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_197_51909774/b42ad7a7b8e951b708f8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976744/a01a8b1be855010b5844.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/my-tuc-xong-nha-o-nam-dinh-chinh-thuc-la-di-san-van-hoa-phi-vat-the-quoc-gia-r51909774.epi</t>
+          <t>https://lite.baomoi.com/bac-giang-chuan-bi-dua-75-lo-dat-ra-to-chuc-dau-gia-r51976744.epi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Thống đốc: Chắc chắn thị trường tài chính, tiền tệ diễn biến phức tạp hàng ngày, hàng giờ</t>
+          <t>Quảng Ninh tiếp tục hoàn thiện phương án sắp xếp đơn vị hành chính cấp xã thuộc tỉnh</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_72_51909399/e3e77c5e1310fa4ea301.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51975185/9b76150f76419f1fc650.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thong-doc-chac-chan-thi-truong-tai-chinh-tien-te-dien-bien-phuc-tap-hang-ngay-hang-gio-r51909399.epi</t>
+          <t>https://lite.baomoi.com/quang-ninh-tiep-tuc-hoan-thien-phuong-an-sap-xep-don-vi-hanh-chinh-cap-xa-thuoc-tinh-r51975185.epi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Siêu phẩm lốp bóng từ khoảng cách hơn 50 mét ở V.League</t>
+          <t>Tổng Lãnh sự Hoa Kỳ, Nhật Bản, Hàn Quốc làm việc với C4IR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_119_51909553/2077f4f39bbd72e32bac.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_318_51976638/e5beec848fca66943fdb.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sieu-pham-lop-bong-tu-khoang-cach-hon-50-met-o-v-league-r51909553.epi</t>
+          <t>https://lite.baomoi.com/tong-lanh-su-hoa-ky-nhat-ban-han-quoc-lam-viec-voi-c4ir-r51976638.epi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Trường đại học đầu tiên trên thế giới tuyển một trí tuệ nhân tạo làm sinh viên</t>
+          <t>Kết quả xổ số Bạc Liêu hôm nay 15/4/2025 - XSBL 15/4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_258_51909823/c102b78cd8c2319c68d3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51976874/222ef9289a6673382a77.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/truong-dai-hoc-dau-tien-tren-the-gioi-tuyen-mot-tri-tue-nhan-tao-lam-sinh-vien-r51909823.epi</t>
+          <t>https://lite.baomoi.com/ket-qua-xo-so-bac-lieu-hom-nay-15-4-2025-xsbl-15-4-r51976874.epi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Israel tiếp tục không kích vào Lebanon</t>
+          <t>Quảng Ngãi: Dẹp biển quảng cáo 'chữa bệnh bằng nước'</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909623/64e4c770a83e4160182f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976200/2243c466a7284e761739.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/israel-tiep-tuc-khong-kich-vao-lebanon-r51909623.epi</t>
+          <t>https://lite.baomoi.com/quang-ngai-dep-bien-quang-cao-chua-benh-bang-nuoc-r51976200.epi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Thứ trưởng Bộ Tài chính: Tăng trưởng kinh tế các quý tiếp theo vẫn ở mức cao</t>
+          <t>Gặp họa khó lường, cách thoát khỏi 'lời nguyền' xổ số</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_3_51909650/ee631be774a99df7c4b8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976725/17eaacebcfa526fb7fb4.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-truong-bo-tai-chinh-tang-truong-kinh-te-cac-quy-tiep-theo-van-o-muc-cao-r51909650.epi</t>
+          <t>https://lite.baomoi.com/gap-hoa-kho-luong-cach-thoat-khoi-loi-nguyen-xo-so-r51976725.epi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Đoàn cứu nạn, cứu hộ Việt Nam chia sẻ nỗi mất mát với người dân vùng động đất Myanmar</t>
+          <t>Thi thể người đàn ông nghi tâm thần được phát hiện sau gần 20 ngày mất tích</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_14_51909871/3b73eae185af6cf135be.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975897/ae5a740c1742fe1ca753.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/doan-cuu-nan-cuu-ho-viet-nam-chia-se-noi-mat-mat-voi-nguoi-dan-vung-dong-dat-myanmar-r51909871.epi</t>
+          <t>https://lite.baomoi.com/thi-the-nguoi-dan-ong-nghi-tam-than-duoc-phat-hien-sau-gan-20-ngay-mat-tich-r51975897.epi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Thuế quan của ông Trump bắt đầu phát huy uy lực</t>
+          <t>XSMB 15/4 - Trực tiếp kết quả xổ số miền Bắc hôm nay 15/4/2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_296_51908927/e9e95b31347fdd21846e.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thue-quan-cua-ong-trump-bat-dau-phat-huy-uy-luc-r51908927.epi</t>
+          <t>https://lite.baomoi.com/xsmb-15-4-truc-tiep-ket-qua-xo-so-mien-bac-hom-nay-15-4-2025-r51976458.epi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Truyền hình trên nền tảng số là để tìm những khán giả ngày mai</t>
+          <t>Ca sĩ Đình Bảo AC&amp;M lấy vợ giám đốc, là tiến sĩ tại Mỹ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_197_51909773/9668f3e59cab75f52cba.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976435/67adec9e8fd0668e3fc1.jpg</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/truyen-hinh-tren-nen-tang-so-la-de-tim-nhung-khan-gia-ngay-mai-r51909773.epi</t>
+          <t>https://lite.baomoi.com/ca-si-dinh-bao-ac-m-lay-vo-giam-doc-la-tien-si-tai-my-r51976435.epi</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Công Phượng tái xuất ấn tượng, Bình Phước bỏ túi 3 điểm</t>
+          <t>Lộ diện cổ đông lớn nước ngoài tại APG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_23_51909504/a83e24b64bf8a2a6fbe9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51976347/cb088424e76a0e34577b.jpg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cong-phuong-tai-xuat-an-tuong-binh-phuoc-bo-tui-3-diem-r51909504.epi</t>
+          <t>https://lite.baomoi.com/lo-dien-co-dong-lon-nuoc-ngoai-tai-apg-r51976347.epi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Đám cưới Hyomin và chú rể má lúm: Váy cưới lạ mắt, hội chị em T-ARA điểm danh</t>
+          <t>Đường 266 tỉ ở khu kinh tế Vân Phong vừa đưa vào sử dụng đã bong tróc</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_105_51909752/9e8e5a04354adc14855b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976197/5854cd71ae3f47611e2e.jpg</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dam-cuoi-hyomin-va-chu-re-ma-lum-vay-cuoi-la-mat-hoi-chi-em-t-ara-diem-danh-r51909752.epi</t>
+          <t>https://lite.baomoi.com/duong-266-ti-o-khu-kinh-te-van-phong-vua-dua-vao-su-dung-da-bong-troc-r51976197.epi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chính quyền Trump 2.0 và sự thay đổi trong cục diện quan hệ Hoa Kỳ - Đông Á</t>
+          <t>Bộ Công an đề xuất bổ sung tội sử dụng trái phép chất ma túy</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_294_51909711/09565edf3191d8cf8180.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51976312/3e014a2b2965c03b9974.jpg</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chinh-quyen-trump-2-0-va-su-thay-doi-trong-cuc-dien-quan-he-hoa-ky-dong-a-r51909711.epi</t>
+          <t>https://lite.baomoi.com/bo-cong-an-de-xuat-bo-sung-toi-su-dung-trai-phep-chat-ma-tuy-r51976312.epi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Liên đảng đối lập ở Australia muốn cắt giảm mạnh số lượng sinh viên quốc tế</t>
+          <t>Truy tố chỉ huy đơn vị Không quân Hàn Quốc trong vụ ném bom nhầm vào nhà dân</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_65_51909622/ae750b23646d8d33d47c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51976455/c6223e105d5eb400ed4f.jpg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lien-dang-doi-lap-o-australia-muon-cat-giam-manh-so-luong-sinh-vien-quoc-te-r51909622.epi</t>
+          <t>https://lite.baomoi.com/truy-to-chi-huy-don-vi-khong-quan-han-quoc-trong-vu-nem-bom-nham-vao-nha-dan-r51976455.epi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Myanmar tri ân 5 đoàn cứu hộ quốc tế giúp đỡ người dân sau vụ động đất</t>
+          <t>Hổ con ở Nghệ An là 'idol' triệu view, hay đòi bế đi chơi như em bé</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_06_94_51909560/46ce1d4f72019b5fc210.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975424/040f8a42e90c0052591d.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/myanmar-tri-an-5-doan-cuu-ho-quoc-te-giup-do-nguoi-dan-sau-vu-dong-dat-r51909560.epi</t>
+          <t>https://lite.baomoi.com/ho-con-o-nghe-an-la-idol-trieu-view-hay-doi-be-di-choi-nhu-em-be-r51975424.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Từ 1/7, người trên 75 tuổi không có lương hưu sẽ được nhận trợ cấp hưu trí xã hội</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51976286/e79ca1b7c2f92ba772e8.jpg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tu-1-7-nguoi-tren-75-tuoi-khong-co-luong-huu-se-duoc-nhan-tro-cap-huu-tri-xa-hoi-r51976286.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Cập nhật 'nóng' chấn thương 3 trụ cột MU</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976341/8ac5a7e8c4a62df874b7.jpg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cap-nhat-nong-chan-thuong-3-tru-cot-mu-r51976341.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tìm thấy 1 thi thể nạn nhân mất tích do mưa lớn tại Lai Châu</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976331/1fec76ee15a0fcfea5b1.jpg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tim-thay-1-thi-the-nan-nhan-mat-tich-do-mua-lon-tai-lai-chau-r51976331.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Cổ động viên đòi 'cấm mọi hoạt động bóng đá' với Mbappe</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_181_51976908/a654a95dca13234d7a02.jpg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-dong-vien-doi-cam-moi-hoat-dong-bong-da-voi-mbappe-r51976908.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Xây dựng chính quyền địa phương 2 cấp, Đắk Lắk đồng thuận để phát triển</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976318/4b221120726e9b30c27f.jpg</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xay-dung-chinh-quyen-dia-phuong-2-cap-dak-lak-dong-thuan-de-phat-trien-r51976318.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nhiều khu dân cư tại đô thị Mỹ Tho (Tiền Giang) tiềm ẩn nguy cơ cháy nổ</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976226/58438170e23e0b60522f.jpg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhieu-khu-dan-cu-tai-do-thi-my-tho-tien-giang-tiem-an-nguy-co-chay-no-r51976226.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sự kiện chứng khoán đáng chú ý ngày 15/4</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51976396/5c60b151d21f3b41620e.jpg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/su-kien-chung-khoan-dang-chu-y-ngay-15-4-r51976396.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Việt Nam là 1 trong 21 quốc gia đã thành công thanh toán bệnh mắt hột</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51976366/1f13f63c95727c2c2563.jpg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-la-1-trong-21-quoc-gia-da-thanh-cong-thanh-toan-benh-mat-hot-r51976366.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Cô gái Việt ở Canada bị chỉ trích vì nâng ngực</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976497/c0b3b787d4c93d9764d8.jpg</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-gai-viet-o-canada-bi-chi-trich-vi-nang-nguc-r51976497.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Thỏ hồng khổng lồ trên đỉnh núi Italy sắp tan biến</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975439/33cc0b8f68c1819fd8d0.jpg</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tho-hong-khong-lo-tren-dinh-nui-italy-sap-tan-bien-r51975439.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tối nay, 169 hạt sen Việt Nam cùng nữ phi hành gia gốc Việt bay vào không gian</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/toi-nay-169-hat-sen-viet-nam-cung-nu-phi-hanh-gia-goc-viet-bay-vao-khong-gian-r51976242.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Nam sinh vỡ hàm do tông thẳng xe đạp điện vào đuôi xe tải</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-sinh-vo-ham-do-tong-thang-xe-dap-dien-vao-duoi-xe-tai-r51976301.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Bình Định không để sắp xếp, tổ chức bộ máy ảnh hưởng chống khai thác IUU</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/binh-dinh-khong-de-sap-xep-to-chuc-bo-may-anh-huong-chong-khai-thac-iuu-r51976137.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Phê duyệt Quy hoạch bảo quản, tu bổ Di tích quốc gia đặc biệt Chùa Phật Tích (Bắc Ninh)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phe-duyet-quy-hoach-bao-quan-tu-bo-di-tich-quoc-gia-dac-biet-chua-phat-tich-bac-ninh-r51976490.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Hệ thống chiếu sáng nhiều tuyến đường ở TP Kon Tum tê liệt do bị cắt trộm dây điện</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976307/d0b71d8f7ec1979fced0.jpg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/he-thong-chieu-sang-nhieu-tuyen-duong-o-tp-kon-tum-te-liet-do-bi-cat-trom-day-dien-r51976307.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Chủ động bảo đảm an toàn giao thông ở Học viện Kỹ thuật Quân sự</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51976465/150db53fd6713f2f6660.jpg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chu-dong-bao-dam-an-toan-giao-thong-o-hoc-vien-ky-thuat-quan-su-r51976465.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nóng sớm, siêu thị điện máy 'tăng tốc' đón hè 2025</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_59_51976508/fed206e565ab8cf5d5ba.jpg</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nong-som-sieu-thi-dien-may-tang-toc-don-he-2025-r51976508.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>UBND tỉnh Lâm Đồng chỉ đạo khẩn trương phối hợp xây dựng Đề án sáp nhập với tỉnh Bình Thuận và Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_338_51976385/0afc26d2459cacc2f58d.jpg</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ubnd-tinh-lam-dong-chi-dao-khan-truong-phoi-hop-xay-dung-de-an-sap-nhap-voi-tinh-binh-thuan-va-dak-nong-r51976385.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Quảng Bình chuẩn bị 'trải chiếu hoa' đón cán bộ Quảng Trị ra công tác</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975799/81f7dda4beea57b40efb.jpg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quang-binh-chuan-bi-trai-chieu-hoa-don-can-bo-quang-tri-ra-cong-tac-r51975799.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Bắc Giang, Hòa Bình dẫn đầu tăng trưởng kinh tế quý I</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976429/6cffebcc888261dc3893.jpg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bac-giang-hoa-binh-dan-dau-tang-truong-kinh-te-quy-i-r51976429.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Lisa lộ hình nền điện thoại là bạn trai doanh nhân</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976648/851c6121026feb31b27e.jpg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lisa-lo-hinh-nen-dien-thoai-la-ban-trai-doanh-nhan-r51976648.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Người phụ nữ lấy tiền đi trả nợ rồi hoang báo bị cướp</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_180_51975870/42a757f334bddde384ac.jpg</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-phu-nu-lay-tien-di-tra-no-roi-hoang-bao-bi-cuop-r51975870.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Thủ tướng gửi thư chúc mừng VTV của Việt Nam và CMG của Trung Quốc công bố hợp tác</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976044/2ebe40e323adcaf393bc.jpg</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-gui-thu-chuc-mung-vtv-cua-viet-nam-va-cmg-cua-trung-quoc-cong-bo-hop-tac-r51976044.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ninh Thuận khánh thành Đường vành đai phía Bắc gần 500 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976033/d90541582216cb489207.jpg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ninh-thuan-khanh-thanh-duong-vanh-dai-phia-bac-gan-500-ty-dong-r51976033.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Cổ phiếu cần quan tâm ngày 15/4</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51976249/80f550d3339ddac3838c.jpg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-phieu-can-quan-tam-ngay-15-4-r51976249.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Rory McIlroy lần đầu vô địch The Masters, hoàn tất bộ sưu tập Grand Slam</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976544/e59096a6f5e81cb645f9.jpg</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/rory-mcilroy-lan-dau-vo-dich-the-masters-hoan-tat-bo-suu-tap-grand-slam-r51976544.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Phố đi bộ hồ Gươm (Hà Nội): Hàng rong bủa vây, nguy cơ từ thực phẩm kém vệ sinh</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51976103/d49d52bd31f3d8ad81e2.jpg</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/pho-di-bo-ho-guom-ha-noi-hang-rong-bua-vay-nguy-co-tu-thuc-pham-kem-ve-sinh-r51976103.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sáp nhập Thái Nguyên và Bắc Kạn đặc biệt chú ý đến yếu tố lịch sử, văn hóa</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976081/2fb4acebcfa526fb7fb4.jpg</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/sap-nhap-thai-nguyen-va-bac-kan-dac-biet-chu-y-den-yeu-to-lich-su-van-hoa-r51976081.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Lại xôn xao suất ăn bán trú lèo tèo ở Đà Nẵng, lãnh đạo quận tức tốc kiểm tra</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976152/c61eaa3dc973202d7962.jpg</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lai-xon-xao-suat-an-ban-tru-leo-teo-o-da-nang-lanh-dao-quan-tuc-toc-kiem-tra-r51976152.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Bé trai 3 tuổi nôn ra giun, đến khi phẫu thuật bác sĩ càng bất ngờ</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/be-trai-3-tuoi-non-ra-giun-den-khi-phau-thuat-bac-si-cang-bat-ngo-r51976720.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Thanh niên đi cướp 'thản nhiên', từng cướp nhiều tiệm vàng</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/e9b048137951900fc940.png</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thanh-nien-di-cuop-than-nhien-tung-cuop-nhieu-tiem-vang-r51976087.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Khán giả Bắc Ninh 'đội mưa' đến 3 giờ sáng xem Ngọc Sơn biểu diễn</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51976126/82b5b295d1db388561ca.jpg</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khan-gia-bac-ninh-doi-mua-den-3-gio-sang-xem-ngoc-son-bieu-dien-r51976126.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Giám đốc, Phó giám đốc bảo hiểm xã hội huyện ở Hưng Yên và 6 người bị khởi tố</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975807/abfd4daf2ee1c7bf9ef0.jpg</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/giam-doc-pho-giam-doc-bao-hiem-xa-hoi-huyen-o-hung-yen-va-6-nguoi-bi-khoi-to-r51975807.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BLACKPINK trở lại, phát hành album mới vào tháng 6</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_181_51976967/e69e149477da9e84c7cb.jpg</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/blackpink-tro-lai-phat-hanh-album-moi-vao-thang-6-r51976967.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Đất nền tăng giá nhanh nhưng thanh khoản kém</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976427/1a5b9f68fc2615784c37.jpg</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dat-nen-tang-gia-nhanh-nhung-thanh-khoan-kem-r51976427.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TP HCM sẽ nhập 3 Sở và đổi tên 1 Sở</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975089/184a823fe171082f5160.jpg</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-hcm-se-nhap-3-so-va-doi-ten-1-so-r51975089.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Người đàn ông ở Thái Bình nguy kịch sau bữa ăn lòng lợn</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975547/95be11f972b79be9c2a6.jpg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-dan-ong-o-thai-binh-nguy-kich-sau-bua-an-long-lon-r51975547.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hà Nội siết chặt quản lý 6 khu bảo vệ nguồn lợi thủy sản</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976065/a7b17aee19a0f0fea9b1.jpg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-siet-chat-quan-ly-6-khu-bao-ve-nguon-loi-thuy-san-r51976065.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Tuyển nữ Việt Nam đấu đại diện nước Đức trên sân Hàng Đẫy</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975821/c0e9febb9df574ab2de4.jpg</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tuyen-nu-viet-nam-dau-dai-dien-nuoc-duc-tren-san-hang-day-r51975821.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Nhan sắc 'gây thương nhớ' của ái nữ nhà Lý Hải</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976344/8a721d5e7e10974ece01.jpg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhan-sac-gay-thuong-nho-cua-ai-nu-nha-ly-hai-r51976344.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Thêm các chủng loại tàu bay được nhập khẩu vào Việt Nam</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51975970/f1742a2f4961a03ff970.jpg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/them-cac-chung-loai-tau-bay-duoc-nhap-khau-vao-viet-nam-r51975970.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Hoàng Anh Gia Lai: Lợi nhuận sau thuế tăng 60% nhờ kinh doanh chuối</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976107/06328312e05c0902504d.jpg</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoang-anh-gia-lai-loi-nhuan-sau-thue-tang-60-nho-kinh-doanh-chuoi-r51976107.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tập đoàn Điện lực Việt Nam kiểm tra công tác cấp điện cho Đại lễ 30/4</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976566/cf560a5f6911804fd900.jpg</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tap-doan-dien-luc-viet-nam-kiem-tra-cong-tac-cap-dien-cho-dai-le-30-4-r51976566.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>70 vùng trong diện cảnh báo cháy rừng nguy hiểm</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976473/5e25dd1abe54570a0e45.jpg</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/70-vung-trong-dien-canh-bao-chay-rung-nguy-hiem-r51976473.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Cuộc viễn chinh Ai Cập: Canh bạc bẽ bàng của Napoleon ở phương Đông - Kỳ cuối</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cuoc-vien-chinh-ai-cap-canh-bac-be-bang-cua-napoleon-o-phuong-dong-ky-cuoi-r51976769.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Quảng bá hình ảnh Việt Nam tươi đẹp, rực rỡ sắc màu nhân Hội nghị thượng đỉnh P4G lần thứ tư</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quang-ba-hinh-anh-viet-nam-tuoi-dep-ruc-ro-sac-mau-nhan-hoi-nghi-thuong-dinh-p4g-lan-thu-tu-r51976085.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Thủ tướng đề nghị tập đoàn Trung Quốc hỗ trợ phát triển kinh tế hàng không</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-de-nghi-tap-doan-trung-quoc-ho-tro-phat-trien-kinh-te-hang-khong-r51976080.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Thời tiết đêm 14/4: Nhiều khu vực có mưa dông đề phòng khả năng mưa đá</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51976302/21f0e5da86946fca3685.jpg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thoi-tiet-dem-14-4-nhieu-khu-vuc-co-mua-dong-de-phong-kha-nang-mua-da-r51976302.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Thủ tướng: Ưu tiên dành cơ sở vật chất dôi dư cho y tế, giáo dục, văn hóa</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_114_51975920/77be15e876a69ff8c6b7.jpg</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-uu-tien-danh-co-so-vat-chat-doi-du-cho-y-te-giao-duc-van-hoa-r51975920.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Cháy lớn xưởng inox ở TP.HCM</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975859/f4607765142bfd75a43a.jpg</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chay-lon-xuong-inox-o-tp-hcm-r51975859.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Doanh nghiệp có thể sẽ được đơn giản hóa thêm 55,1% thủ tục hải quan</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976002/edd66f8c0cc2e59cbcd3.jpg</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/doanh-nghiep-co-the-se-duoc-don-gian-hoa-them-55-1-thu-tuc-hai-quan-r51976002.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Pháo binh Nga lột xác khiến Ukraine chao đảo</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975147/52610e166d588406dd49.jpg</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phao-binh-nga-lot-xac-khien-ukraine-chao-dao-r51975147.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Đất nền vùng ven Hà Nội: Giá rao bán tăng mạnh nhưng giao dịch 'nhỏ giọt'</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_309_51976190/26779243f10d1853411c.jpg</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dat-nen-vung-ven-ha-noi-gia-rao-ban-tang-manh-nhung-giao-dich-nho-giot-r51976190.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Trung tướng Hà Thọ Bình kiểm tra huấn luyện chiến sĩ mới</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51976129/d3c4f2e491aa78f421bb.jpg</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-tuong-ha-tho-binh-kiem-tra-huan-luyen-chien-si-moi-r51976129.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Cổ phiếu giảm mạnh vì thuế quan, PNJ muốn mua 8 triệu cổ phiếu quỹ</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976032/86001a5d7913904dc902.jpg</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-phieu-giam-manh-vi-thue-quan-pnj-muon-mua-8-trieu-co-phieu-quy-r51976032.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Bí thư Tỉnh ủy Cà Mau khen cấp huyện 'tâm tư nhưng làm tốt xóa nhà tạm'</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976136/5a296014035aea04b34b.jpg</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bi-thu-tinh-uy-ca-mau-khen-cap-huyen-tam-tu-nhung-lam-tot-xoa-nha-tam-r51976136.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Trước mắt vẫn giữ nguyên cơ chế trả lương cán bộ, công chức</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_3_51976219/a42d8e08ed4604185d57.jpg</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/truoc-mat-van-giu-nguyen-co-che-tra-luong-can-bo-cong-chuc-r51976219.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Sân khấu gây 'sốt' của ca nương Kiều Anh với màn 'lạy cô' đông nhất từ trước đến nay</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51976225/cab2509633d8da8683c9.jpg</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/san-khau-gay-sot-cua-ca-nuong-kieu-anh-voi-man-lay-co-dong-nhat-tu-truoc-den-nay-r51976225.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Hai thành viên nhóm Facebook 'Vỡ nợ thích làm liều' lãnh 28 năm tù</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975222/a64f5e343d7ad4248d6b.jpg</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hai-thanh-vien-nhom-facebook-vo-no-thich-lam-lieu-lanh-28-nam-tu-r51975222.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Lắt léo vòng 18 V-League</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975743/b156a207c14928177158.jpg</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lat-leo-vong-18-v-league-r51975743.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>IAEA và Iran nối lại đối thoại hạt nhân</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_294_51976141/90042e274d69a437fd78.jpg</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/iaea-va-iran-noi-lai-doi-thoai-hat-nhan-r51976141.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Dự World Cup, U17 Indonesia nhận thêm chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/du-world-cup-u17-indonesia-nhan-them-chi-tieu-r51976108.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Người dân Campuchia đón Tết cổ truyền dân tộc</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-dan-campuchia-don-tet-co-truyen-dan-toc-r51976138.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Việt Nam cần quan tâm nghiên cứu, đào tạo về công nghệ lượng tử</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-can-quan-tam-nghien-cuu-dao-tao-ve-cong-nghe-luong-tu-r51976615.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh: Thêm 23 phường, xã được công bố hết dịch sởi</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-them-23-phuong-xa-duoc-cong-bo-het-dich-soi-r51976059.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Mua mạnh 'cổ phiếu quốc dân', khối ngoại vẫn bán ròng 304 tỷ đồng trong phiên 14/4</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mua-manh-co-phieu-quoc-dan-khoi-ngoai-van-ban-rong-304-ty-dong-trong-phien-14-4-r51975900.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Thanh niên Việt Nam - Trung Quốc chia sẻ kinh nghiệm tại Diễn đàn hữu nghị</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thanh-nien-viet-nam-trung-quoc-chia-se-kinh-nghiem-tai-dien-dan-huu-nghi-r51975759.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Sóc Trăng - Vĩnh Long sáp nhập báo và đài</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975747/cce0c7b1a4ff4da114ee.jpg</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/soc-trang-vinh-long-sap-nhap-bao-va-dai-r51975747.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Chuyển hồ sơ 2 cơ sở thẩm mỹ vi phạm sang cơ quan công an</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_17_51976290/8554f17f92317b6f2220.jpg</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chuyen-ho-so-2-co-so-tham-my-vi-pham-sang-co-quan-cong-an-r51976290.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Thủ tướng tiếp theo của Đức 'dội gáo nước lạnh' vào Ukraine về vấn đề này</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51974461/9b80a0a3c3ed2ab373fc.jpg</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-tiep-theo-cua-duc-doi-gao-nuoc-lanh-vao-ukraine-ve-van-de-nay-r51974461.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Ca sĩ Khắc Việt gây tranh cãi với cách dạy con nghiêm khắc khi vợ vắng nhà</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_251_51976392/84624153221dcb43920c.jpg</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ca-si-khac-viet-gay-tranh-cai-voi-cach-day-con-nghiem-khac-khi-vo-vang-nha-r51976392.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Động thái giảm lãi suất từ các ngân hàng nước ngoài</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_59_51976145/8c0f212c4262ab3cf273.jpg</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dong-thai-giam-lai-suat-tu-cac-ngan-hang-nuoc-ngoai-r51976145.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Quận 1 dự kiến còn 4 phường là Tân Định, Sài Gòn, Bến Thành, Cầu Ông Lãnh</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975801/5ad448872bc9c2979bd8.jpg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quan-1-du-kien-con-4-phuong-la-tan-dinh-sai-gon-ben-thanh-cau-ong-lanh-r51975801.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Các khối cờ vượt nắng gió, tập luyện cho ngày đại lễ</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51976191/4308d22db163583d0172.jpg</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cac-khoi-co-vuot-nang-gio-tap-luyen-cho-ngay-dai-le-r51976191.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Bắt nhanh kẻ cướp xe ôm táo tợn đang trên đường bỏ trốn sang Campuchia</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975841/d85c8809eb4702195b56.jpg</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bat-nhanh-ke-cuop-xe-om-tao-ton-dang-tren-duong-bo-tron-sang-campuchia-r51975841.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Cổ phiếu liên tục tăng trần, Vingroup đạt vốn hóa lớn thứ 2 thị trường</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51976036/b53af66795297c772538.jpg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-phieu-lien-tuc-tang-tran-vingroup-dat-von-hoa-lon-thu-2-thi-truong-r51976036.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>3 bệnh viện trung ương sẵn sàng trực lễ 30/4, có đội cấp cứu VIP</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975659/33a30bf668b881e6d8a9.jpg</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/3-benh-vien-trung-uong-san-sang-truc-le-30-4-co-doi-cap-cuu-vip-r51975659.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Bảo quản, tu bổ Di tích lịch sử quốc gia đặc biệt Đôi bờ Hiền Lương - Bến Hải</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51976119/d52ab30ad044391a6055.jpg</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bao-quan-tu-bo-di-tich-lich-su-quoc-gia-dac-biet-doi-bo-hien-luong-ben-hai-r51976119.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Cổng chào và nhiều cây đổ sập trong cơn mưa dông ở Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51976215/d7ea88cfeb8102df5b90.jpg</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cong-chao-va-nhieu-cay-do-sap-trong-con-mua-dong-o-dak-nong-r51976215.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Trung Quốc chứng kiến làn sóng giao dịch vàng bùng nổ</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975977/496c013762798b27d268.jpg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-quoc-chung-kien-lan-song-giao-dich-vang-bung-no-r51975977.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Cách giải độc và làm sạch phổi tự nhiên</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51976453/35e6fad4999a70c4298b.jpg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cach-giai-doc-va-lam-sach-phoi-tu-nhien-r51976453.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Chân Tử Đan đạo diễn ngoại truyện 'John Wick'</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chan-tu-dan-dao-dien-ngoai-truyen-john-wick-r51976647.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Ca sĩ Chi Pu: Sẵn sàng làm cầu nối gắn kết tình hữu nghị Việt Nam-Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ca-si-chi-pu-san-sang-lam-cau-noi-gan-ket-tinh-huu-nghi-viet-nam-trung-quoc-r51974413.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Đề xuất thu phí 5 tuyến đường cao tốc do Nhà nước đầu tư trong 7 năm</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/de-xuat-thu-phi-5-tuyen-duong-cao-toc-do-nha-nuoc-dau-tu-trong-7-nam-r51976289.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Cảnh báo tiềm ẩn nguy cơ đột quỵ khi sử dụng thuốc tránh thai</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51976395/2ff9dac8b98650d80997.jpg</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/canh-bao-tiem-an-nguy-co-dot-quy-khi-su-dung-thuoc-tranh-thai-r51976395.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>MSB chuyển địa điểm hoạt động 2 phòng giao dịch</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976082/9722077d64338d6dd422.jpg</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/msb-chuyen-dia-diem-hoat-dong-2-phong-giao-dich-r51976082.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Nhiều mã tăng kịch trần, VN-Index vượt mốc 1.240 điểm</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51975903/2ae8f6be95f07cae25e1.jpg</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhieu-ma-tang-kich-tran-vn-index-vuot-moc-1-240-diem-r51975903.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Vé concert BABYMONSTER tại TP.HCM ngừng bán để 'dỗ dành' fan, sẽ đổi sơ đồ?</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_105_51976211/59a4fc819fcf76912fde.jpg</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ve-concert-babymonster-tai-tp-hcm-ngung-ban-de-do-danh-fan-se-doi-so-do-r51976211.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>5 cách kéo dài tuổi thọ pin xe ô tô điện</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51973160/c556bde0deae37f06ebf.jpg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/5-cach-keo-dai-tuoi-tho-pin-xe-o-to-dien-r51973160.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>'Tú ông' điều hành đường dây mại dâm có ca sĩ, người mẫu thu lợi 15 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51974987/eccae3a480ea69b430fb.jpg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tu-ong-dieu-hanh-duong-day-mai-dam-co-ca-si-nguoi-mau-thu-loi-15-ty-dong-r51974987.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Bắt hai đối tượng trộm cắp dây cáp chuyên nghiệp tại Hậu Giang</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975587/acc021e442aaabf4f2bb.jpg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bat-hai-doi-tuong-trom-cap-day-cap-chuyen-nghiep-tai-hau-giang-r51975587.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tàu vận tải biển sẽ bị đánh thuế khí thải</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975972/05a6a5adc6e32fbd76f2.jpg</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tau-van-tai-bien-se-bi-danh-thue-khi-thai-r51975972.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Lý do nhiều người Mỹ đổ xô tích trữ kem chống nắng Hàn Quốc</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975808/6f6cd53eb6705f2e0661.jpg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ly-do-nhieu-nguoi-my-do-xo-tich-tru-kem-chong-nang-han-quoc-r51975808.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tứ kết lượt về Europa League: MU chịu tổn thất lớn trước trận tái đấu Lyon</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51972985/5c8569360a78e326ba69.jpg</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tu-ket-luot-ve-europa-league-mu-chiu-ton-that-lon-truoc-tran-tai-dau-lyon-r51972985.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Theo chân những người 'chăm Rồng' tại thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976342/43f3f2ff91b178ef21a0.jpg</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/theo-chan-nhung-nguoi-cham-rong-tai-thanh-pho-da-nang-r51976342.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi: Trộm thẻ ATM, dò trúng mật khẩu rút 57 triệu đồng</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51975655/e43e4073233dca63932c.jpg</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quang-ngai-trom-the-atm-do-trung-mat-khau-rut-57-trieu-dong-r51975655.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Nhật Bản tuyên bố không nhượng bộ lớn trong đàm phán với Mỹ</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_595_51975950/32beb5e6d6a83ff666b9.jpg</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhat-ban-tuyen-bo-khong-nhuong-bo-lon-trong-dam-phan-voi-my-r51975950.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Nữ y tá Nhật Bản để lại thư xúc động sau khi ra mắt nhà bạn trai ở Thái Bình</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nu-y-ta-nhat-ban-de-lai-thu-xuc-dong-sau-khi-ra-mat-nha-ban-trai-o-thai-binh-r51974216.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Chứng khoán toàn cầu đồng loạt tăng điểm sau quyết định của ông Trump</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chung-khoan-toan-cau-dong-loat-tang-diem-sau-quyet-dinh-cua-ong-trump-r51975949.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Mất 100 tỷ đồng khi bạn gái dọn nhà, vứt ví Bitcoin vào thùng rác</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mat-100-ty-dong-khi-ban-gai-don-nha-vut-vi-bitcoin-vao-thung-rac-r51976293.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Đấu giá mỏ đá gabro Núi Đen ở Bình Thuận và quặng vàng ở Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dau-gia-mo-da-gabro-nui-den-o-binh-thuan-va-quang-vang-o-quang-nam-r51975000.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Thông tin đoàn đàm phán Chính phủ về các vấn đề thương mại với Hoa Kỳ</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51974906/780d3c625f2cb672ef3d.jpg</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thong-tin-doan-dam-phan-chinh-phu-ve-cac-van-de-thuong-mai-voi-hoa-ky-r51974906.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Hậu trường ghi hình Hoa hậu Việt Nam 2024</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975845/233058653b2bd2758b3a.jpg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hau-truong-ghi-hinh-hoa-hau-viet-nam-2024-r51975845.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Gạo Việt vẫn là trụ cột cung ứng cho thị trường Philippines</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_237_51975771/4acf499f2ad1c38f9ac0.jpg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gao-viet-van-la-tru-cot-cung-ung-cho-thi-truong-philippines-r51975771.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Khan hiếm vật liệu xây dựng, nhiều dự án ở Thanh Hóa chậm tiến độ</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975813/e0df45d4269acfc4968b.jpg</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khan-hiem-vat-lieu-xay-dung-nhieu-du-an-o-thanh-hoa-cham-tien-do-r51975813.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Bộ Tư pháp bổ nhiệm nhiều lãnh đạo cấp Vụ</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976148/267bc34ca002495c1013.jpg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-tu-phap-bo-nhiem-nhieu-lanh-dao-cap-vu-r51976148.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Tiểu sử Bộ trưởng Ngoại giao Hàn Quốc Cho Tae-yul</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51976142/b6d817fb74b59debc4a4.jpg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tieu-su-bo-truong-ngoai-giao-han-quoc-cho-tae-yul-r51976142.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Lào Cai ban hành tiêu chí đánh giá cán bộ để tinh giản</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975800/749b1cc87f8696d8cf97.jpg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lao-cai-ban-hanh-tieu-chi-danh-gia-can-bo-de-tinh-gian-r51975800.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hà Nội: Công bố đồ án quy hoạch công trình cầu Ngọc Hồi</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_56_51976652/44640b6668288176d839.jpg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-cong-bo-do-an-quy-hoach-cong-trinh-cau-ngoc-hoi-r51976652.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Cú sốc thuế quan với quốc gia 'chưa ai từng nghe đến'</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51976316/f571e55b86156f4b3604.jpg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cu-soc-thue-quan-voi-quoc-gia-chua-ai-tung-nghe-den-r51976316.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Ưu tiên, sớm bố trí kinh phí đảm bảo chính sách chăm sóc người có công với cách mạng</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975613/b17d4e422d0cc4529d1d.jpg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/uu-tien-som-bo-tri-kinh-phi-dam-bao-chinh-sach-cham-soc-nguoi-co-cong-voi-cach-mang-r51975613.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Nhiều khách sạn ở Quảng Bình bị mạo danh lừa đảo chuyển tiền cọc</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975497/0454970ff4411d1f4450.jpg</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhieu-khach-san-o-quang-binh-bi-mao-danh-lua-dao-chuyen-tien-coc-r51975497.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Đà Nẵng không yêu cầu doanh nghiệp thay đổi địa chỉ do thay đổi địa giới hành chính</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_309_51975910/10ba9fecfca215fc4cb3.jpg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/da-nang-khong-yeu-cau-doanh-nghiep-thay-doi-dia-chi-do-thay-doi-dia-gioi-hanh-chinh-r51975910.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hòa Phát thành lập 3 công ty để thực hiện dự án tỷ đô tại Phú Yên</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51975642/d2dac490a7de4e8017cf.jpg</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoa-phat-thanh-lap-3-cong-ty-de-thuc-hien-du-an-ty-do-tai-phu-yen-r51975642.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Quận 5 lấy ý kiến người dân tên các phường mới là An Đông, Chợ Lớn, Chợ Quán</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975552/60d65f913cdfd5818cce.jpg</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quan-5-lay-y-kien-nguoi-dan-ten-cac-phuong-moi-la-an-dong-cho-lon-cho-quan-r51975552.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Việt Nam là ưu tiên trong chính sách ngoại giao láng giềng của Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976088/50a2bafcd9b230ec69a3.jpg</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-la-uu-tien-trong-chinh-sach-ngoai-giao-lang-gieng-cua-trung-quoc-r51976088.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Chung tay cùng Giáo hội Phật giáo Việt Nam hỗ trợ nhân dân Myanmar, Thái Lan khắc phục hậu quả động đất</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51975912/6e97b5c8d6863fd86697.jpg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chung-tay-cung-giao-hoi-phat-giao-viet-nam-ho-tro-nhan-dan-myanmar-thai-lan-khac-phuc-hau-qua-dong-dat-r51975912.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Doanh nghiệp dệt may lên phương án ứng phó với những biến động thế giới</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/doanh-nghiep-det-may-len-phuong-an-ung-pho-voi-nhung-bien-dong-the-gioi-r51975838.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Giám đốc Sở Công Thương kiêm chức Chi cục trưởng Chi cục Quản lý thị trường TP Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/giam-doc-so-cong-thuong-kiem-chuc-chi-cuc-truong-chi-cuc-quan-ly-thi-truong-tp-hai-phong-r51975291.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Ukraine công bố video 'UAV mẹ' cùng bầy UAV con tập kích mục tiêu Nga ở vùng Kursk</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51975824/0d6fc43aa7744e2a1765.jpg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ukraine-cong-bo-video-uav-me-cung-bay-uav-con-tap-kich-muc-tieu-nga-o-vung-kursk-r51975824.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Cô gái 26 tuổi mua được 3 căn nhà nhờ tiết kiệm</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975608/c36ef9269a6873362a79.jpg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-gai-26-tuoi-mua-duoc-3-can-nha-nho-tiet-kiem-r51975608.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Trình Quốc hội dự thảo Luật Thanh tra trước 15/4</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_35_51976471/899a99a8fae613b84af7.jpg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trinh-quoc-hoi-du-thao-luat-thanh-tra-truoc-15-4-r51976471.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Tổng thống Indonesia kết thúc chuyến thăm Qatar với cam kết 2 tỷ USD đầu tư</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975612/c6e509e86aa683f8dab7.jpg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-indonesia-ket-thuc-chuyen-tham-qatar-voi-cam-ket-2-ty-usd-dau-tu-r51975612.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Tháo dỡ chợ Rồng nổi tiếng bậc nhất cố đô Hoa Lư</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975748/12cc1f9d7cd3958dccc2.jpg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thao-do-cho-rong-noi-tieng-bac-nhat-co-do-hoa-lu-r51975748.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Hà Giang dự kiến từ 193 giảm còn 74 đơn vị hành chính cấp xã</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975102/28277652151cfc42a50d.jpg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-giang-du-kien-tu-193-giam-con-74-don-vi-hanh-chinh-cap-xa-r51975102.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>39 nội dung trọng tâm được thông qua tại Hội nghị Ban Chấp hành Đảng bộ UBND TP.HCM lần 2 (mở rộng)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_237_51975772/210725574619af47f608.jpg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/39-noi-dung-trong-tam-duoc-thong-qua-tai-hoi-nghi-ban-chap-hanh-dang-bo-ubnd-tp-hcm-lan-2-mo-rong-r51975772.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Cao tốc Bến Lức - Long Thành sắp thông xe cuối tuần này</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975766/579d06cd65838cddd592.jpg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cao-toc-ben-luc-long-thanh-sap-thong-xe-cuoi-tuan-nay-r51975766.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Con trai của Ronaldo sẽ chọn tuyển Tây Ban Nha thay vì Mỹ, Bồ Đào Nha?</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975286/1272890fea41031f5a50.jpg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/con-trai-cua-ronaldo-se-chon-tuyen-tay-ban-nha-thay-vi-my-bo-dao-nha-r51975286.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sản lượng thép thô của Hòa Phát tăng trưởng 25% trong quý 1/2025</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_595_51975963/4522757a1634ff6aa625.jpg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/san-luong-thep-tho-cua-hoa-phat-tang-truong-25-trong-quy-1-2025-r51975963.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>TP.HCM bố trí thêm hơn 1.000 chỗ ngồi để xem lễ diễu binh, diễu hành</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975551/21f932be51f0b8aee1e1.jpg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-hcm-bo-tri-them-hon-1-000-cho-ngoi-de-xem-le-dieu-binh-dieu-hanh-r51975551.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Những thay đổi quan trọng trong chế độ hưu trí từ 1/7/2025</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975664/10df339250dcb982e0cd.jpg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhung-thay-doi-quan-trong-trong-che-do-huu-tri-tu-1-7-2025-r51975664.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Dân mạng sửng sốt vì lịch tháng 4/1975 trùng với lịch tháng 4/2025</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51975600/dbfcbfb4dcfa35a46ceb.jpg</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dan-mang-sung-sot-vi-lich-thang-4-1975-trung-voi-lich-thang-4-2025-r51975600.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Đà Nẵng: Phẫu thuật thành công ca bệnh lý phổi biệt lập hiếm gặp</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51976253/59b7519132dfdb8182ce.jpg</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/da-nang-phau-thuat-thanh-cong-ca-benh-ly-phoi-biet-lap-hiem-gap-r51976253.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Đồng bào Khmer đón Tết Chôl Chnăm Thmây trong niềm vui và hạnh phúc</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dong-bao-khmer-don-tet-chol-chnam-thmay-trong-niem-vui-va-hanh-phuc-r51975780.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Bắc Kạn: Đảm bảo không chậm tiến độ giải phóng mặt bằng tuyến Chợ Mới - Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bac-kan-dam-bao-khong-cham-tien-do-giai-phong-mat-bang-tuyen-cho-moi-bac-kan-r51975917.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Đề xuất thành lập tòa án khu vực, tòa chuyên trách phá sản và sở hữu trí trí tuệ</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/de-xuat-thanh-lap-toa-an-khu-vuc-toa-chuyen-trach-pha-san-va-so-huu-tri-tri-tue-r51975478.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Bảng giá xe Yamaha YZF-R15 mới nhất tháng 4/2025</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51975793/423fee6c8d22647c3d33.jpg</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bang-gia-xe-yamaha-yzf-r15-moi-nhat-thang-4-2025-r51975793.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Khủng hoảng dạy toán tại Australia</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975395/15c456e035aedcf085bf.jpg</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khung-hoang-day-toan-tai-australia-r51975395.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hai người mất tích do mưa lớn ở miền Bắc</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975558/18119b57f81911474808.jpg</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hai-nguoi-mat-tich-do-mua-lon-o-mien-bac-r51975558.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Sữa giả và những hiểm họa khôn lường với sức khỏe cộng đồng</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976424/3f3ee404874a6e14375b.jpg</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/sua-gia-va-nhung-hiem-hoa-khon-luong-voi-suc-khoe-cong-dong-r51976424.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Vesak 2025: Loạt hoạt động trong ngày hội lớn nhất của Phật giáo tại núi Bà Đen</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975959/f9f434af57e1bebfe7f0.jpg</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vesak-2025-loat-hoat-dong-trong-ngay-hoi-lon-nhat-cua-phat-giao-tai-nui-ba-den-r51975959.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Ba vấn đề nóng mà Tổng thống Trump phải quyết định trong vài tháng tới</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975717/a1795d373e79d7278e68.jpg</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ba-van-de-nong-ma-tong-thong-trump-phai-quyet-dinh-trong-vai-thang-toi-r51975717.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Tươi thắm sắc màu tình hữu nghị 'vừa là đồng chí, vừa là anh em'</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51975919/dbce47f924b7cde994a6.jpg</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tuoi-tham-sac-mau-tinh-huu-nghi-vua-la-dong-chi-vua-la-anh-em-r51975919.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Cựu Chủ tịch FLC Trịnh Văn Quyết khắc phục thêm 100 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51975946/735fee078d4964173d58.jpg</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cuu-chu-tich-flc-trinh-van-quyet-khac-phuc-them-100-ty-dong-r51975946.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Tuyên dương cô giáo sáng lập Quỹ học bổng Nhất Tâm</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_181_51977031/6ca0baacd9e230bc69f3.jpg</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tuyen-duong-co-giao-sang-lap-quy-hoc-bong-nhat-tam-r51977031.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Miền Bắc có thể còn đón 1-2 đợt không khí lạnh, Hà Nội sắp nắng 37 độ</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975307/0132dc4ebf00565e0f11.jpg</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mien-bac-co-the-con-don-1-2-dot-khong-khi-lanh-ha-noi-sap-nang-37-do-r51975307.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Ngôi sao bóng chuyền nữ Việt Nam bị hàng loạt câu lạc bộ Hàn Quốc từ chối là ai?</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51975457/471c1a5e7910904ec901.jpg</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngoi-sao-bong-chuyen-nu-viet-nam-bi-hang-loat-cau-lac-bo-han-quoc-tu-choi-la-ai-r51975457.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Khách sạn TP.HCM hết phòng vì sức hút của đại lễ 50 năm mới có một lần</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975262/1503c84cab02425c1b13.jpg</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khach-san-tp-hcm-het-phong-vi-suc-hut-cua-dai-le-50-nam-moi-co-mot-lan-r51975262.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>CLIP: Hổ dữ 'nếm trái đắng' khi cố gắng truy sát khỉ trên cây</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_304_51976629/2d828db8eef607a85ee7.jpg</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-ho-du-nem-trai-dang-khi-co-gang-truy-sat-khi-tren-cay-r51976629.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Huyện Vĩnh Hưng: Bán đấu giá 69 lô đất tại Cụm dân cư Trung Trực với nhiều dấu hiệu bất thường</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/huyen-vinh-hung-ban-dau-gia-69-lo-dat-tai-cum-dan-cu-trung-truc-voi-nhieu-dau-hieu-bat-thuong-r51975745.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hải Phòng bắn pháo hoa tại 6 điểm mừng 70 năm Giải phóng</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hai-phong-ban-phao-hoa-tai-6-diem-mung-70-nam-giai-phong-r51975828.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>TP.HCM hợp nhất Sở Giao thông công chánh và Sở Xây dựng</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-hcm-hop-nhat-so-giao-thong-cong-chanh-va-so-xay-dung-r51974999.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Phê chuẩn khởi tố hai đối tượng trộm 6 cây gỗ Sưa</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51975549/369f47d82496cdc89487.jpg</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phe-chuan-khoi-to-hai-doi-tuong-trom-6-cay-go-sua-r51975549.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Phát hiện đường dây buôn lậu linh kiện UAV tại châu Âu liên quan đến Hezbollah</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975976/4154080f6b41821fdb50.jpg</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phat-hien-duong-day-buon-lau-linh-kien-uav-tai-chau-au-lien-quan-den-hezbollah-r51975976.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Xét xử 13 bị cáo vụ sai phạm tại Trung tâm đăng kiểm xe cơ giới Đồng Nai</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975354/f5a990e1f3af1af143be.jpg</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xet-xu-13-bi-cao-vu-sai-pham-tai-trung-tam-dang-kiem-xe-co-gioi-dong-nai-r51975354.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Những nghi lễ chính của Tết Chôl Chnăm Thmây</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975302/3d10706d1323fa7da332.jpg</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhung-nghi-le-chinh-cua-tet-chol-chnam-thmay-r51975302.epi</t>
         </is>
       </c>
     </row>

--- a/data/raw-data/news.xlsx
+++ b/data/raw-data/news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Thủ tướng: Sẵn sàng để ngày 1/7 vận hành bộ máy mới sau sắp xếp, sáp nhập</t>
+          <t>Phương án nhân sự chủ chốt các tỉnh, thành phố sau sáp nhập</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_83_51976294/daff3ecd5d83b4dded92.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_114_51976964/601bae11cd5f24017d4e.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-san-sang-de-ngay-1-7-van-hanh-bo-may-moi-sau-sap-xep-sap-nhap-r51976294.epi</t>
+          <t>https://lite.baomoi.com/phuong-an-nhan-su-chu-chot-cac-tinh-thanh-pho-sau-sap-nhap-r51976964.epi</t>
         </is>
       </c>
     </row>
@@ -492,34 +492,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ông Trump lên tiếng sau cuộc tấn công của Nga vào thành phố Sumy</t>
+          <t>Bộ Công Thương nói gì về trách nhiệm vụ sản xuất sữa giả, thu lợi 500 tỉ đồng?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51975700/224ce67f85316c6f3520.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51977490/d7a022417e0f9751ce1e.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ong-trump-len-tieng-sau-cuoc-tan-cong-cua-nga-vao-thanh-pho-sumy-r51975700.epi</t>
+          <t>https://lite.baomoi.com/bo-cong-thuong-noi-gi-ve-trach-nhiem-vu-san-xuat-sua-gia-thu-loi-500-ti-dong-r51977490.epi</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lộ diện 2 giám đốc 'bù nhìn' trong vụ sữa bột giả thu lợi 500 tỷ đồng</t>
+          <t>NSX 'Mái ấm gia đình Việt' thông báo dừng hợp tác với Quyền Linh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51974884/9b5e2734447aad24f46b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_119_51977180/2e6a9979fa3713694a26.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lo-dien-2-giam-doc-bu-nhin-trong-vu-sua-bot-gia-thu-loi-500-ty-dong-r51974884.epi</t>
+          <t>https://lite.baomoi.com/nsx-mai-am-gia-dinh-viet-thong-bao-dung-hop-tac-voi-quyen-linh-r51977180.epi</t>
         </is>
       </c>
     </row>
@@ -543,187 +543,187 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vụ sập lan can trường học, 3 nữ sinh bị thương: Công an vào cuộc</t>
+          <t>Làm rõ vụ đánh nhau vì giành khách ở đỉnh đèo Hải Vân</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51975707/8f174c252f6bc6359f7a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51975927/1c2c9875fb3b12654b2a.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-sap-lan-can-truong-hoc-3-nu-sinh-bi-thuong-cong-an-vao-cuoc-r51975707.epi</t>
+          <t>https://lite.baomoi.com/lam-ro-vu-danh-nhau-vi-gianh-khach-o-dinh-deo-hai-van-r51975927.epi</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Giá vàng SJC lập đỉnh mới 107,5 triệu đồng/lượng, bất chấp giá thế giới giảm</t>
+          <t>Quyền Linh xin lỗi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_17_51974438/da3066a905e7ecb9b5f6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51977763/3915eae6b6a85ff606b9.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gia-vang-sjc-lap-dinh-moi-107-5-trieu-dong-luong-bat-chap-gia-the-gioi-giam-r51974438.epi</t>
+          <t>https://lite.baomoi.com/quyen-linh-xin-loi-r51977763.epi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Làm rõ vụ đánh nhau vì giành khách ở đỉnh đèo Hải Vân</t>
+          <t>Nhiệt độ tăng đến 37 độ C, TP HCM tiêu thụ điện cao nhất từ đầu năm đến nay</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51975927/1c2c9875fb3b12654b2a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51975858/c4535b073849d1178858.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lam-ro-vu-danh-nhau-vi-gianh-khach-o-dinh-deo-hai-van-r51975927.epi</t>
+          <t>https://lite.baomoi.com/nhiet-do-tang-den-37-do-c-tp-hcm-tieu-thu-dien-cao-nhat-tu-dau-nam-den-nay-r51975858.epi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Phiên tòa xét xử cựu Tổng thống Hàn Quốc diễn biến rất phức tạp</t>
+          <t>U17 Indonesia thua tan nát ở tứ kết U17 châu Á</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51975393/4ee653a730e9d9b780f8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_106_51978012/b99a5864042aed74b43b.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phien-toa-xet-xu-cuu-tong-thong-han-quoc-dien-bien-rat-phuc-tap-r51975393.epi</t>
+          <t>https://lite.baomoi.com/u17-indonesia-thua-tan-nat-o-tu-ket-u17-chau-a-r51978012.epi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vĩnh biệt thành viên thân thương của 'Gia đình Tin tức'</t>
+          <t>Vụ lan can tầng 4 rơi trúng 3 học sinh ở sân trường: Một nữ sinh phải mổ cấp cứu vì chấn thương sọ não</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51976177/3cefa2e3c1ad28f371bc.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_94_51976054/3c088e54ed1a04445d0b.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vinh-biet-thanh-vien-than-thuong-cua-gia-dinh-tin-tuc-r51976177.epi</t>
+          <t>https://lite.baomoi.com/vu-lan-can-tang-4-roi-trung-3-hoc-sinh-o-san-truong-mot-nu-sinh-phai-mo-cap-cuu-vi-chan-thuong-so-nao-r51976054.epi</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tiến tới Đại hội XIV của Đảng: Nhiều ý kiến tâm huyết góp ý vào Dự thảo Báo cáo chính trị</t>
+          <t>Đại học Quốc gia TP Hồ Chí Minh công bố kết quả thi Đánh giá năng lực đợt 1 năm 2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51976000/3f26a07cc3322a6c7323.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51977704/0999a468f82611784837.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tien-toi-dai-hoi-xiv-cua-dang-nhieu-y-kien-tam-huyet-gop-y-vao-du-thao-bao-cao-chinh-tri-r51976000.epi</t>
+          <t>https://lite.baomoi.com/dai-hoc-quoc-gia-tp-ho-chi-minh-cong-bo-ket-qua-thi-danh-gia-nang-luc-dot-1-nam-2025-r51977704.epi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Thủ tướng: Chuẩn bị sẵn sàng để vận hành bộ máy mới của chính quyền địa phương 2 cấp từ 1/7</t>
+          <t>Thủ tướng Phạm Minh Chính hội kiến Tổng Bí thư, Chủ tịch nước Trung Quốc Tập Cận Bình</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_146_51976007/09e503ef60a189ffd0b0.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-chuan-bi-san-sang-de-van-hanh-bo-may-moi-cua-chinh-quyen-dia-phuong-2-cap-tu-1-7-r51976007.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-pham-minh-chinh-hoi-kien-tong-bi-thu-chu-tich-nuoc-trung-quoc-tap-can-binh-r51978173.epi</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TP Hồ Chí Minh: Đã xác minh được danh tính người đàn ông 'hít xà đơn' trên tàu metro số 1</t>
+          <t>Trung Quốc luôn coi Việt Nam là ưu tiên trong chính sách ngoại giao</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51974935/e86bf50796497f172658.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_595_51978125/86c9830ddf43361d6f52.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-ho-chi-minh-da-xac-minh-duoc-danh-tinh-nguoi-dan-ong-hit-xa-don-tren-tau-metro-so-1-r51974935.epi</t>
+          <t>https://lite.baomoi.com/trung-quoc-luon-coi-viet-nam-la-uu-tien-trong-chinh-sach-ngoai-giao-r51978125.epi</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Thủ tướng: Sẵn sàng vận hành bộ máy mới chính quyền địa phương 2 cấp từ ngày 1/7</t>
+          <t>Đài truyền hình Mỹ vừa phỏng vấn Tổng thống Ukraine, ông Trump công kích dữ dội</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51976555/6518582e3b60d23e8b71.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_296_51976784/d0b8a8bacbf422aa7be5.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-san-sang-van-hanh-bo-may-moi-chinh-quyen-dia-phuong-2-cap-tu-ngay-1-7-r51976555.epi</t>
+          <t>https://lite.baomoi.com/dai-truyen-hinh-my-vua-phong-van-tong-thong-ukraine-ong-trump-cong-kich-du-doi-r51976784.epi</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tên gọi dự kiến của 36 xã, phường ở Bình Dương sau sáp nhập</t>
+          <t>Bộ Chính trị hướng dẫn xây dựng phương án nhân sự khi sáp nhập tỉnh, xã</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_15_51976320/76b78b9ae8d4018a58c5.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ten-goi-du-kien-cua-36-xa-phuong-o-binh-duong-sau-sap-nhap-r51976320.epi</t>
+          <t>https://lite.baomoi.com/bo-chinh-tri-huong-dan-xay-dung-phuong-an-nhan-su-khi-sap-nhap-tinh-xa-r51977969.epi</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bình Dương bứt phá kinh tế đầu năm, sẵn sàng hợp lực cùng TP. Hồ Chí Minh</t>
+          <t>Đại hội đảng bộ các tỉnh, xã sau sáp nhập sẽ không làm công tác nhân sự</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_293_51976553/f139c10fa2414b1f1250.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/binh-duong-but-pha-kinh-te-dau-nam-san-sang-hop-luc-cung-tp-ho-chi-minh-r51976553.epi</t>
+          <t>https://lite.baomoi.com/dai-hoi-dang-bo-cac-tinh-xa-sau-sap-nhap-se-khong-lam-cong-tac-nhan-su-r51977512.epi</t>
         </is>
       </c>
     </row>
@@ -747,170 +747,170 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Thủ tướng: Sắp xếp trung tâm y tế, trường học phải đảm bảo thuận lợi cho người dân</t>
+          <t>Ngày mai, TP.HCM, Bình Dương, Bà Rịa - Vũng Tàu sẽ bàn việc ghép ranh giới hành chính</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_14_65_51975873/29be659a06d4ef8ab6c5.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-sap-xep-trung-tam-y-te-truong-hoc-phai-dam-bao-thuan-loi-cho-nguoi-dan-r51975873.epi</t>
+          <t>https://lite.baomoi.com/ngay-mai-tp-hcm-binh-duong-ba-ria-vung-tau-se-ban-viec-ghep-ranh-gioi-hanh-chinh-r51977019.epi</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đại tướng Phan Văn Giang tiếp xúc bên lề với Bộ trưởng Bộ Quốc phòng Trung Quốc</t>
+          <t>Ông Nguyễn Văn Được: 'Chắc chắn có một lượng cán bộ khó khăn, tâm tư khi sắp xếp'</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_16_51975888/23bd3bea58a4b1fae8b5.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dai-tuong-phan-van-giang-tiep-xuc-ben-le-voi-bo-truong-bo-quoc-phong-trung-quoc-r51975888.epi</t>
+          <t>https://lite.baomoi.com/ong-nguyen-van-duoc-chac-chan-co-mot-luong-can-bo-kho-khan-tam-tu-khi-sap-xep-r51976808.epi</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hoa hậu H'Hen Niê rơi nước mắt khi nhắc về chồng</t>
+          <t>Lãnh đạo Việt Nam chúc mừng Lào và Campuchia nhân dịp Tết cổ truyền</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51976434/e05e6a6d0923e07db932.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hoa-hau-h-hen-nie-roi-nuoc-mat-khi-nhac-ve-chong-r51976434.epi</t>
+          <t>https://lite.baomoi.com/lanh-dao-viet-nam-chuc-mung-lao-va-campuchia-nhan-dip-tet-co-truyen-r51977753.epi</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chủ quán bán đĩa rau muống xào 500.000 đồng ở Nha Trang chây ì nộp phạt</t>
+          <t>Sắp diễn ra sự kiện kết nối doanh nghiệp Việt Nam - Hàn Quốc CICON 2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_83_51975154/67011d767e389766ce29.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chu-quan-ban-dia-rau-muong-xao-500-000-dong-o-nha-trang-chay-i-nop-phat-r51975154.epi</t>
+          <t>https://lite.baomoi.com/sap-dien-ra-su-kien-ket-noi-doanh-nghiep-viet-nam-han-quoc-cicon-2025-r51978123.epi</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Thủ tướng chủ trì phiên họp Ban Chỉ đạo xây dựng Đề án phát triển kinh tế tư nhân</t>
+          <t>Đức muốn 'bắn mũi tên thần', Nga phản ứng gắt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_293_51975846/a1a9c4fca7b24eec17a3.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-chu-tri-phien-hop-ban-chi-dao-xay-dung-de-an-phat-trien-kinh-te-tu-nhan-r51975846.epi</t>
+          <t>https://lite.baomoi.com/duc-muon-ban-mui-ten-than-nga-phan-ung-gat-r51977311.epi</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tổng Bí thư Tô Lâm hội đàm với Tổng Bí thư, Chủ tịch nước Trung Quốc Tập Cận Bình</t>
+          <t>Amanda Nguyễn - Người phụ nữ gốc Việt đầu tiên bay vào không gian</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51976237/10461d627e2c9772ce3d.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-bi-thu-to-lam-hoi-dam-voi-tong-bi-thu-chu-tich-nuoc-trung-quoc-tap-can-binh-r51976237.epi</t>
+          <t>https://lite.baomoi.com/amanda-nguyen-nguoi-phu-nu-goc-viet-dau-tien-bay-vao-khong-gian-r51977674.epi</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dư luận rúng động phòng chat tình dục liên quan showbiz</t>
+          <t>Việt Nam-Hàn Quốc tận dụng các FTA, sớm đưa thương mại song phương lên 150 tỷ USD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51976587/033a7602154cfc12a55d.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/du-luan-rung-dong-phong-chat-tinh-duc-lien-quan-showbiz-r51976587.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-han-quoc-tan-dung-cac-fta-som-dua-thuong-mai-song-phuong-len-150-ty-usd-r51978121.epi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bé trai chào đời được nửa ngày, mẹ bỗng nhiên rời đi mất liên lạc</t>
+          <t>TP Hồ Chí Minh: Đã xác minh được danh tính người đàn ông 'hít xà đơn' trên tàu metro số 1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51976693/773e7301104ff911a05e.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/be-trai-chao-doi-duoc-nua-ngay-me-bong-nhien-roi-di-mat-lien-lac-r51976693.epi</t>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-da-xac-minh-duoc-danh-tinh-nguoi-dan-ong-hit-xa-don-tren-tau-metro-so-1-r51974935.epi</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Trưng bày các văn kiện hợp tác giữa hai nước Việt Nam-Trung Quốc</t>
+          <t>18 trường đại học Đức tìm kiếm cơ hội hợp tác với các đối tác Việt Nam</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_293_51976596/3f20ee1b8d55640b3d44.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/trung-bay-cac-van-kien-hop-tac-giua-hai-nuoc-viet-nam-trung-quoc-r51976596.epi</t>
+          <t>https://lite.baomoi.com/18-truong-dai-hoc-duc-tim-kiem-co-hoi-hop-tac-voi-cac-doi-tac-viet-nam-r51978270.epi</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lời khai ban đầu của vợ chém người chồng đang ngủ</t>
+          <t>Hà Nội công nhận điểm du lịch Thụy Lâm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_114_51972560/09ddd677b5395c670528.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/loi-khai-ban-dau-cua-vo-chem-nguoi-chong-dang-ngu-r51972560.epi</t>
+          <t>https://lite.baomoi.com/ha-noi-cong-nhan-diem-du-lich-thuy-lam-r51978142.epi</t>
         </is>
       </c>
     </row>
@@ -934,177 +934,177 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Phản ứng của Doãn Quốc Đam, MC Hoàng Linh về quảng cáo sữa giả</t>
+          <t>Chi tiết lịch xem 3D mapping và pháo hoa mừng 30/4 tại TP.HCM</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51975999/4dbed7e4b4aa5df404bb.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phan-ung-cua-doan-quoc-dam-mc-hoang-linh-ve-quang-cao-sua-gia-r51975999.epi</t>
+          <t>https://lite.baomoi.com/chi-tiet-lich-xem-3d-mapping-va-phao-hoa-mung-30-4-tai-tp-hcm-r51978228.epi</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng thống Trump chính thức lên tiếng về việc Nga tấn công thành phố Sumy của Ukraine</t>
+          <t>Doanh nghiệp tư nhân cần đổi mới để tăng nội lực và khả năng thích ứng</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51973682/00ca0e486d068458dd17.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-thong-trump-chinh-thuc-len-tieng-ve-viec-nga-tan-cong-thanh-pho-sumy-cua-ukraine-r51973682.epi</t>
+          <t>https://lite.baomoi.com/doanh-nghiep-tu-nhan-can-doi-moi-de-tang-noi-luc-va-kha-nang-thich-ung-r51978206.epi</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Việt Nam – Hàn Quốc phấn đấu đạt 150 tỉ USD kim ngạch thương mại vào năm 2030</t>
+          <t>Học giả Trung Quốc nêu bật ý nghĩa bài viết của Tổng Bí thư Tô Lâm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_114_51976575/b54a1c727f3c9662cf2d.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/viet-nam-han-quoc-phan-dau-dat-150-ti-usd-kim-ngach-thuong-mai-vao-nam-2030-r51976575.epi</t>
+          <t>https://lite.baomoi.com/hoc-gia-trung-quoc-neu-bat-y-nghia-bai-viet-cua-tong-bi-thu-to-lam-r51978213.epi</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiếc ví đen bị bỏ quên tại Nội Bài và pha 'quay xe' trong đêm của vị khách</t>
+          <t>Dính 'bẫy lừa' của 'Thủ lĩnh dự án Sybbex', người phụ nữ mất trắng hơn 2 tỷ đồng</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_23_51975736/fd60f74694087d562419.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chiec-vi-den-bi-bo-quen-tai-noi-bai-va-pha-quay-xe-trong-dem-cua-vi-khach-r51975736.epi</t>
+          <t>https://lite.baomoi.com/dinh-bay-lua-cua-thu-linh-du-an-sybbex-nguoi-phu-nu-mat-trang-hon-2-ty-dong-r51978106.epi</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Vụ sữa giả: Luật sư nói gì về trách nhiệm của những người nổi tiếng?</t>
+          <t>Lời khai của người phụ nữ cứa cổ chồng lúc nửa đêm</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2_sm/2025_04_14_65_51976605/3b2c4f292c67c5399c76.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vu-sua-gia-luat-su-noi-gi-ve-trach-nhiem-cua-nhung-nguoi-noi-tieng-r51976605.epi</t>
+          <t>https://lite.baomoi.com/loi-khai-cua-nguoi-phu-nu-cua-co-chong-luc-nua-dem-r51975830.epi</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TP.HCM nắng nóng, tiêu thụ điện đạt kỷ lục</t>
+          <t>Động thái của Vân Hugo, Doãn Quốc Đam vụ quảng cáo sữa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_114_51976574/da737b4b1805f15ba814.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-nang-nong-tieu-thu-dien-dat-ky-luc-r51976574.epi</t>
+          <t>https://lite.baomoi.com/dong-thai-cua-van-hugo-doan-quoc-dam-vu-quang-cao-sua-r51977988.epi</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ngọc Thanh Tâm gây sốt khi đánh trống điêu luyện trong concert Chị đẹp</t>
+          <t>Tổng thống Trump chính thức lên tiếng về việc Nga tấn công thành phố Sumy của Ukraine</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51976606/aaa378981bd6f288abc7.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ngoc-thanh-tam-gay-sot-khi-danh-trong-dieu-luyen-trong-concert-chi-dep-r51976606.epi</t>
+          <t>https://lite.baomoi.com/tong-thong-trump-chinh-thuc-len-tieng-ve-viec-nga-tan-cong-thanh-pho-sumy-cua-ukraine-r51973682.epi</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TP.HCM sẽ sáp nhập Sở Giao thông Công chánh</t>
+          <t>Thủ tướng: Sớm trình Bộ Chính trị đề án phát triển kinh tế tư nhân</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_65_51976678/11c15ac4398ad0d4899b.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-se-sap-nhap-so-giao-thong-cong-chanh-r51976678.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-som-trinh-bo-chinh-tri-de-an-phat-trien-kinh-te-tu-nhan-r51978266.epi</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Triển khai nhiều dự án giao thông kết nối Đắk Nông – Lâm Đồng</t>
+          <t>Chán ngấy Onana, Man Utd gây sốc với thủ môn Arsenal</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_112_51976569/def016c875869cd8c597.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_106_51978105/62c23c0760498917d058.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/trien-khai-nhieu-du-an-giao-thong-ket-noi-dak-nong-lam-dong-r51976569.epi</t>
+          <t>https://lite.baomoi.com/chan-ngay-onana-man-utd-gay-soc-voi-thu-mon-arsenal-r51978105.epi</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Thủ tướng Phạm Minh Chính chủ trì hội nghị tổng kết việc thực hiện Nghị quyết số 18-NQ/TW</t>
+          <t>Vụ người đàn ông mất tích: Tìm thấy thi thể đang phân hủy</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_14_51975624/09067f4d1c03f55dac12.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-pham-minh-chinh-chu-tri-hoi-nghi-tong-ket-viec-thuc-hien-nghi-quyet-so-18-nq-tw-r51975624.epi</t>
+          <t>https://lite.baomoi.com/vu-nguoi-dan-ong-mat-tich-tim-thay-thi-the-dang-phan-huy-r51977595.epi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Phim có Khả Như không còn bán được vé</t>
+          <t>Cảnh sát giao thông kịp thời hỗ trợ đưa cháu bé có dấu hiệu ngưng thở đi bệnh viện</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1114,14 +1114,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phim-co-kha-nhu-khong-con-ban-duoc-ve-r51976499.epi</t>
+          <t>https://lite.baomoi.com/canh-sat-giao-thong-kip-thoi-ho-tro-dua-chau-be-co-dau-hieu-ngung-tho-di-benh-vien-r51977973.epi</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Dập tắt vụ cháy tại kho xưởng chứa xốp</t>
+          <t>Xử lý 78 thanh thiếu niên vi phạm giao thông khi tụ tập 'sống ảo' tại điểm săn mây</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1131,14 +1131,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dap-tat-vu-chay-tai-kho-xuong-chua-xop-r51976461.epi</t>
+          <t>https://lite.baomoi.com/xu-ly-78-thanh-thieu-nien-vi-pham-giao-thong-khi-tu-tap-song-ao-tai-diem-san-may-r51977879.epi</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lấy mẫu xét nghiệm tìm nguyên nhân 11 con bò chết bất thường</t>
+          <t>Việt Nam sở hữu nhiều 'át chủ bài' trong một thế giới biến động</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1148,14 +1148,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lay-mau-xet-nghiem-tim-nguyen-nhan-11-con-bo-chet-bat-thuong-r51976314.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-so-huu-nhieu-at-chu-bai-trong-mot-the-gioi-bien-dong-r51978151.epi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Thường vụ Quốc hội cho ý kiến về hồ sơ đề nghị sửa đổi Hiến pháp</t>
+          <t>Trúc Anh theo phong cách gợi cảm</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thuong-vu-quoc-hoi-cho-y-kien-ve-ho-so-de-nghi-sua-doi-hien-phap-r51976354.epi</t>
+          <t>https://lite.baomoi.com/truc-anh-theo-phong-cach-goi-cam-r51978134.epi</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nhiều hộ dân ở Thành phố Huế vẫn chưa thoát 'kiếp' nhà chồ</t>
+          <t>Thái Nguyên: Quyết tâm đạt mục tiêu tăng trưởng kinh tế năm 2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1182,14 +1182,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhieu-ho-dan-o-thanh-pho-hue-van-chua-thoat-kiep-nha-cho-r51976809.epi</t>
+          <t>https://lite.baomoi.com/thai-nguyen-quyet-tam-dat-muc-tieu-tang-truong-kinh-te-nam-2025-r51978102.epi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Đảng ủy UBND TP HCM: Đề xuất nhất thể hóa Ban Tổ chức với Sở Nội vụ</t>
+          <t>Thủ khoa đánh giá năng lực đợt 1 của Đại học Quốc gia TP.HCM đạt 1.060 điểm</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dang-uy-ubnd-tp-hcm-de-xuat-nhat-the-hoa-ban-to-chuc-voi-so-noi-vu-r51976411.epi</t>
+          <t>https://lite.baomoi.com/thu-khoa-danh-gia-nang-luc-dot-1-cua-dai-hoc-quoc-gia-tp-hcm-dat-1-060-diem-r51978129.epi</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TP.HCM nghiên cứu chính sách hỗ trợ cho cán bộ thuộc diện tinh giản</t>
+          <t>Ô tô khách va chạm với xe máy khiến 2 người tử vong</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1216,14 +1216,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-nghien-cuu-chinh-sach-ho-tro-cho-can-bo-thuoc-dien-tinh-gian-r51976315.epi</t>
+          <t>https://lite.baomoi.com/o-to-khach-va-cham-voi-xe-may-khien-2-nguoi-tu-vong-r51978007.epi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Thông qua nghị quyết về việc sắp xếp đơn vị hành chính</t>
+          <t>Nam sinh Huế giao nộp chim đuôi cụt bụng đỏ quý hiếm cho kiểm lâm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1233,14 +1233,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thong-qua-nghi-quyet-ve-viec-sap-xep-don-vi-hanh-chinh-r51975652.epi</t>
+          <t>https://lite.baomoi.com/nam-sinh-hue-giao-nop-chim-duoi-cut-bung-do-quy-hiem-cho-kiem-lam-r51977551.epi</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Người đàn ông bán bánh mì không tham của rơi</t>
+          <t>Ngắm đàn cò bay lượn 'phủ kín' bầu trời Phong Nha - Kẻ Bàng</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1250,14 +1250,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguoi-dan-ong-ban-banh-mi-khong-tham-cua-roi-r51976482.epi</t>
+          <t>https://lite.baomoi.com/ngam-dan-co-bay-luon-phu-kin-bau-troi-phong-nha-ke-bang-r51978185.epi</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Nhật Bản 'không nóng lòng thỏa hiệp với Mỹ'</t>
+          <t>Thái Lan ban hành sắc lệnh khẩn cấp chống lừa đảo qua điện thoại</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1267,14 +1267,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhat-ban-khong-nong-long-thoa-hiep-voi-my-r51976571.epi</t>
+          <t>https://lite.baomoi.com/thai-lan-ban-hanh-sac-lenh-khan-cap-chong-lua-dao-qua-dien-thoai-r51978062.epi</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nhà ga T3 Tân Sơn Nhất đón chuyến bay đầu tiên từ ngày 17-4</t>
+          <t>Cần xử lý nghiêm những người nổi tiếng quảng cáo sữa sai sự thật</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1284,14 +1284,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nha-ga-t3-tan-son-nhat-don-chuyen-bay-dau-tien-tu-ngay-17-4-r51976020.epi</t>
+          <t>https://lite.baomoi.com/can-xu-ly-nghiem-nhung-nguoi-noi-tieng-quang-cao-sua-sai-su-that-r51974236.epi</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Thủ tướng chủ trì Phiên họp thứ 3 Ban Chỉ đạo xây dựng đề án phát triển kinh tế tư nhân</t>
+          <t>Bộ Quốc phòng xây dựng Thông tư liên quan tiêu chuẩn, quy chuẩn kỹ thuật đối với tàu bay không người lái</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1301,14 +1301,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-chu-tri-phien-hop-thu-3-ban-chi-dao-xay-dung-de-an-phat-trien-kinh-te-tu-nhan-r51976521.epi</t>
+          <t>https://lite.baomoi.com/bo-quoc-phong-xay-dung-thong-tu-lien-quan-tieu-chuan-quy-chuan-ky-thuat-doi-voi-tau-bay-khong-nguoi-lai-r51978135.epi</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Đồng Nai phạt nặng nhiều doanh nghiệp vi phạm môi trường</t>
+          <t>Nghệ An giảm 68,5% đơn vị hành chính cấp xã</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1318,14 +1318,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dong-nai-phat-nang-nhieu-doanh-nghiep-vi-pham-moi-truong-r51976520.epi</t>
+          <t>https://lite.baomoi.com/nghe-an-giam-68-5-don-vi-hanh-chinh-cap-xa-r51977579.epi</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cử tri Ninh Bình kỳ vọng vào những quyết sách của Trung ương sẽ kiến tạo và vì dân</t>
+          <t>Tước giấy phép tài xế xe tải cố tình vượt đường ngang khi gác chắn tàu đã đóng</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1335,558 +1335,558 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cu-tri-ninh-binh-ky-vong-vao-nhung-quyet-sach-cua-trung-uong-se-kien-tao-va-vi-dan-r51976633.epi</t>
+          <t>https://lite.baomoi.com/tuoc-giay-phep-tai-xe-xe-tai-co-tinh-vuot-duong-ngang-khi-gac-chan-tau-da-dong-r51977735.epi</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cựu Tổng thống Hàn Quốc Yoon Suk Yeol hầu tòa</t>
+          <t>Bổ nhiệm lãnh đạo Chi cục Quản lý thị trường Hải Phòng</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976466/f43a52083146d8188157.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuu-tong-thong-han-quoc-yoon-suk-yeol-hau-toa-r51976466.epi</t>
+          <t>https://lite.baomoi.com/bo-nhiem-lanh-dao-chi-cuc-quan-ly-thi-truong-hai-phong-r51978068.epi</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cảnh Bangkok 'vỡ trận' lễ Songkran</t>
+          <t>Cục Tiêu chuẩn-Đo lường-Chất lượng trao chứng chỉ công nhận năng lực giám định chất lượng hàng quốc phòng</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975660/9ba4e6e985a76cf935b6.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/canh-bangkok-vo-tran-le-songkran-r51975660.epi</t>
+          <t>https://lite.baomoi.com/cuc-tieu-chuan-do-luong-chat-luong-trao-chung-chi-cong-nhan-nang-luc-giam-dinh-chat-luong-hang-quoc-phong-r51978208.epi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Vi phạm phòng cháy chữa cháy – không còn là nhắc nhở</t>
+          <t>Mưa dông mạnh bất thường ở Đắk Nông</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51976454/dcfb17c974879dd9c496.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vi-pham-phong-chay-chua-chay-khong-con-la-nhac-nho-r51976454.epi</t>
+          <t>https://lite.baomoi.com/mua-dong-manh-bat-thuong-o-dak-nong-r51977691.epi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dự báo thời tiết ngày mai 15/4/2025: Miền Bắc hết lạnh chưa?</t>
+          <t>TP Hồ Chí Minh: Xử lý phòng khám thẩm mỹ quảng cáo trái phép, thu tiền dịch vụ giá cao</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976259/b8aa958cf6c21f9c46d3.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/du-bao-thoi-tiet-ngay-mai-15-4-2025-mien-bac-het-lanh-chua-r51976259.epi</t>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-xu-ly-phong-kham-tham-my-quang-cao-trai-phep-thu-tien-dich-vu-gia-cao-r51977680.epi</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Đề xuất mức phí trên đường bộ cao tốc Bắc - Nam cao nhất 1.300 đồng/km</t>
+          <t>Phương án nhân sự cấp ủy cấp tỉnh thuộc diện sáp nhập</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976199/39aaaa8fc9c1209f79d0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_35_51978314/f7c476192a57c3099a46.jpg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/de-xuat-muc-phi-tren-duong-bo-cao-toc-bac-nam-cao-nhat-1-300-dong-km-r51976199.epi</t>
+          <t>https://lite.baomoi.com/phuong-an-nhan-su-cap-uy-cap-tinh-thuoc-dien-sap-nhap-r51978314.epi</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sẽ khởi công dự án đường sắt cao tốc Bắc - Nam sớm hơn dự kiến</t>
+          <t>Thảm bại 6 bàn không gỡ, U17 Indonesia dừng bước ở tứ kết U17 châu Á 2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976198/350cd529b6675f390676.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_65_51978459/be4d47d31b9df2c3ab8c.jpg</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/se-khoi-cong-du-an-duong-sat-cao-toc-bac-nam-som-hon-du-kien-r51976198.epi</t>
+          <t>https://lite.baomoi.com/tham-bai-6-ban-khong-go-u17-indonesia-dung-buoc-o-tu-ket-u17-chau-a-2025-r51978459.epi</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Phát hiện, bắt giữ 3 xe vận chuyển 352 bình khí cười ở Quảng Ninh</t>
+          <t>Dự báo thời tiết ngày 15/4: Miền Bắc sắp đón nắng gắt, dự báo Hà Nội nóng 40 độ C</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976308/50d7ddd0be9e57c00e8f.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_296_51978409/0f2fcbb697f87ea627e9.jpg</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phat-hien-bat-giu-3-xe-van-chuyen-352-binh-khi-cuoi-o-quang-ninh-r51976308.epi</t>
+          <t>https://lite.baomoi.com/du-bao-thoi-tiet-ngay-15-4-mien-bac-sap-don-nang-gat-du-bao-ha-noi-nong-40-do-c-r51978409.epi</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bắc Giang chuẩn bị đưa 75 lô đất ra tổ chức đấu giá</t>
+          <t>U17 Hàn Quốc vào bán kết sau trận cầu nghẹt thở</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976744/a01a8b1be855010b5844.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978593/603e575a0b14e24abb05.jpg</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bac-giang-chuan-bi-dua-75-lo-dat-ra-to-chuc-dau-gia-r51976744.epi</t>
+          <t>https://lite.baomoi.com/u17-han-quoc-vao-ban-ket-sau-tran-cau-nghet-tho-r51978593.epi</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Quảng Ninh tiếp tục hoàn thiện phương án sắp xếp đơn vị hành chính cấp xã thuộc tỉnh</t>
+          <t>Người may 'niềm tin chiến thắng'</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51975185/9b76150f76419f1fc650.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51975781/7bd5a686c5c82c9675d9.jpg</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-ninh-tiep-tuc-hoan-thien-phuong-an-sap-xep-don-vi-hanh-chinh-cap-xa-thuoc-tinh-r51975185.epi</t>
+          <t>https://lite.baomoi.com/nguoi-may-niem-tin-chien-thang-r51975781.epi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tổng Lãnh sự Hoa Kỳ, Nhật Bản, Hàn Quốc làm việc với C4IR</t>
+          <t>Giá vàng hôm nay 15/4: Giá vàng SJC tiếp tục tăng 500.000 đồng/lượng</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_318_51976638/e5beec848fca66943fdb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_65_51978457/944118db4495adcbf484.jpg</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-lanh-su-hoa-ky-nhat-ban-han-quoc-lam-viec-voi-c4ir-r51976638.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-gia-vang-sjc-tiep-tuc-tang-500-000-dong-luong-r51978457.epi</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Kết quả xổ số Bạc Liêu hôm nay 15/4/2025 - XSBL 15/4</t>
+          <t>Kết quả bóng đá hôm nay 15/4: Atletico Madrid thổi lửa vào cuộc đua vô địch La Liga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51976874/222ef9289a6673382a77.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_65_51978572/226320067c489516cc59.jpg</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ket-qua-xo-so-bac-lieu-hom-nay-15-4-2025-xsbl-15-4-r51976874.epi</t>
+          <t>https://lite.baomoi.com/ket-qua-bong-da-hom-nay-15-4-atletico-madrid-thoi-lua-vao-cuoc-dua-vo-dich-la-liga-r51978572.epi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Quảng Ngãi: Dẹp biển quảng cáo 'chữa bệnh bằng nước'</t>
+          <t>Công an chính thức thông tin vụ ông Đoàn Văn Báu gây tai nạn giao thông</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976200/2243c466a7284e761739.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978423/8bf49d6dc123287d7132.jpg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-ngai-dep-bien-quang-cao-chua-benh-bang-nuoc-r51976200.epi</t>
+          <t>https://lite.baomoi.com/cong-an-chinh-thuc-thong-tin-vu-ong-doan-van-bau-gay-tai-nan-giao-thong-r51978423.epi</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gặp họa khó lường, cách thoát khỏi 'lời nguyền' xổ số</t>
+          <t>Quyền Linh xin lỗi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976725/17eaacebcfa526fb7fb4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51977763/3915eae6b6a85ff606b9.jpg</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gap-hoa-kho-luong-cach-thoat-khoi-loi-nguyen-xo-so-r51976725.epi</t>
+          <t>https://lite.baomoi.com/quyen-linh-xin-loi-r51977763.epi</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Thi thể người đàn ông nghi tâm thần được phát hiện sau gần 20 ngày mất tích</t>
+          <t>Giá vàng hôm nay 15/04: Bất ngờ 'rơi' từ đỉnh?</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975897/ae5a740c1742fe1ca753.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_180_51978420/784f5cd60098e9c6b089.jpg</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thi-the-nguoi-dan-ong-nghi-tam-than-duoc-phat-hien-sau-gan-20-ngay-mat-tich-r51975897.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-04-bat-ngo-roi-tu-dinh-r51978420.epi</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>XSMB 15/4 - Trực tiếp kết quả xổ số miền Bắc hôm nay 15/4/2025</t>
+          <t>Hà Nội xén vỉa hè, dải phân cách để giảm ùn tắc</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_294_51978494/7c3b94a5c8eb21b578fa.jpg</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xsmb-15-4-truc-tiep-ket-qua-xo-so-mien-bac-hom-nay-15-4-2025-r51976458.epi</t>
+          <t>https://lite.baomoi.com/ha-noi-xen-via-he-dai-phan-cach-de-giam-un-tac-r51978494.epi</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ca sĩ Đình Bảo AC&amp;M lấy vợ giám đốc, là tiến sĩ tại Mỹ</t>
+          <t>Thời tiết hôm nay 15/4: Miền Bắc có mưa vài nơi, trưa chiều trời nắng</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976435/67adec9e8fd0668e3fc1.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ca-si-dinh-bao-ac-m-lay-vo-giam-doc-la-tien-si-tai-my-r51976435.epi</t>
+          <t>https://lite.baomoi.com/thoi-tiet-hom-nay-15-4-mien-bac-co-mua-vai-noi-trua-chieu-troi-nang-r51977450.epi</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Lộ diện cổ đông lớn nước ngoài tại APG</t>
+          <t>Hé lộ hình ảnh có thể là của tàu chiến lớn nhất, hiện đại nhất Triều Tiên</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51976347/cb088424e76a0e34577b.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lo-dien-co-dong-lon-nuoc-ngoai-tai-apg-r51976347.epi</t>
+          <t>https://lite.baomoi.com/he-lo-hinh-anh-co-the-la-cua-tau-chien-lon-nhat-hien-dai-nhat-trieu-tien-r51978525.epi</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Đường 266 tỉ ở khu kinh tế Vân Phong vừa đưa vào sử dụng đã bong tróc</t>
+          <t>Từ việc không yêu cầu nộp giấy tờ đã tích hợp trên VNeID: Cần phân biệt công chứng và chứng thực</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976197/5854cd71ae3f47611e2e.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/duong-266-ti-o-khu-kinh-te-van-phong-vua-dua-vao-su-dung-da-bong-troc-r51976197.epi</t>
+          <t>https://lite.baomoi.com/tu-viec-khong-yeu-cau-nop-giay-to-da-tich-hop-tren-vneid-can-phan-biet-cong-chung-va-chung-thuc-r51978479.epi</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bộ Công an đề xuất bổ sung tội sử dụng trái phép chất ma túy</t>
+          <t>Nhận định Aston Villa vs PSG: Nhiệm vụ bất khả thi</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51976312/3e014a2b2965c03b9974.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-cong-an-de-xuat-bo-sung-toi-su-dung-trai-phep-chat-ma-tuy-r51976312.epi</t>
+          <t>https://lite.baomoi.com/nhan-dinh-aston-villa-vs-psg-nhiem-vu-bat-kha-thi-r51978594.epi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Truy tố chỉ huy đơn vị Không quân Hàn Quốc trong vụ ném bom nhầm vào nhà dân</t>
+          <t>Vụ án Phúc Sơn: Lái xe của Nguyễn Văn Hậu được giao thêm việc mang valy và túi tiền</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51976455/c6223e105d5eb400ed4f.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/truy-to-chi-huy-don-vi-khong-quan-han-quoc-trong-vu-nem-bom-nham-vao-nha-dan-r51976455.epi</t>
+          <t>https://lite.baomoi.com/vu-an-phuc-son-lai-xe-cua-nguyen-van-hau-duoc-giao-them-viec-mang-valy-va-tui-tien-r51978542.epi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Hổ con ở Nghệ An là 'idol' triệu view, hay đòi bế đi chơi như em bé</t>
+          <t>Mê mẩn với 'vương giả chi hoa' đua nhau khoe sắc giữa Hoàng cung Huế</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975424/040f8a42e90c0052591d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51976024/b4ca48972bd9c2879bc8.jpg</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ho-con-o-nghe-an-la-idol-trieu-view-hay-doi-be-di-choi-nhu-em-be-r51975424.epi</t>
+          <t>https://lite.baomoi.com/me-man-voi-vuong-gia-chi-hoa-dua-nhau-khoe-sac-giua-hoang-cung-hue-r51976024.epi</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Từ 1/7, người trên 75 tuổi không có lương hưu sẽ được nhận trợ cấp hưu trí xã hội</t>
+          <t>Italy sẵn sàng hỗ trợ đàm phán Mỹ-Iran, Tổng thống Trump cảnh báo Tehran</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51976286/e79ca1b7c2f92ba772e8.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tu-1-7-nguoi-tren-75-tuoi-khong-co-luong-huu-se-duoc-nhan-tro-cap-huu-tri-xa-hoi-r51976286.epi</t>
+          <t>https://lite.baomoi.com/italy-san-sang-ho-tro-dam-phan-my-iran-tong-thong-trump-canh-bao-tehran-r51978562.epi</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cập nhật 'nóng' chấn thương 3 trụ cột MU</t>
+          <t>Việt Nam thanh toán bệnh mắt hột sau hơn 70 năm</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976341/8ac5a7e8c4a62df874b7.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cap-nhat-nong-chan-thuong-3-tru-cot-mu-r51976341.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-thanh-toan-benh-mat-hot-sau-hon-70-nam-r51978828.epi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Tìm thấy 1 thi thể nạn nhân mất tích do mưa lớn tại Lai Châu</t>
+          <t>Tuyển Việt Nam: Bão chấn thương và thử thách cho HLV Kim Sang Sik</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976331/1fec76ee15a0fcfea5b1.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tim-thay-1-thi-the-nan-nhan-mat-tich-do-mua-lon-tai-lai-chau-r51976331.epi</t>
+          <t>https://lite.baomoi.com/tuyen-viet-nam-bao-chan-thuong-va-thu-thach-cho-hlv-kim-sang-sik-r51978426.epi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cổ động viên đòi 'cấm mọi hoạt động bóng đá' với Mbappe</t>
+          <t>Đèn đỏ rẽ phải bị phạt bao nhiêu tiền?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_181_51976908/a654a95dca13234d7a02.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978478/52a0303d6c73852ddc62.jpg</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-dong-vien-doi-cam-moi-hoat-dong-bong-da-voi-mbappe-r51976908.epi</t>
+          <t>https://lite.baomoi.com/den-do-re-phai-bi-phat-bao-nhieu-tien-r51978478.epi</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Xây dựng chính quyền địa phương 2 cấp, Đắk Lắk đồng thuận để phát triển</t>
+          <t>MU chọn cựu thủ môn Arsenal thay Onana</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976318/4b221120726e9b30c27f.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xay-dung-chinh-quyen-dia-phuong-2-cap-dak-lak-dong-thuan-de-phat-trien-r51976318.epi</t>
+          <t>https://lite.baomoi.com/mu-chon-cuu-thu-mon-arsenal-thay-onana-r51978524.epi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nhiều khu dân cư tại đô thị Mỹ Tho (Tiền Giang) tiềm ẩn nguy cơ cháy nổ</t>
+          <t>EU có thể nối lại nhập khẩu một phần khí đốt của Nga</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976226/58438170e23e0b60522f.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhieu-khu-dan-cu-tai-do-thi-my-tho-tien-giang-tiem-an-nguy-co-chay-no-r51976226.epi</t>
+          <t>https://lite.baomoi.com/eu-co-the-noi-lai-nhap-khau-mot-phan-khi-dot-cua-nga-r51978563.epi</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sự kiện chứng khoán đáng chú ý ngày 15/4</t>
+          <t>Cuộc chiến quyền lực Thổ Nhĩ Kỳ - Israel tại 'Syria mới'</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51976396/5c60b151d21f3b41620e.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/su-kien-chung-khoan-dang-chu-y-ngay-15-4-r51976396.epi</t>
+          <t>https://lite.baomoi.com/cuoc-chien-quyen-luc-tho-nhi-ky-israel-tai-syria-moi-r51978488.epi</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Việt Nam là 1 trong 21 quốc gia đã thành công thanh toán bệnh mắt hột</t>
+          <t>Xung đột Nga – Ukraine làm 'hồi sinh' loạt vũ khí lỗi thời</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51976366/1f13f63c95727c2c2563.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/viet-nam-la-1-trong-21-quoc-gia-da-thanh-cong-thanh-toan-benh-mat-hot-r51976366.epi</t>
+          <t>https://lite.baomoi.com/xung-dot-nga-ukraine-lam-hoi-sinh-loat-vu-khi-loi-thoi-r51978467.epi</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cô gái Việt ở Canada bị chỉ trích vì nâng ngực</t>
+          <t>Hôm nay, Thủ tướng Phạm Minh Chính chủ trì lễ đón Thủ tướng Ethiopia</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976497/c0b3b787d4c93d9764d8.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-gai-viet-o-canada-bi-chi-trich-vi-nang-nguc-r51976497.epi</t>
+          <t>https://lite.baomoi.com/hom-nay-thu-tuong-pham-minh-chinh-chu-tri-le-don-thu-tuong-ethiopia-r51978448.epi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Thỏ hồng khổng lồ trên đỉnh núi Italy sắp tan biến</t>
+          <t>Thay đổi bước ngoặt ở FIFA Club World Cup</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975439/33cc0b8f68c1819fd8d0.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tho-hong-khong-lo-tren-dinh-nui-italy-sap-tan-bien-r51975439.epi</t>
+          <t>https://lite.baomoi.com/thay-doi-buoc-ngoat-o-fifa-club-world-cup-r51978522.epi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tối nay, 169 hạt sen Việt Nam cùng nữ phi hành gia gốc Việt bay vào không gian</t>
+          <t>Hoa anh đào 'nhuộm hồng' đường phố ở Đức</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_465_51970988/30704c882fc6c6989fd7.jpg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/toi-nay-169-hat-sen-viet-nam-cung-nu-phi-hanh-gia-goc-viet-bay-vao-khong-gian-r51976242.epi</t>
+          <t>https://lite.baomoi.com/hoa-anh-dao-nhuom-hong-duong-pho-o-duc-r51970988.epi</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Nam sinh vỡ hàm do tông thẳng xe đạp điện vào đuôi xe tải</t>
+          <t>Giá vàng hôm nay 15/4/2025: Thế giới lao dốc, nhẫn và vàng SJC sẽ 'rơi tự do'?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1896,14 +1896,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nam-sinh-vo-ham-do-tong-thang-xe-dap-dien-vao-duoi-xe-tai-r51976301.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-2025-the-gioi-lao-doc-nhan-va-vang-sjc-se-roi-tu-do-r51978509.epi</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bình Định không để sắp xếp, tổ chức bộ máy ảnh hưởng chống khai thác IUU</t>
+          <t>Cận cảnh đường 750 tỷ ở Hà Nội thông xe sau 2 lần trễ hẹn</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1913,14 +1913,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/binh-dinh-khong-de-sap-xep-to-chuc-bo-may-anh-huong-chong-khai-thac-iuu-r51976137.epi</t>
+          <t>https://lite.baomoi.com/can-canh-duong-750-ty-o-ha-noi-thong-xe-sau-2-lan-tre-hen-r51978433.epi</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Phê duyệt Quy hoạch bảo quản, tu bổ Di tích quốc gia đặc biệt Chùa Phật Tích (Bắc Ninh)</t>
+          <t>Martinez bị chỉ trích vì làm lố</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1930,2421 +1930,7385 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phe-duyet-quy-hoach-bao-quan-tu-bo-di-tich-quoc-gia-dac-biet-chua-phat-tich-bac-ninh-r51976490.epi</t>
+          <t>https://lite.baomoi.com/martinez-bi-chi-trich-vi-lam-lo-r51978523.epi</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Hệ thống chiếu sáng nhiều tuyến đường ở TP Kon Tum tê liệt do bị cắt trộm dây điện</t>
+          <t>Drone tích hợp mã độc của Ukraine: Mối đe dọa nghiêm trọng với Nga?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976307/d0b71d8f7ec1979fced0.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/he-thong-chieu-sang-nhieu-tuyen-duong-o-tp-kon-tum-te-liet-do-bi-cat-trom-day-dien-r51976307.epi</t>
+          <t>https://lite.baomoi.com/drone-tich-hop-ma-doc-cua-ukraine-moi-de-doa-nghiem-trong-voi-nga-r51978673.epi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Chủ động bảo đảm an toàn giao thông ở Học viện Kỹ thuật Quân sự</t>
+          <t>Lấy chồng hơn 14 tuổi, cô gái Quảng Nam tổ chức đám cưới 'lạ lùng' giữa rừng</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51976465/150db53fd6713f2f6660.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chu-dong-bao-dam-an-toan-giao-thong-o-hoc-vien-ky-thuat-quan-su-r51976465.epi</t>
+          <t>https://lite.baomoi.com/lay-chong-hon-14-tuoi-co-gai-quang-nam-to-chuc-dam-cuoi-la-lung-giua-rung-r51978508.epi</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Nóng sớm, siêu thị điện máy 'tăng tốc' đón hè 2025</t>
+          <t>Hòa Bình, Vĩnh Phúc, Phú Thọ 'về một nhà', từ phố núi về đất Tổ đi thế nào?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_59_51976508/fed206e565ab8cf5d5ba.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nong-som-sieu-thi-dien-may-tang-toc-don-he-2025-r51976508.epi</t>
+          <t>https://lite.baomoi.com/hoa-binh-vinh-phuc-phu-tho-ve-mot-nha-tu-pho-nui-ve-dat-to-di-the-nao-r51978424.epi</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>UBND tỉnh Lâm Đồng chỉ đạo khẩn trương phối hợp xây dựng Đề án sáp nhập với tỉnh Bình Thuận và Đắk Nông</t>
+          <t>Công chức nào thuộc diện được đề xuất làm việc đến 70 tuổi?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_338_51976385/0afc26d2459cacc2f58d.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ubnd-tinh-lam-dong-chi-dao-khan-truong-phoi-hop-xay-dung-de-an-sap-nhap-voi-tinh-binh-thuan-va-dak-nong-r51976385.epi</t>
+          <t>https://lite.baomoi.com/cong-chuc-nao-thuoc-dien-duoc-de-xuat-lam-viec-den-70-tuoi-r51978578.epi</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Quảng Bình chuẩn bị 'trải chiếu hoa' đón cán bộ Quảng Trị ra công tác</t>
+          <t>Tin đồn hẹn hò của cặp chị em cách nhau 17 tuổi trong showbiz Việt dậy sóng trở lại</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975799/81f7dda4beea57b40efb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_304_51978358/0f5993e0cfae26f07fbf.jpg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-binh-chuan-bi-trai-chieu-hoa-don-can-bo-quang-tri-ra-cong-tac-r51975799.epi</t>
+          <t>https://lite.baomoi.com/tin-don-hen-ho-cua-cap-chi-em-cach-nhau-17-tuoi-trong-showbiz-viet-day-song-tro-lai-r51978358.epi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Bắc Giang, Hòa Bình dẫn đầu tăng trưởng kinh tế quý I</t>
+          <t>Greenwood bị chỉ trích</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976429/6cffebcc888261dc3893.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_119_51978519/5911c470983e7160282f.jpg</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bac-giang-hoa-binh-dan-dau-tang-truong-kinh-te-quy-i-r51976429.epi</t>
+          <t>https://lite.baomoi.com/greenwood-bi-chi-trich-r51978519.epi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Lisa lộ hình nền điện thoại là bạn trai doanh nhân</t>
+          <t>Thanh long bất ngờ soán ngôi 'vua' trái cây Việt Nam</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976648/851c6121026feb31b27e.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_20_51978535/668182e1deaf37f16ebe.jpg</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lisa-lo-hinh-nen-dien-thoai-la-ban-trai-doanh-nhan-r51976648.epi</t>
+          <t>https://lite.baomoi.com/thanh-long-bat-ngo-soan-ngoi-vua-trai-cay-viet-nam-r51978535.epi</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Người phụ nữ lấy tiền đi trả nợ rồi hoang báo bị cướp</t>
+          <t>Xác định 2 cặp đấu bán kết U17 châu Á 2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_180_51975870/42a757f334bddde384ac.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978591/cbac5dc3018de8d3b19c.jpg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguoi-phu-nu-lay-tien-di-tra-no-roi-hoang-bao-bi-cuop-r51975870.epi</t>
+          <t>https://lite.baomoi.com/xac-dinh-2-cap-dau-ban-ket-u17-chau-a-2025-r51978591.epi</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Thủ tướng gửi thư chúc mừng VTV của Việt Nam và CMG của Trung Quốc công bố hợp tác</t>
+          <t>Phó chủ tịch chạy đua với thời gian ở 'siêu' phường Hà Nội, nơi trẻ sinh ra trong năm đủ 1 trường</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976044/2ebe40e323adcaf393bc.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978425/c65b2dc3718d98d3c19c.jpg</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-gui-thu-chuc-mung-vtv-cua-viet-nam-va-cmg-cua-trung-quoc-cong-bo-hop-tac-r51976044.epi</t>
+          <t>https://lite.baomoi.com/pho-chu-tich-chay-dua-voi-thoi-gian-o-sieu-phuong-ha-noi-noi-tre-sinh-ra-trong-nam-du-1-truong-r51978425.epi</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ninh Thuận khánh thành Đường vành đai phía Bắc gần 500 tỷ đồng</t>
+          <t>Sự thật về 'nước thần' chanh, mía, sả, gừng, muối biển</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976033/d90541582216cb489207.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978450/bcd39348cf0626587f17.jpg</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ninh-thuan-khanh-thanh-duong-vanh-dai-phia-bac-gan-500-ty-dong-r51976033.epi</t>
+          <t>https://lite.baomoi.com/su-that-ve-nuoc-than-chanh-mia-sa-gung-muoi-bien-r51978450.epi</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cổ phiếu cần quan tâm ngày 15/4</t>
+          <t>'Người đàn ông nhanh nhất châu Á' muốn nghỉ hưu ở tuổi 35</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51976249/80f550d3339ddac3838c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978608/d5cf50a80ce6e5b8bcf7.jpg</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-phieu-can-quan-tam-ngay-15-4-r51976249.epi</t>
+          <t>https://lite.baomoi.com/nguoi-dan-ong-nhanh-nhat-chau-a-muon-nghi-huu-o-tuoi-35-r51978608.epi</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rory McIlroy lần đầu vô địch The Masters, hoàn tất bộ sưu tập Grand Slam</t>
+          <t>Nam sinh vào chung kết Olympia và giai thoại 'Lam không muốn nghỉ'</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976544/e59096a6f5e81cb645f9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978475/537cd2e18eaf67f13ebe.jpg</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/rory-mcilroy-lan-dau-vo-dich-the-masters-hoan-tat-bo-suu-tap-grand-slam-r51976544.epi</t>
+          <t>https://lite.baomoi.com/nam-sinh-vao-chung-ket-olympia-va-giai-thoai-lam-khong-muon-nghi-r51978475.epi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Phố đi bộ hồ Gươm (Hà Nội): Hàng rong bủa vây, nguy cơ từ thực phẩm kém vệ sinh</t>
+          <t>Morata bị lôi vào đường dây cá độ</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51976103/d49d52bd31f3d8ad81e2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978521/66fff89ea4d04d8e14c1.jpg</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/pho-di-bo-ho-guom-ha-noi-hang-rong-bua-vay-nguy-co-tu-thuc-pham-kem-ve-sinh-r51976103.epi</t>
+          <t>https://lite.baomoi.com/morata-bi-loi-vao-duong-day-ca-do-r51978521.epi</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Sáp nhập Thái Nguyên và Bắc Kạn đặc biệt chú ý đến yếu tố lịch sử, văn hóa</t>
+          <t>Nữ diễn viên 17 tuổi được chú ý</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976081/2fb4acebcfa526fb7fb4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978534/290a226b7e25977bce34.jpg</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sap-nhap-thai-nguyen-va-bac-kan-dac-biet-chu-y-den-yeu-to-lich-su-van-hoa-r51976081.epi</t>
+          <t>https://lite.baomoi.com/nu-dien-vien-17-tuoi-duoc-chu-y-r51978534.epi</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Lại xôn xao suất ăn bán trú lèo tèo ở Đà Nẵng, lãnh đạo quận tức tốc kiểm tra</t>
+          <t>Video Ấn Độ thử nghiệm vũ khí laser bắn hạ UAV trên không</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976152/c61eaa3dc973202d7962.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lai-xon-xao-suat-an-ban-tru-leo-teo-o-da-nang-lanh-dao-quan-tuc-toc-kiem-tra-r51976152.epi</t>
+          <t>https://lite.baomoi.com/video-an-do-thu-nghiem-vu-khi-laser-ban-ha-uav-tren-khong-r51978421.epi</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bé trai 3 tuổi nôn ra giun, đến khi phẫu thuật bác sĩ càng bất ngờ</t>
+          <t>Phê duyệt Đề án sắp xếp, tổ chức lại đơn vị hành chính các cấp và xây dựng mô hình tổ chức chính quyền địa phương 2 cấp</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51978345/85f4596c0522ec7cb533.jpg</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/be-trai-3-tuoi-non-ra-giun-den-khi-phau-thuat-bac-si-cang-bat-ngo-r51976720.epi</t>
+          <t>https://lite.baomoi.com/phe-duyet-de-an-sap-xep-to-chuc-lai-don-vi-hanh-chinh-cac-cap-va-xay-dung-mo-hinh-to-chuc-chinh-quyen-dia-phuong-2-cap-r51978345.epi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Thanh niên đi cướp 'thản nhiên', từng cướp nhiều tiệm vàng</t>
+          <t>Tỷ giá USD hôm nay 15/4: Giá bán USD bất ngờ tăng mạnh đạt 26.089 đồng/USD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/e9b048137951900fc940.png</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_65_51978458/56eb3c8f60c1899fd0d0.jpg</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thanh-nien-di-cuop-than-nhien-tung-cuop-nhieu-tiem-vang-r51976087.epi</t>
+          <t>https://lite.baomoi.com/ty-gia-usd-hom-nay-15-4-gia-ban-usd-bat-ngo-tang-manh-dat-26-089-dong-usd-r51978458.epi</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Khán giả Bắc Ninh 'đội mưa' đến 3 giờ sáng xem Ngọc Sơn biểu diễn</t>
+          <t>Một số cổ phiếu cần quan tâm ngày 15/4</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51976126/82b5b295d1db388561ca.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khan-gia-bac-ninh-doi-mua-den-3-gio-sang-xem-ngoc-son-bieu-dien-r51976126.epi</t>
+          <t>https://lite.baomoi.com/mot-so-co-phieu-can-quan-tam-ngay-15-4-r51978447.epi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Giám đốc, Phó giám đốc bảo hiểm xã hội huyện ở Hưng Yên và 6 người bị khởi tố</t>
+          <t>Nhiều điểm mới trong kỳ thi tuyển sinh vào lớp 10 năm học 2025-2026</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975807/abfd4daf2ee1c7bf9ef0.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/giam-doc-pho-giam-doc-bao-hiem-xa-hoi-huyen-o-hung-yen-va-6-nguoi-bi-khoi-to-r51975807.epi</t>
+          <t>https://lite.baomoi.com/nhieu-diem-moi-trong-ky-thi-tuyen-sinh-vao-lop-10-nam-hoc-2025-2026-r51978876.epi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BLACKPINK trở lại, phát hành album mới vào tháng 6</t>
+          <t>Người trẻ tìm tình yêu qua... AI:Lợi hay hại?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_181_51976967/e69e149477da9e84c7cb.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/blackpink-tro-lai-phat-hanh-album-moi-vao-thang-6-r51976967.epi</t>
+          <t>https://lite.baomoi.com/nguoi-tre-tim-tinh-yeu-qua-ai-loi-hay-hai-r51978533.epi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Đất nền tăng giá nhanh nhưng thanh khoản kém</t>
+          <t>Xác định thời điểm thủ môn Đình Triệu trở lại thi đấu</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976427/1a5b9f68fc2615784c37.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_181_51978518/7501ca60962e7f70263f.jpg</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dat-nen-tang-gia-nhanh-nhung-thanh-khoan-kem-r51976427.epi</t>
+          <t>https://lite.baomoi.com/xac-dinh-thoi-diem-thu-mon-dinh-trieu-tro-lai-thi-dau-r51978518.epi</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TP HCM sẽ nhập 3 Sở và đổi tên 1 Sở</t>
+          <t>BTV Thu Hà bức xúc vì chồng bị uống sữa giả khi vừa mổ não</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975089/184a823fe171082f5160.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978242/8d882a5d76139f4dc602.jpg</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-se-nhap-3-so-va-doi-ten-1-so-r51975089.epi</t>
+          <t>https://lite.baomoi.com/btv-thu-ha-buc-xuc-vi-chong-bi-uong-sua-gia-khi-vua-mo-nao-r51978242.epi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Người đàn ông ở Thái Bình nguy kịch sau bữa ăn lòng lợn</t>
+          <t>Bộ Chính trị hướng dẫn cách chọn nhân sự cấp tỉnh và xã khi sáp nhập</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975547/95be11f972b79be9c2a6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977866/cf1cd9ea85a46cfa35b5.jpg</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguoi-dan-ong-o-thai-binh-nguy-kich-sau-bua-an-long-lon-r51975547.epi</t>
+          <t>https://lite.baomoi.com/bo-chinh-tri-huong-dan-cach-chon-nhan-su-cap-tinh-va-xa-khi-sap-nhap-r51977866.epi</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Hà Nội siết chặt quản lý 6 khu bảo vệ nguồn lợi thủy sản</t>
+          <t>Trung Quốc kiên định cùng Việt Nam gìn giữ tình hữu nghị, hiện thực hóa mục tiêu '6 hơn'</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976065/a7b17aee19a0f0fea9b1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_35_51978315/68b2ee6db2235b7d0232.jpg</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ha-noi-siet-chat-quan-ly-6-khu-bao-ve-nguon-loi-thuy-san-r51976065.epi</t>
+          <t>https://lite.baomoi.com/trung-quoc-kien-dinh-cung-viet-nam-gin-giu-tinh-huu-nghi-hien-thuc-hoa-muc-tieu-6-hon-r51978315.epi</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tuyển nữ Việt Nam đấu đại diện nước Đức trên sân Hàng Đẫy</t>
+          <t>Đồng tiền đè thanh danh</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975821/c0e9febb9df574ab2de4.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_17_51978736/de2e2443780d9153c81c.jpg</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tuyen-nu-viet-nam-dau-dai-dien-nuoc-duc-tren-san-hang-day-r51975821.epi</t>
+          <t>https://lite.baomoi.com/dong-tien-de-thanh-danh-r51978736.epi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Nhan sắc 'gây thương nhớ' của ái nữ nhà Lý Hải</t>
+          <t>Cơ cấu lại sản xuất nông nghiệp</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976344/8a721d5e7e10974ece01.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_14_51978878/71253f55631b8a45d30a.jpg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhan-sac-gay-thuong-nho-cua-ai-nu-nha-ly-hai-r51976344.epi</t>
+          <t>https://lite.baomoi.com/co-cau-lai-san-xuat-nong-nghiep-r51978878.epi</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Thêm các chủng loại tàu bay được nhập khẩu vào Việt Nam</t>
+          <t>Trưởng thôn trẻ giàu nhiệt huyết</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51975970/f1742a2f4961a03ff970.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_14_51978877/f7e5ba95e6db0f8556ca.jpg</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/them-cac-chung-loai-tau-bay-duoc-nhap-khau-vao-viet-nam-r51975970.epi</t>
+          <t>https://lite.baomoi.com/truong-thon-tre-giau-nhiet-huyet-r51978877.epi</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Hoàng Anh Gia Lai: Lợi nhuận sau thuế tăng 60% nhờ kinh doanh chuối</t>
+          <t>Đài truyền hình Mỹ vừa phỏng vấn Tổng thống Ukraine, ông Trump công kích dữ dội</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976107/06328312e05c0902504d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51976784/d0b8a8bacbf422aa7be5.jpg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hoang-anh-gia-lai-loi-nhuan-sau-thue-tang-60-nho-kinh-doanh-chuoi-r51976107.epi</t>
+          <t>https://lite.baomoi.com/dai-truyen-hinh-my-vua-phong-van-tong-thong-ukraine-ong-trump-cong-kich-du-doi-r51976784.epi</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Tập đoàn Điện lực Việt Nam kiểm tra công tác cấp điện cho Đại lễ 30/4</t>
+          <t>Hạ thân nhiệt ở trẻ sơ sinh: Nguyên nhân, biểu hiện, cách điều trị và phòng bệnh</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976566/cf560a5f6911804fd900.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_94_51978481/aa2a63b63ff8d6a68fe9.jpg</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tap-doan-dien-luc-viet-nam-kiem-tra-cong-tac-cap-dien-cho-dai-le-30-4-r51976566.epi</t>
+          <t>https://lite.baomoi.com/ha-than-nhiet-o-tre-so-sinh-nguyen-nhan-bieu-hien-cach-dieu-tri-va-phong-benh-r51978481.epi</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>70 vùng trong diện cảnh báo cháy rừng nguy hiểm</t>
+          <t>Chế độ ăn cho người mắc hội chứng Catatonia</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976473/5e25dd1abe54570a0e45.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_94_51978422/7b7668ef34a1ddff84b0.jpg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/70-vung-trong-dien-canh-bao-chay-rung-nguy-hiem-r51976473.epi</t>
+          <t>https://lite.baomoi.com/che-do-an-cho-nguoi-mac-hoi-chung-catatonia-r51978422.epi</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cuộc viễn chinh Ai Cập: Canh bạc bẽ bàng của Napoleon ở phương Đông - Kỳ cuối</t>
+          <t>Giá vàng hôm nay 15/4 cập nhật mới nhất</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_324_51978438/295646ce1a80f3deaa91.jpg</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuoc-vien-chinh-ai-cap-canh-bac-be-bang-cua-napoleon-o-phuong-dong-ky-cuoi-r51976769.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-cap-nhat-moi-nhat-r51978438.epi</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Quảng bá hình ảnh Việt Nam tươi đẹp, rực rỡ sắc màu nhân Hội nghị thượng đỉnh P4G lần thứ tư</t>
+          <t>Đức muốn 'bắn mũi tên thần', Nga phản ứng gắt</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51977311/5e386d2f0e61e73fbe70.jpg</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-ba-hinh-anh-viet-nam-tuoi-dep-ruc-ro-sac-mau-nhan-hoi-nghi-thuong-dinh-p4g-lan-thu-tu-r51976085.epi</t>
+          <t>https://lite.baomoi.com/duc-muon-ban-mui-ten-than-nga-phan-ung-gat-r51977311.epi</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Thủ tướng đề nghị tập đoàn Trung Quốc hỗ trợ phát triển kinh tế hàng không</t>
+          <t>Đạo đức kinh doanh và lỗ hổng quản lý</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_11_51978538/5d69e509b94750190956.jpg</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-de-nghi-tap-doan-trung-quoc-ho-tro-phat-trien-kinh-te-hang-khong-r51976080.epi</t>
+          <t>https://lite.baomoi.com/dao-duc-kinh-doanh-va-lo-hong-quan-ly-r51978538.epi</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Thời tiết đêm 14/4: Nhiều khu vực có mưa dông đề phòng khả năng mưa đá</t>
+          <t>Báu vật HAGL hồi phục thần tốc, sẵn sàng trở lại, HLV Kim Sang-sik tính đường mới cho ĐT Việt Nam</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51976302/21f0e5da86946fca3685.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978371/5228d4ae88e061be38f1.jpg</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thoi-tiet-dem-14-4-nhieu-khu-vuc-co-mua-dong-de-phong-kha-nang-mua-da-r51976302.epi</t>
+          <t>https://lite.baomoi.com/bau-vat-hagl-hoi-phuc-than-toc-san-sang-tro-lai-hlv-kim-sang-sik-tinh-duong-moi-cho-dt-viet-nam-r51978371.epi</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Thủ tướng: Ưu tiên dành cơ sở vật chất dôi dư cho y tế, giáo dục, văn hóa</t>
+          <t>Xem ngay lịch âm dương hôm nay 15/4</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_114_51975920/77be15e876a69ff8c6b7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_324_51978418/16e33e7a62348b6ad225.jpg</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-uu-tien-danh-co-so-vat-chat-doi-du-cho-y-te-giao-duc-van-hoa-r51975920.epi</t>
+          <t>https://lite.baomoi.com/xem-ngay-lich-am-duong-hom-nay-15-4-r51978418.epi</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cháy lớn xưởng inox ở TP.HCM</t>
+          <t>Ngày mai, TP.HCM, Bình Dương, Bà Rịa - Vũng Tàu sẽ bàn việc ghép ranh giới hành chính</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975859/f4607765142bfd75a43a.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chay-lon-xuong-inox-o-tp-hcm-r51975859.epi</t>
+          <t>https://lite.baomoi.com/ngay-mai-tp-hcm-binh-duong-ba-ria-vung-tau-se-ban-viec-ghep-ranh-gioi-hanh-chinh-r51977019.epi</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Doanh nghiệp có thể sẽ được đơn giản hóa thêm 55,1% thủ tục hải quan</t>
+          <t>Đại hội đảng bộ các tỉnh, xã sau sáp nhập sẽ không làm công tác nhân sự</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976002/edd66f8c0cc2e59cbcd3.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/doanh-nghiep-co-the-se-duoc-don-gian-hoa-them-55-1-thu-tuc-hai-quan-r51976002.epi</t>
+          <t>https://lite.baomoi.com/dai-hoi-dang-bo-cac-tinh-xa-sau-sap-nhap-se-khong-lam-cong-tac-nhan-su-r51977512.epi</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pháo binh Nga lột xác khiến Ukraine chao đảo</t>
+          <t>Hy vọng mới cho ngành cà phê Cuba</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975147/52610e166d588406dd49.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phao-binh-nga-lot-xac-khien-ukraine-chao-dao-r51975147.epi</t>
+          <t>https://lite.baomoi.com/hy-vong-moi-cho-nganh-ca-phe-cuba-r51978543.epi</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Đất nền vùng ven Hà Nội: Giá rao bán tăng mạnh nhưng giao dịch 'nhỏ giọt'</t>
+          <t>Cần xử lý nghiêm những người nổi tiếng quảng cáo sữa sai sự thật</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_309_51976190/26779243f10d1853411c.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dat-nen-vung-ven-ha-noi-gia-rao-ban-tang-manh-nhung-giao-dich-nho-giot-r51976190.epi</t>
+          <t>https://lite.baomoi.com/can-xu-ly-nghiem-nhung-nguoi-noi-tieng-quang-cao-sua-sai-su-that-r51974236.epi</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Trung tướng Hà Thọ Bình kiểm tra huấn luyện chiến sĩ mới</t>
+          <t>CLIP: Đụng độ đàn chó nhà, sói đồng cỏ bị kẻ thù lao tới cắn xé</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51976129/d3c4f2e491aa78f421bb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978396/bcb4b726eb6802365b79.jpg</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/trung-tuong-ha-tho-binh-kiem-tra-huan-luyen-chien-si-moi-r51976129.epi</t>
+          <t>https://lite.baomoi.com/clip-dung-do-dan-cho-nha-soi-dong-co-bi-ke-thu-lao-toi-can-xe-r51978396.epi</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cổ phiếu giảm mạnh vì thuế quan, PNJ muốn mua 8 triệu cổ phiếu quỹ</t>
+          <t>Có thể áp dụng mức hình phạt đến tù chung thân?</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51976032/86001a5d7913904dc902.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_15_204_51978463/9b00e29abed4578a0ec5.jpg</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-phieu-giam-manh-vi-thue-quan-pnj-muon-mua-8-trieu-co-phieu-quy-r51976032.epi</t>
+          <t>https://lite.baomoi.com/co-the-ap-dung-muc-hinh-phat-den-tu-chung-than-r51978463.epi</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Bí thư Tỉnh ủy Cà Mau khen cấp huyện 'tâm tư nhưng làm tốt xóa nhà tạm'</t>
+          <t>Chuẩn bị sẵn sàng vận hành bộ máy chính quyền địa phương hai cấp từ 1/7</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976136/5a296014035aea04b34b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51977053/0e493b45580bb155e81a.jpg</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bi-thu-tinh-uy-ca-mau-khen-cap-huyen-tam-tu-nhung-lam-tot-xoa-nha-tam-r51976136.epi</t>
+          <t>https://lite.baomoi.com/chuan-bi-san-sang-van-hanh-bo-may-chinh-quyen-dia-phuong-hai-cap-tu-1-7-r51977053.epi</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Trước mắt vẫn giữ nguyên cơ chế trả lương cán bộ, công chức</t>
+          <t>Kỳ thi đánh giá năng lực Đại học Quốc gia Thành phố Hồ Chí Minh: cao nhất 1.060 điểm, thấp nhất 40 điểm</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_3_51976219/a42d8e08ed4604185d57.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_601_51978556/94b45cd70099e9c7b088.jpg</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/truoc-mat-van-giu-nguyen-co-che-tra-luong-can-bo-cong-chuc-r51976219.epi</t>
+          <t>https://lite.baomoi.com/ky-thi-danh-gia-nang-luc-dai-hoc-quoc-gia-thanh-pho-ho-chi-minh-cao-nhat-1-060-diem-thap-nhat-40-diem-r51978556.epi</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Sân khấu gây 'sốt' của ca nương Kiều Anh với màn 'lạy cô' đông nhất từ trước đến nay</t>
+          <t>Cần Thơ còn 32 đơn vị hành chính cấp xã sau khi sắp xếp</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51976225/cab2509633d8da8683c9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977517/767e759d29d3c08d99c2.jpg</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/san-khau-gay-sot-cua-ca-nuong-kieu-anh-voi-man-lay-co-dong-nhat-tu-truoc-den-nay-r51976225.epi</t>
+          <t>https://lite.baomoi.com/can-tho-con-32-don-vi-hanh-chinh-cap-xa-sau-khi-sap-xep-r51977517.epi</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Hai thành viên nhóm Facebook 'Vỡ nợ thích làm liều' lãnh 28 năm tù</t>
+          <t>Ông Nguyễn Văn Được: 'Chắc chắn có một lượng cán bộ khó khăn, tâm tư khi sắp xếp'</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51975222/a64f5e343d7ad4248d6b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976808/47958280e1ce089051df.jpg</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hai-thanh-vien-nhom-facebook-vo-no-thich-lam-lieu-lanh-28-nam-tu-r51975222.epi</t>
+          <t>https://lite.baomoi.com/ong-nguyen-van-duoc-chac-chan-co-mot-luong-can-bo-kho-khan-tam-tu-khi-sap-xep-r51976808.epi</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Lắt léo vòng 18 V-League</t>
+          <t>Nga xác nhận tấn công Sumy, nhưng cung cấp thông tin hoàn toàn khác</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975743/b156a207c14928177158.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51976894/2e44e94d8a03635d3a12.jpg</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lat-leo-vong-18-v-league-r51975743.epi</t>
+          <t>https://lite.baomoi.com/nga-xac-nhan-tan-cong-sumy-nhung-cung-cap-thong-tin-hoan-toan-khac-r51976894.epi</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IAEA và Iran nối lại đối thoại hạt nhân</t>
+          <t>3 Bí thư Tỉnh ủy nói về phương án sáp nhập Phú Thọ, Vĩnh Phúc và Hòa Bình</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_294_51976141/90042e274d69a437fd78.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977459/f3ea470a1b44f21aab55.jpg</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/iaea-va-iran-noi-lai-doi-thoai-hat-nhan-r51976141.epi</t>
+          <t>https://lite.baomoi.com/3-bi-thu-tinh-uy-noi-ve-phuong-an-sap-nhap-phu-tho-vinh-phuc-va-hoa-binh-r51977459.epi</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Dự World Cup, U17 Indonesia nhận thêm chỉ tiêu</t>
+          <t>CLIP: Hung hăng lao ra hù dọa voi đang chở người, hổ nhận cái kết khó tin</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978369/fc03db8187cf6e9137de.jpg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/du-world-cup-u17-indonesia-nhan-them-chi-tieu-r51976108.epi</t>
+          <t>https://lite.baomoi.com/clip-hung-hang-lao-ra-hu-doa-voi-dang-cho-nguoi-ho-nhan-cai-ket-kho-tin-r51978369.epi</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Người dân Campuchia đón Tết cổ truyền dân tộc</t>
+          <t>Học giả Trung Quốc nêu bật ý nghĩa bài viết của Tổng Bí thư Tô Lâm</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51978213/d9a405775939b067e928.jpg</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nguoi-dan-campuchia-don-tet-co-truyen-dan-toc-r51976138.epi</t>
+          <t>https://lite.baomoi.com/hoc-gia-trung-quoc-neu-bat-y-nghia-bai-viet-cua-tong-bi-thu-to-lam-r51978213.epi</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Việt Nam cần quan tâm nghiên cứu, đào tạo về công nghệ lượng tử</t>
+          <t>Trung Quốc luôn coi Việt Nam là ưu tiên trong chính sách ngoại giao</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_595_51978125/86c9830ddf43361d6f52.jpg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/viet-nam-can-quan-tam-nghien-cuu-dao-tao-ve-cong-nghe-luong-tu-r51976615.epi</t>
+          <t>https://lite.baomoi.com/trung-quoc-luon-coi-viet-nam-la-uu-tien-trong-chinh-sach-ngoai-giao-r51978125.epi</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TP Hồ Chí Minh: Thêm 23 phường, xã được công bố hết dịch sởi</t>
+          <t>Vụ người đàn ông mất tích: Tìm thấy thi thể đang phân hủy</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51977595/3e7cb099ecd705895cc6.jpg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-ho-chi-minh-them-23-phuong-xa-duoc-cong-bo-het-dich-soi-r51976059.epi</t>
+          <t>https://lite.baomoi.com/vu-nguoi-dan-ong-mat-tich-tim-thay-thi-the-dang-phan-huy-r51977595.epi</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Mua mạnh 'cổ phiếu quốc dân', khối ngoại vẫn bán ròng 304 tỷ đồng trong phiên 14/4</t>
+          <t>Xe sedan hạng C, công suất 197 mã lực, nội thất 'trên cơ' Honda Civic, Toyota Corolla Altis, giá chỉ hơn 410 triệu đồng</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978397/413b44a918e7f1b9a8f6.jpg</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mua-manh-co-phieu-quoc-dan-khoi-ngoai-van-ban-rong-304-ty-dong-trong-phien-14-4-r51975900.epi</t>
+          <t>https://lite.baomoi.com/xe-sedan-hang-c-cong-suat-197-ma-luc-noi-that-tren-co-honda-civic-toyota-corolla-altis-gia-chi-hon-410-trieu-dong-r51978397.epi</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Thanh niên Việt Nam - Trung Quốc chia sẻ kinh nghiệm tại Diễn đàn hữu nghị</t>
+          <t>Bellingham và đồng đội Real xô xát trước trận đại chiến Arsenal</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51977958/adfe4903154dfc13a55c.jpg</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thanh-nien-viet-nam-trung-quoc-chia-se-kinh-nghiem-tai-dien-dan-huu-nghi-r51975759.epi</t>
+          <t>https://lite.baomoi.com/bellingham-va-dong-doi-real-xo-xat-truoc-tran-dai-chien-arsenal-r51977958.epi</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sóc Trăng - Vĩnh Long sáp nhập báo và đài</t>
+          <t>Giá vàng hôm nay 15/4/2025: vàng giảm nhẹ nhưng xu hướng tăng giá còn tiếp tục</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975747/cce0c7b1a4ff4da114ee.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978723/0b77571d0b53e20dbb42.jpg</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/soc-trang-vinh-long-sap-nhap-bao-va-dai-r51975747.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-2025-vang-giam-nhe-nhung-xu-huong-tang-gia-con-tiep-tuc-r51978723.epi</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Chuyển hồ sơ 2 cơ sở thẩm mỹ vi phạm sang cơ quan công an</t>
+          <t>Infographic: Dự kiến tên gọi 34 tỉnh, thành phố và trung tâm chính trị - hành chính sau sáp nhập</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_17_51976290/8554f17f92317b6f2220.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chuyen-ho-so-2-co-so-tham-my-vi-pham-sang-co-quan-cong-an-r51976290.epi</t>
+          <t>https://lite.baomoi.com/infographic-du-kien-ten-goi-34-tinh-thanh-pho-va-trung-tam-chinh-tri-hanh-chinh-sau-sap-nhap-r51978328.epi</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Thủ tướng tiếp theo của Đức 'dội gáo nước lạnh' vào Ukraine về vấn đề này</t>
+          <t>CLIP: 'Cười đau bụng' trước cảnh khỉ đầu chó bị rắn dọa tới mức bất tỉnh</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51974461/9b80a0a3c3ed2ab373fc.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thu-tuong-tiep-theo-cua-duc-doi-gao-nuoc-lanh-vao-ukraine-ve-van-de-nay-r51974461.epi</t>
+          <t>https://lite.baomoi.com/clip-cuoi-dau-bung-truoc-canh-khi-dau-cho-bi-ran-doa-toi-muc-bat-tinh-r51978367.epi</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ca sĩ Khắc Việt gây tranh cãi với cách dạy con nghiêm khắc khi vợ vắng nhà</t>
+          <t>Lãnh đạo Việt Nam gửi thư chúc mừng năm mới Lào và Campuchia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_251_51976392/84624153221dcb43920c.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ca-si-khac-viet-gay-tranh-cai-voi-cach-day-con-nghiem-khac-khi-vo-vang-nha-r51976392.epi</t>
+          <t>https://lite.baomoi.com/lanh-dao-viet-nam-gui-thu-chuc-mung-nam-moi-lao-va-campuchia-r51978287.epi</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Động thái giảm lãi suất từ các ngân hàng nước ngoài</t>
+          <t>Trung tâm tài chính quốc tế đưa Việt Nam hội nhập toàn cầu</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_59_51976145/8c0f212c4262ab3cf273.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_59_51978336/f3808523d96d3033697c.jpg</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dong-thai-giam-lai-suat-tu-cac-ngan-hang-nuoc-ngoai-r51976145.epi</t>
+          <t>https://lite.baomoi.com/trung-tam-tai-chinh-quoc-te-dua-viet-nam-hoi-nhap-toan-cau-r51978336.epi</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Quận 1 dự kiến còn 4 phường là Tân Định, Sài Gòn, Bến Thành, Cầu Ông Lãnh</t>
+          <t>Tỉnh Quảng Ninh đề xuất giảm 2/3 đơn vị hành chính cấp xã</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975801/5ad448872bc9c2979bd8.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977283/762b24374779ae27f768.jpg</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quan-1-du-kien-con-4-phuong-la-tan-dinh-sai-gon-ben-thanh-cau-ong-lanh-r51975801.epi</t>
+          <t>https://lite.baomoi.com/tinh-quang-ninh-de-xuat-giam-2-3-don-vi-hanh-chinh-cap-xa-r51977283.epi</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Các khối cờ vượt nắng gió, tập luyện cho ngày đại lễ</t>
+          <t>Bộ Công Thương nói không cấp phép, không quản lý chất lượng gần 600 loại sữa giả</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51976191/4308d22db163583d0172.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977504/781904e958a7b1f9e8b6.jpg</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cac-khoi-co-vuot-nang-gio-tap-luyen-cho-ngay-dai-le-r51976191.epi</t>
+          <t>https://lite.baomoi.com/bo-cong-thuong-noi-khong-cap-phep-khong-quan-ly-chat-luong-gan-600-loai-sua-gia-r51977504.epi</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Bắt nhanh kẻ cướp xe ôm táo tợn đang trên đường bỏ trốn sang Campuchia</t>
+          <t>2 trường hợp văn bản quy phạm pháp luật thuộc đối tượng xử lý từ ngày 1/4/2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975841/d85c8809eb4702195b56.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978464/c3cbb951e51f0c41550e.jpg</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bat-nhanh-ke-cuop-xe-om-tao-ton-dang-tren-duong-bo-tron-sang-campuchia-r51975841.epi</t>
+          <t>https://lite.baomoi.com/2-truong-hop-van-ban-quy-pham-phap-luat-thuoc-doi-tuong-xu-ly-tu-ngay-1-4-2025-r51978464.epi</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Cổ phiếu liên tục tăng trần, Vingroup đạt vốn hóa lớn thứ 2 thị trường</t>
+          <t>Thúc đẩy phát triển công nghiệp văn hóa</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51976036/b53af66795297c772538.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978541/85aacdca918478da2195.jpg</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-phieu-lien-tuc-tang-tran-vingroup-dat-von-hoa-lon-thu-2-thi-truong-r51976036.epi</t>
+          <t>https://lite.baomoi.com/thuc-day-phat-trien-cong-nghiep-van-hoa-r51978541.epi</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3 bệnh viện trung ương sẵn sàng trực lễ 30/4, có đội cấp cứu VIP</t>
+          <t>Hoàng Tử Thao mất gần 500.000 người theo dõi</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975659/33a30bf668b881e6d8a9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978323/6c0ff5d0a99e40c0198f.jpg</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/3-benh-vien-trung-uong-san-sang-truc-le-30-4-co-doi-cap-cuu-vip-r51975659.epi</t>
+          <t>https://lite.baomoi.com/hoang-tu-thao-mat-gan-500-000-nguoi-theo-doi-r51978323.epi</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Bảo quản, tu bổ Di tích lịch sử quốc gia đặc biệt Đôi bờ Hiền Lương - Bến Hải</t>
+          <t>Động thái của Vân Hugo, Doãn Quốc Đam vụ quảng cáo sữa</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51976119/d52ab30ad044391a6055.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977988/2ca23c5e6010894ed001.jpg</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bao-quan-tu-bo-di-tich-lich-su-quoc-gia-dac-biet-doi-bo-hien-luong-ben-hai-r51976119.epi</t>
+          <t>https://lite.baomoi.com/dong-thai-cua-van-hugo-doan-quoc-dam-vu-quang-cao-sua-r51977988.epi</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Cổng chào và nhiều cây đổ sập trong cơn mưa dông ở Đắk Nông</t>
+          <t>Á hậu Hoàng Oanh 'rực lửa', chứng minh '30 không phải là giới hạn'</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51976215/d7ea88cfeb8102df5b90.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978370/fe06c1849dca74942ddb.jpg</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cong-chao-va-nhieu-cay-do-sap-trong-con-mua-dong-o-dak-nong-r51976215.epi</t>
+          <t>https://lite.baomoi.com/a-hau-hoang-oanh-ruc-lua-chung-minh-30-khong-phai-la-gioi-han-r51978370.epi</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Trung Quốc chứng kiến làn sóng giao dịch vàng bùng nổ</t>
+          <t>Xe tay ga Yamaha 155cc, trang bị hiện đại, giá gần 92 triệu đồng, so kè cùng Honda SH</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975977/496c013762798b27d268.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978373/3f56a7d0fb9e12c04b8f.jpg</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/trung-quoc-chung-kien-lan-song-giao-dich-vang-bung-no-r51975977.epi</t>
+          <t>https://lite.baomoi.com/xe-tay-ga-yamaha-155cc-trang-bi-hien-dai-gia-gan-92-trieu-dong-so-ke-cung-honda-sh-r51978373.epi</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cách giải độc và làm sạch phổi tự nhiên</t>
+          <t>Khi nghệ thuật từ AI đặt ra câu hỏi về đạo đức và bản sắc</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51976453/35e6fad4999a70c4298b.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_338_51978329/98ab950ac944201a7955.jpg</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cach-giai-doc-va-lam-sach-phoi-tu-nhien-r51976453.epi</t>
+          <t>https://lite.baomoi.com/khi-nghe-thuat-tu-ai-dat-ra-cau-hoi-ve-dao-duc-va-ban-sac-r51978329.epi</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Chân Tử Đan đạo diễn ngoại truyện 'John Wick'</t>
+          <t>Người đẹp gốc Việt và Chris Brown làm lành?</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978324/011a8abfd6f13faf66e0.jpg</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chan-tu-dan-dao-dien-ngoai-truyen-john-wick-r51976647.epi</t>
+          <t>https://lite.baomoi.com/nguoi-dep-goc-viet-va-chris-brown-lam-lanh-r51978324.epi</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ca sĩ Chi Pu: Sẵn sàng làm cầu nối gắn kết tình hữu nghị Việt Nam-Trung Quốc</t>
+          <t>Trường Đại học Vinh: Rơi lan can làm 3 học sinh bị thương</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_16_51978085/7ba01e62422cab72f23d.jpg</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ca-si-chi-pu-san-sang-lam-cau-noi-gan-ket-tinh-huu-nghi-viet-nam-trung-quoc-r51974413.epi</t>
+          <t>https://lite.baomoi.com/truong-dai-hoc-vinh-roi-lan-can-lam-3-hoc-sinh-bi-thuong-r51978085.epi</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Đề xuất thu phí 5 tuyến đường cao tốc do Nhà nước đầu tư trong 7 năm</t>
+          <t>Hoa hậu H'Hen Niê: 'Cuộc sống hôn nhân của tôi màu hồng'</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51978078/0b250bf557bbbee5e7aa.jpg</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/de-xuat-thu-phi-5-tuyen-duong-cao-toc-do-nha-nuoc-dau-tu-trong-7-nam-r51976289.epi</t>
+          <t>https://lite.baomoi.com/hoa-hau-h-hen-nie-cuoc-song-hon-nhan-cua-toi-mau-hong-r51978078.epi</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Cảnh báo tiềm ẩn nguy cơ đột quỵ khi sử dụng thuốc tránh thai</t>
+          <t>Amanda Nguyễn - Người phụ nữ gốc Việt đầu tiên bay vào không gian</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51976395/2ff9dac8b98650d80997.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51977674/1e37a1d8fd9614c84d87.jpg</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/canh-bao-tiem-an-nguy-co-dot-quy-khi-su-dung-thuoc-tranh-thai-r51976395.epi</t>
+          <t>https://lite.baomoi.com/amanda-nguyen-nguoi-phu-nu-goc-viet-dau-tien-bay-vao-khong-gian-r51977674.epi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MSB chuyển địa điểm hoạt động 2 phòng giao dịch</t>
+          <t>CLIP: Người đàn ông tay không khống chế rắn hổ mang chúa dài 3 mét</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976082/9722077d64338d6dd422.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978364/216b28d674989dc6c489.jpg</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/msb-chuyen-dia-diem-hoat-dong-2-phong-giao-dich-r51976082.epi</t>
+          <t>https://lite.baomoi.com/clip-nguoi-dan-ong-tay-khong-khong-che-ran-ho-mang-chua-dai-3-met-r51978364.epi</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Nhiều mã tăng kịch trần, VN-Index vượt mốc 1.240 điểm</t>
+          <t>Quy hoạch cấu trúc đô thị Hà Nội với sông Hồng là trục xanh</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51975903/2ae8f6be95f07cae25e1.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhieu-ma-tang-kich-tran-vn-index-vuot-moc-1-240-diem-r51975903.epi</t>
+          <t>https://lite.baomoi.com/quy-hoach-cau-truc-do-thi-ha-noi-voi-song-hong-la-truc-xanh-r51978480.epi</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Vé concert BABYMONSTER tại TP.HCM ngừng bán để 'dỗ dành' fan, sẽ đổi sơ đồ?</t>
+          <t>TP HCM dự kiến sẽ có phường Sài Gòn ở trung tâm</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_105_51976211/59a4fc819fcf76912fde.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ve-concert-babymonster-tai-tp-hcm-ngung-ban-de-do-danh-fan-se-doi-so-do-r51976211.epi</t>
+          <t>https://lite.baomoi.com/tp-hcm-du-kien-se-co-phuong-sai-gon-o-trung-tam-r51977805.epi</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5 cách kéo dài tuổi thọ pin xe ô tô điện</t>
+          <t>Hẹn đến quán cà phê giải quyết mâu thuẫn, 3 người bị chém trọng thương</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51973160/c556bde0deae37f06ebf.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/5-cach-keo-dai-tuoi-tho-pin-xe-o-to-dien-r51973160.epi</t>
+          <t>https://lite.baomoi.com/hen-den-quan-ca-phe-giai-quyet-mau-thuan-3-nguoi-bi-chem-trong-thuong-r51977878.epi</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>'Tú ông' điều hành đường dây mại dâm có ca sĩ, người mẫu thu lợi 15 tỷ đồng</t>
+          <t>Xuân Son báo tin cực vui: Sắp tái xuất sân cỏ, HLV Kim Sang-sik thở phào nhẹ nhõm</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51974987/eccae3a480ea69b430fb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978346/3e0355ac09e2e0bcb9f3.jpg</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tu-ong-dieu-hanh-duong-day-mai-dam-co-ca-si-nguoi-mau-thu-loi-15-ty-dong-r51974987.epi</t>
+          <t>https://lite.baomoi.com/xuan-son-bao-tin-cuc-vui-sap-tai-xuat-san-co-hlv-kim-sang-sik-tho-phao-nhe-nhom-r51978346.epi</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Bắt hai đối tượng trộm cắp dây cáp chuyên nghiệp tại Hậu Giang</t>
+          <t>CLIP: Đụng độ báo hoa mai, chó hoang châu Phi trả giá bằng cả tính mạng</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975587/acc021e442aaabf4f2bb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978359/7f5b03e25facb6f2efbd.jpg</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bat-hai-doi-tuong-trom-cap-day-cap-chuyen-nghiep-tai-hau-giang-r51975587.epi</t>
+          <t>https://lite.baomoi.com/clip-dung-do-bao-hoa-mai-cho-hoang-chau-phi-tra-gia-bang-ca-tinh-mang-r51978359.epi</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Tàu vận tải biển sẽ bị đánh thuế khí thải</t>
+          <t>Dính 'bẫy lừa' của 'Thủ lĩnh dự án Sybbex', người phụ nữ mất trắng hơn 2 tỷ đồng</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975972/05a6a5adc6e32fbd76f2.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_106_51978106/53780fbd53f3baade3e2.jpg</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tau-van-tai-bien-se-bi-danh-thue-khi-thai-r51975972.epi</t>
+          <t>https://lite.baomoi.com/dinh-bay-lua-cua-thu-linh-du-an-sybbex-nguoi-phu-nu-mat-trang-hon-2-ty-dong-r51978106.epi</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Lý do nhiều người Mỹ đổ xô tích trữ kem chống nắng Hàn Quốc</t>
+          <t>Việt Nam-Hàn Quốc tận dụng các FTA, sớm đưa thương mại song phương lên 150 tỷ USD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975808/6f6cd53eb6705f2e0661.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51978121/9533a1f7fdb914e74da8.jpg</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ly-do-nhieu-nguoi-my-do-xo-tich-tru-kem-chong-nang-han-quoc-r51975808.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-han-quoc-tan-dung-cac-fta-som-dua-thuong-mai-song-phuong-len-150-ty-usd-r51978121.epi</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Tứ kết lượt về Europa League: MU chịu tổn thất lớn trước trận tái đấu Lyon</t>
+          <t>Chi tiết lịch xem 3D mapping và pháo hoa mừng 30/4 tại TP.HCM</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51972985/5c8569360a78e326ba69.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51978228/6675ada7f1e918b741f8.jpg</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tu-ket-luot-ve-europa-league-mu-chiu-ton-that-lon-truoc-tran-tai-dau-lyon-r51972985.epi</t>
+          <t>https://lite.baomoi.com/chi-tiet-lich-xem-3d-mapping-va-phao-hoa-mung-30-4-tai-tp-hcm-r51978228.epi</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Theo chân những người 'chăm Rồng' tại thành phố Đà Nẵng</t>
+          <t>18 trường đại học Đức tìm kiếm cơ hội hợp tác với các đối tác Việt Nam</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976342/43f3f2ff91b178ef21a0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_338_51978270/2a2bf8ffa4b14def14a0.jpg</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/theo-chan-nhung-nguoi-cham-rong-tai-thanh-pho-da-nang-r51976342.epi</t>
+          <t>https://lite.baomoi.com/18-truong-dai-hoc-duc-tim-kiem-co-hoi-hop-tac-voi-cac-doi-tac-viet-nam-r51978270.epi</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Quảng Ngãi: Trộm thẻ ATM, dò trúng mật khẩu rút 57 triệu đồng</t>
+          <t>Thủ tướng: Sớm trình Bộ Chính trị đề án phát triển kinh tế tư nhân</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51975655/e43e4073233dca63932c.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51978266/380902dc5e92b7ccee83.jpg</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quang-ngai-trom-the-atm-do-trung-mat-khau-rut-57-trieu-dong-r51975655.epi</t>
+          <t>https://lite.baomoi.com/thu-tuong-som-trinh-bo-chinh-tri-de-an-phat-trien-kinh-te-tu-nhan-r51978266.epi</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Nhật Bản tuyên bố không nhượng bộ lớn trong đàm phán với Mỹ</t>
+          <t>Hà Nội công nhận điểm du lịch Thụy Lâm</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_595_51975950/32beb5e6d6a83ff666b9.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51978142/3bd4bd12e15c0802514d.jpg</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhat-ban-tuyen-bo-khong-nhuong-bo-lon-trong-dam-phan-voi-my-r51975950.epi</t>
+          <t>https://lite.baomoi.com/ha-noi-cong-nhan-diem-du-lich-thuy-lam-r51978142.epi</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Nữ y tá Nhật Bản để lại thư xúc động sau khi ra mắt nhà bạn trai ở Thái Bình</t>
+          <t>Nữ sinh Hà Nội giỏi lịch sử, là phiên dịch viên 3 ngôn ngữ</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978416/bc4aded3829d6bc3328c.jpg</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nu-y-ta-nhat-ban-de-lai-thu-xuc-dong-sau-khi-ra-mat-nha-ban-trai-o-thai-binh-r51974216.epi</t>
+          <t>https://lite.baomoi.com/nu-sinh-ha-noi-gioi-lich-su-la-phien-dich-vien-3-ngon-ngu-r51978416.epi</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Chứng khoán toàn cầu đồng loạt tăng điểm sau quyết định của ông Trump</t>
+          <t>Việt Nam sở hữu nhiều 'át chủ bài' trong một thế giới biến động</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51978151/2ad02c1870569908c047.jpg</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chung-khoan-toan-cau-dong-loat-tang-diem-sau-quyet-dinh-cua-ong-trump-r51975949.epi</t>
+          <t>https://lite.baomoi.com/viet-nam-so-huu-nhieu-at-chu-bai-trong-mot-the-gioi-bien-dong-r51978151.epi</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mất 100 tỷ đồng khi bạn gái dọn nhà, vứt ví Bitcoin vào thùng rác</t>
+          <t>Tìm bị hại của nhóm thanh niên ném vỏ chai thủy tinh vào người đi đường</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51978201/6c51749f28d1c18f98c0.jpg</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mat-100-ty-dong-khi-ban-gai-don-nha-vut-vi-bitcoin-vao-thung-rac-r51976293.epi</t>
+          <t>https://lite.baomoi.com/tim-bi-hai-cua-nhom-thanh-nien-nem-vo-chai-thuy-tinh-vao-nguoi-di-duong-r51978201.epi</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Đấu giá mỏ đá gabro Núi Đen ở Bình Thuận và quặng vàng ở Quảng Nam</t>
+          <t>Sỹ quan Nga ví phi đội F-16 của Ukraine như 'giọt nước giữa đại dương'</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51976883/ce68326e5120b87ee131.jpg</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dau-gia-mo-da-gabro-nui-den-o-binh-thuan-va-quang-vang-o-quang-nam-r51975000.epi</t>
+          <t>https://lite.baomoi.com/sy-quan-nga-vi-phi-doi-f-16-cua-ukraine-nhu-giot-nuoc-giua-dai-duong-r51976883.epi</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Thông tin đoàn đàm phán Chính phủ về các vấn đề thương mại với Hoa Kỳ</t>
+          <t>CLIP: Bị 'tử thần vùng đầm lầy' giữ chân, linh dương con nỗ lực hết sức giành sự sống</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51974906/780d3c625f2cb672ef3d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978350/c1ad5f1f0351ea0fb340.jpg</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thong-tin-doan-dam-phan-chinh-phu-ve-cac-van-de-thuong-mai-voi-hoa-ky-r51974906.epi</t>
+          <t>https://lite.baomoi.com/clip-bi-tu-than-vung-dam-lay-giu-chan-linh-duong-con-no-luc-het-suc-gianh-su-song-r51978350.epi</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Hậu trường ghi hình Hoa hậu Việt Nam 2024</t>
+          <t>Giá vàng hôm nay 15/4/2025: Giá vàng 'ngủ Đông' chờ ngày tiếp tục bùng nổ, nỗi sợ hãi và hỗn loạn sẽ củng cố mức giá nào?</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975845/233058653b2bd2758b3a.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51977765/cde9883cd4723d2c6463.jpg</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hau-truong-ghi-hinh-hoa-hau-viet-nam-2024-r51975845.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-2025-gia-vang-ngu-dong-cho-ngay-tiep-tuc-bung-no-noi-so-hai-va-hon-loan-se-cung-co-muc-gia-nao-r51977765.epi</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Gạo Việt vẫn là trụ cột cung ứng cho thị trường Philippines</t>
+          <t>Long An: TP Tân An dự kiến còn 3 đơn vị hành chính</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_237_51975771/4acf499f2ad1c38f9ac0.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51978045/5e1a7dda2194c8ca9185.jpg</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/gao-viet-van-la-tru-cot-cung-ung-cho-thi-truong-philippines-r51975771.epi</t>
+          <t>https://lite.baomoi.com/long-an-tp-tan-an-du-kien-con-3-don-vi-hanh-chinh-r51978045.epi</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Khan hiếm vật liệu xây dựng, nhiều dự án ở Thanh Hóa chậm tiến độ</t>
+          <t>Ukraine sẵn sàng chi 15 tỷ USD mua 10 hệ thống phòng không Patriot từ Mỹ</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975813/e0df45d4269acfc4968b.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khan-hiem-vat-lieu-xay-dung-nhieu-du-an-o-thanh-hoa-cham-tien-do-r51975813.epi</t>
+          <t>https://lite.baomoi.com/ukraine-san-sang-chi-15-ty-usd-mua-10-he-thong-phong-khong-patriot-tu-my-r51977529.epi</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Bộ Tư pháp bổ nhiệm nhiều lãnh đạo cấp Vụ</t>
+          <t>Dùng dao khống chế, cướp tài sản của xe ôm</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976148/267bc34ca002495c1013.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bo-tu-phap-bo-nhiem-nhieu-lanh-dao-cap-vu-r51976148.epi</t>
+          <t>https://lite.baomoi.com/dung-dao-khong-che-cuop-tai-san-cua-xe-om-r51978094.epi</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Tiểu sử Bộ trưởng Ngoại giao Hàn Quốc Cho Tae-yul</t>
+          <t>Ô tô khách va chạm với xe máy khiến 2 người tử vong</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51976142/b6d817fb74b59debc4a4.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tieu-su-bo-truong-ngoai-giao-han-quoc-cho-tae-yul-r51976142.epi</t>
+          <t>https://lite.baomoi.com/o-to-khach-va-cham-voi-xe-may-khien-2-nguoi-tu-vong-r51978007.epi</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Lào Cai ban hành tiêu chí đánh giá cán bộ để tinh giản</t>
+          <t>Ký ức cựu binh chiến dịch Hồ Chí Minh: 'Chúng tôi luôn cảm thấy may mắn khi được trở về...'</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975800/749b1cc87f8696d8cf97.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51978046/1752299275dc9c82c5cd.jpg</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/lao-cai-ban-hanh-tieu-chi-danh-gia-can-bo-de-tinh-gian-r51975800.epi</t>
+          <t>https://lite.baomoi.com/ky-uc-cuu-binh-chien-dich-ho-chi-minh-chung-toi-luon-cam-thay-may-man-khi-duoc-tro-ve-r51978046.epi</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Hà Nội: Công bố đồ án quy hoạch công trình cầu Ngọc Hồi</t>
+          <t>Khởi tố đối tượng giấu súng, đạn trong chuồng lợn</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_56_51976652/44640b6668288176d839.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_258_51978016/c21031ee6da084feddb1.jpg</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ha-noi-cong-bo-do-an-quy-hoach-cong-trinh-cau-ngoc-hoi-r51976652.epi</t>
+          <t>https://lite.baomoi.com/khoi-to-doi-tuong-giau-sung-dan-trong-chuong-lon-r51978016.epi</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Cú sốc thuế quan với quốc gia 'chưa ai từng nghe đến'</t>
+          <t>TP.HCM tập trung số hóa hồ sơ trước khi kết thúc hoạt động của cấp huyện</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51976316/f571e55b86156f4b3604.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51978073/10872e44720a9b54c21b.jpg</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cu-soc-thue-quan-voi-quoc-gia-chua-ai-tung-nghe-den-r51976316.epi</t>
+          <t>https://lite.baomoi.com/tp-hcm-tap-trung-so-hoa-ho-so-truoc-khi-ket-thuc-hoat-dong-cua-cap-huyen-r51978073.epi</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ưu tiên, sớm bố trí kinh phí đảm bảo chính sách chăm sóc người có công với cách mạng</t>
+          <t>Thái Lan ban hành sắc lệnh khẩn cấp chống lừa đảo qua điện thoại</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975613/b17d4e422d0cc4529d1d.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_207_51978062/657e0fbd53f3baade3e2.jpg</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/uu-tien-som-bo-tri-kinh-phi-dam-bao-chinh-sach-cham-soc-nguoi-co-cong-voi-cach-mang-r51975613.epi</t>
+          <t>https://lite.baomoi.com/thai-lan-ban-hanh-sac-lenh-khan-cap-chong-lua-dao-qua-dien-thoai-r51978062.epi</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Nhiều khách sạn ở Quảng Bình bị mạo danh lừa đảo chuyển tiền cọc</t>
+          <t>Bắt giữ 3 phương tiện vận chuyển hàng trăm bình khí cười</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975497/0454970ff4411d1f4450.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51978160/33cb37006b4e8210db5f.jpg</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhieu-khach-san-o-quang-binh-bi-mao-danh-lua-dao-chuyen-tien-coc-r51975497.epi</t>
+          <t>https://lite.baomoi.com/bat-giu-3-phuong-tien-van-chuyen-hang-tram-binh-khi-cuoi-r51978160.epi</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Đà Nẵng không yêu cầu doanh nghiệp thay đổi địa chỉ do thay đổi địa giới hành chính</t>
+          <t>Modric mua CLB ở Anh</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_309_51975910/10ba9fecfca215fc4cb3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976786/570a37085446bd18e457.jpg</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/da-nang-khong-yeu-cau-doanh-nghiep-thay-doi-dia-chi-do-thay-doi-dia-gioi-hanh-chinh-r51975910.epi</t>
+          <t>https://lite.baomoi.com/modric-mua-clb-o-anh-r51976786.epi</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Hòa Phát thành lập 3 công ty để thực hiện dự án tỷ đô tại Phú Yên</t>
+          <t>Tạm giam lãnh đạo Bảo hiểm xã hội huyện Yên Mỹ (Hưng Yên)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51975642/d2dac490a7de4e8017cf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51978199/353e14f048bea1e0f8af.jpg</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hoa-phat-thanh-lap-3-cong-ty-de-thuc-hien-du-an-ty-do-tai-phu-yen-r51975642.epi</t>
+          <t>https://lite.baomoi.com/tam-giam-lanh-dao-bao-hiem-xa-hoi-huyen-yen-my-hung-yen-r51978199.epi</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Quận 5 lấy ý kiến người dân tên các phường mới là An Đông, Chợ Lớn, Chợ Quán</t>
+          <t>CLIP: Bị rắn tấn công bất ngờ khi đang đi trong sân, người phụ nữ la hét hoảng sợ</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975552/60d65f913cdfd5818cce.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978347/0f5371fc2db2c4ec9da3.jpg</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/quan-5-lay-y-kien-nguoi-dan-ten-cac-phuong-moi-la-an-dong-cho-lon-cho-quan-r51975552.epi</t>
+          <t>https://lite.baomoi.com/clip-bi-ran-tan-cong-bat-ngo-khi-dang-di-trong-san-nguoi-phu-nu-la-het-hoang-so-r51978347.epi</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Việt Nam là ưu tiên trong chính sách ngoại giao láng giềng của Trung Quốc</t>
+          <t>SUV cùng phân khúc với Toyota Fortuner, công suất 238 mã lực, trang bị tối tân, giá ngang Mitsubishi Xforce</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976088/50a2bafcd9b230ec69a3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978360/63f6164f4a01a35ffa10.jpg</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/viet-nam-la-uu-tien-trong-chinh-sach-ngoai-giao-lang-gieng-cua-trung-quoc-r51976088.epi</t>
+          <t>https://lite.baomoi.com/suv-cung-phan-khuc-voi-toyota-fortuner-cong-suat-238-ma-luc-trang-bi-toi-tan-gia-ngang-mitsubishi-xforce-r51978360.epi</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Chung tay cùng Giáo hội Phật giáo Việt Nam hỗ trợ nhân dân Myanmar, Thái Lan khắc phục hậu quả động đất</t>
+          <t>Nam sinh Huế giao nộp chim đuôi cụt bụng đỏ quý hiếm cho kiểm lâm</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51975912/6e97b5c8d6863fd86697.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977551/1568558b09c5e09bb9d4.jpg</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/chung-tay-cung-giao-hoi-phat-giao-viet-nam-ho-tro-nhan-dan-myanmar-thai-lan-khac-phuc-hau-qua-dong-dat-r51975912.epi</t>
+          <t>https://lite.baomoi.com/nam-sinh-hue-giao-nop-chim-duoi-cut-bung-do-quy-hiem-cho-kiem-lam-r51977551.epi</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Doanh nghiệp dệt may lên phương án ứng phó với những biến động thế giới</t>
+          <t>Cảnh sát giao thông kịp thời hỗ trợ đưa cháu bé có dấu hiệu ngưng thở đi bệnh viện</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977973/c3f4dd34817a6824316b.jpg</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/doanh-nghiep-det-may-len-phuong-an-ung-pho-voi-nhung-bien-dong-the-gioi-r51975838.epi</t>
+          <t>https://lite.baomoi.com/canh-sat-giao-thong-kip-thoi-ho-tro-dua-chau-be-co-dau-hieu-ngung-tho-di-benh-vien-r51977973.epi</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Giám đốc Sở Công Thương kiêm chức Chi cục trưởng Chi cục Quản lý thị trường TP Hải Phòng</t>
+          <t>3 con giáp Trời thương, 7 ngày tới thuận lợi trăm bề</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51977115/1b9978971bd9f287abc8.jpg</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/giam-doc-so-cong-thuong-kiem-chuc-chi-cuc-truong-chi-cuc-quan-ly-thi-truong-tp-hai-phong-r51975291.epi</t>
+          <t>https://lite.baomoi.com/3-con-giap-troi-thuong-7-ngay-toi-thuan-loi-tram-be-r51977115.epi</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Ukraine công bố video 'UAV mẹ' cùng bầy UAV con tập kích mục tiêu Nga ở vùng Kursk</t>
+          <t>Xử lý 78 thanh thiếu niên vi phạm giao thông khi tụ tập 'sống ảo' tại điểm săn mây</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51975824/0d6fc43aa7744e2a1765.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977879/a9753f8c63c28a9cd3d3.jpg</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ukraine-cong-bo-video-uav-me-cung-bay-uav-con-tap-kich-muc-tieu-nga-o-vung-kursk-r51975824.epi</t>
+          <t>https://lite.baomoi.com/xu-ly-78-thanh-thieu-nien-vi-pham-giao-thong-khi-tu-tap-song-ao-tai-diem-san-may-r51977879.epi</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cô gái 26 tuổi mua được 3 căn nhà nhờ tiết kiệm</t>
+          <t>CLIP: Cá sấu liều lĩnh tấn công voi và nhận cái kết 'đắng chát'</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975608/c36ef9269a6873362a79.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978337/adae020c5e42b71cee53.jpg</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/co-gai-26-tuoi-mua-duoc-3-can-nha-nho-tiet-kiem-r51975608.epi</t>
+          <t>https://lite.baomoi.com/clip-ca-sau-lieu-linh-tan-cong-voi-va-nhan-cai-ket-dang-chat-r51978337.epi</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Trình Quốc hội dự thảo Luật Thanh tra trước 15/4</t>
+          <t>Trúc Anh theo phong cách gợi cảm</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_35_51976471/899a99a8fae613b84af7.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/trinh-quoc-hoi-du-thao-luat-thanh-tra-truoc-15-4-r51976471.epi</t>
+          <t>https://lite.baomoi.com/truc-anh-theo-phong-cach-goi-cam-r51978134.epi</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Tổng thống Indonesia kết thúc chuyến thăm Qatar với cam kết 2 tỷ USD đầu tư</t>
+          <t>Liên minh châu Âu theo dõi chặt chẽ đàm phán hạt nhân Mỹ-Iran</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975612/c6e509e86aa683f8dab7.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tong-thong-indonesia-ket-thuc-chuyen-tham-qatar-voi-cam-ket-2-ty-usd-dau-tu-r51975612.epi</t>
+          <t>https://lite.baomoi.com/lien-minh-chau-au-theo-doi-chat-che-dam-phan-hat-nhan-my-iran-r51978004.epi</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Tháo dỡ chợ Rồng nổi tiếng bậc nhất cố đô Hoa Lư</t>
+          <t>Trầm cảm kéo dài không được phát hiện, nữ sinh 19 tuổi nảy sinh ý định tiêu cực</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975748/12cc1f9d7cd3958dccc2.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/thao-do-cho-rong-noi-tieng-bac-nhat-co-do-hoa-lu-r51975748.epi</t>
+          <t>https://lite.baomoi.com/tram-cam-keo-dai-khong-duoc-phat-hien-nu-sinh-19-tuoi-nay-sinh-y-dinh-tieu-cuc-r51977995.epi</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Hà Giang dự kiến từ 193 giảm còn 74 đơn vị hành chính cấp xã</t>
+          <t>Ngắm đàn cò bay lượn 'phủ kín' bầu trời Phong Nha - Kẻ Bàng</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975102/28277652151cfc42a50d.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ha-giang-du-kien-tu-193-giam-con-74-don-vi-hanh-chinh-cap-xa-r51975102.epi</t>
+          <t>https://lite.baomoi.com/ngam-dan-co-bay-luon-phu-kin-bau-troi-phong-nha-ke-bang-r51978185.epi</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>39 nội dung trọng tâm được thông qua tại Hội nghị Ban Chấp hành Đảng bộ UBND TP.HCM lần 2 (mở rộng)</t>
+          <t>Kế hoạch thực hiện sắp xếp, sáp nhập đơn vị hành chính cấp tỉnh, cấp xã và tổ chức hệ thống chính quyền địa phương 2 cấp</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_237_51975772/210725574619af47f608.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51977977/cf63d59e89d0608e39c1.jpg</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/39-noi-dung-trong-tam-duoc-thong-qua-tai-hoi-nghi-ban-chap-hanh-dang-bo-ubnd-tp-hcm-lan-2-mo-rong-r51975772.epi</t>
+          <t>https://lite.baomoi.com/ke-hoach-thuc-hien-sap-xep-sap-nhap-don-vi-hanh-chinh-cap-tinh-cap-xa-va-to-chuc-he-thong-chinh-quyen-dia-phuong-2-cap-r51977977.epi</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cao tốc Bến Lức - Long Thành sắp thông xe cuối tuần này</t>
+          <t>Văn Thanh công khai bạn gái</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51975766/579d06cd65838cddd592.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976775/552e68220b6ce232bb7d.jpg</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cao-toc-ben-luc-long-thanh-sap-thong-xe-cuoi-tuan-nay-r51975766.epi</t>
+          <t>https://lite.baomoi.com/van-thanh-cong-khai-ban-gai-r51976775.epi</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Con trai của Ronaldo sẽ chọn tuyển Tây Ban Nha thay vì Mỹ, Bồ Đào Nha?</t>
+          <t>Tước giấy phép tài xế xe tải cố tình vượt đường ngang khi gác chắn tàu đã đóng</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975286/1272890fea41031f5a50.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977735/6e26ecd6b09859c60089.jpg</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/con-trai-cua-ronaldo-se-chon-tuyen-tay-ban-nha-thay-vi-my-bo-dao-nha-r51975286.epi</t>
+          <t>https://lite.baomoi.com/tuoc-giay-phep-tai-xe-xe-tai-co-tinh-vuot-duong-ngang-khi-gac-chan-tau-da-dong-r51977735.epi</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sản lượng thép thô của Hòa Phát tăng trưởng 25% trong quý 1/2025</t>
+          <t>Tại sao vàng lại đắt như vậy? Bí mật đằng sau giá trị trường tồn của kim loại quý</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_595_51975963/4522757a1634ff6aa625.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978357/cd8d4c34107af924a06b.jpg</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/san-luong-thep-tho-cua-hoa-phat-tang-truong-25-trong-quy-1-2025-r51975963.epi</t>
+          <t>https://lite.baomoi.com/tai-sao-vang-lai-dat-nhu-vay-bi-mat-dang-sau-gia-tri-truong-ton-cua-kim-loai-quy-r51978357.epi</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TP.HCM bố trí thêm hơn 1.000 chỗ ngồi để xem lễ diễu binh, diễu hành</t>
+          <t>Đề xuất thu phí 5 tuyến cao tốc do nhà nước đầu tư</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51975551/21f932be51f0b8aee1e1.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977476/f9fe80e1e3af0af153be.jpg</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-bo-tri-them-hon-1-000-cho-ngoi-de-xem-le-dieu-binh-dieu-hanh-r51975551.epi</t>
+          <t>https://lite.baomoi.com/de-xuat-thu-phi-5-tuyen-cao-toc-do-nha-nuoc-dau-tu-r51977476.epi</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Những thay đổi quan trọng trong chế độ hưu trí từ 1/7/2025</t>
+          <t>Lời khai của người phụ nữ dùng dao chém chồng lúc nửa đêm</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51975664/10df339250dcb982e0cd.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976640/971b9c21ff6f16314f7e.jpg</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhung-thay-doi-quan-trong-trong-che-do-huu-tri-tu-1-7-2025-r51975664.epi</t>
+          <t>https://lite.baomoi.com/loi-khai-cua-nguoi-phu-nu-dung-dao-chem-chong-luc-nua-dem-r51976640.epi</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Dân mạng sửng sốt vì lịch tháng 4/1975 trùng với lịch tháng 4/2025</t>
+          <t>Trước sức ép thuế quan, Nvidia công bố kế hoạch sản xuất trị giá 500 tỷ USD tại Mỹ</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51975600/dbfcbfb4dcfa35a46ceb.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977922/f80ac3f19fbf76e12fae.jpg</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dan-mang-sung-sot-vi-lich-thang-4-1975-trung-voi-lich-thang-4-2025-r51975600.epi</t>
+          <t>https://lite.baomoi.com/truoc-suc-ep-thue-quan-nvidia-cong-bo-ke-hoach-san-xuat-tri-gia-500-ty-usd-tai-my-r51977922.epi</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Đà Nẵng: Phẫu thuật thành công ca bệnh lý phổi biệt lập hiếm gặp</t>
+          <t>Katy Perry và phi hành đoàn toàn nữ bay vào không gian</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51976253/59b7519132dfdb8182ce.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977544/51dd5e2e0260eb3eb271.jpg</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/da-nang-phau-thuat-thanh-cong-ca-benh-ly-phoi-biet-lap-hiem-gap-r51976253.epi</t>
+          <t>https://lite.baomoi.com/katy-perry-va-phi-hanh-doan-toan-nu-bay-vao-khong-gian-r51977544.epi</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Đồng bào Khmer đón Tết Chôl Chnăm Thmây trong niềm vui và hạnh phúc</t>
+          <t>Bộ Quốc phòng xây dựng Thông tư liên quan tiêu chuẩn, quy chuẩn kỹ thuật đối với tàu bay không người lái</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51978135/05c8310f6d41841fdd50.jpg</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/dong-bao-khmer-don-tet-chol-chnam-thmay-trong-niem-vui-va-hanh-phuc-r51975780.epi</t>
+          <t>https://lite.baomoi.com/bo-quoc-phong-xay-dung-thong-tu-lien-quan-tieu-chuan-quy-chuan-ky-thuat-doi-voi-tau-bay-khong-nguoi-lai-r51978135.epi</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Bắc Kạn: Đảm bảo không chậm tiến độ giải phóng mặt bằng tuyến Chợ Mới - Bắc Kạn</t>
+          <t>Hải Phòng, Hải Dương sắp xếp cho cán bộ làm việc sau sáp nhập</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977373/92d0fcc99f8776d92f96.jpg</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bac-kan-dam-bao-khong-cham-tien-do-giai-phong-mat-bang-tuyen-cho-moi-bac-kan-r51975917.epi</t>
+          <t>https://lite.baomoi.com/hai-phong-hai-duong-sap-xep-cho-can-bo-lam-viec-sau-sap-nhap-r51977373.epi</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Đề xuất thành lập tòa án khu vực, tòa chuyên trách phá sản và sở hữu trí trí tuệ</t>
+          <t>Mưa dông mạnh bất thường ở Đắk Nông</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977691/499f00715c3fb561ec2e.jpg</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/de-xuat-thanh-lap-toa-an-khu-vuc-toa-chuyen-trach-pha-san-va-so-huu-tri-tri-tue-r51975478.epi</t>
+          <t>https://lite.baomoi.com/mua-dong-manh-bat-thuong-o-dak-nong-r51977691.epi</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Bảng giá xe Yamaha YZF-R15 mới nhất tháng 4/2025</t>
+          <t>Bổ nhiệm lãnh đạo Chi cục Quản lý thị trường Hải Phòng</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51975793/423fee6c8d22647c3d33.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51978068/d0808a43d60d3f53661c.jpg</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/bang-gia-xe-yamaha-yzf-r15-moi-nhat-thang-4-2025-r51975793.epi</t>
+          <t>https://lite.baomoi.com/bo-nhiem-lanh-dao-chi-cuc-quan-ly-thi-truong-hai-phong-r51978068.epi</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Khủng hoảng dạy toán tại Australia</t>
+          <t>TP Hồ Chí Minh: Xử lý phòng khám thẩm mỹ quảng cáo trái phép, thu tiền dịch vụ giá cao</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975395/15c456e035aedcf085bf.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_294_51977680/19d1833edf70362e6f61.jpg</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khung-hoang-day-toan-tai-australia-r51975395.epi</t>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-xu-ly-phong-kham-tham-my-quang-cao-trai-phep-thu-tien-dich-vu-gia-cao-r51977680.epi</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Hai người mất tích do mưa lớn ở miền Bắc</t>
+          <t>Trái Đất bao nhiêu tuổi? Và loài người sẽ tồn tại được bao lâu nữa?</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51975558/18119b57f81911474808.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hai-nguoi-mat-tich-do-mua-lon-o-mien-bac-r51975558.epi</t>
+          <t>https://lite.baomoi.com/trai-dat-bao-nhieu-tuoi-va-loai-nguoi-se-ton-tai-duoc-bao-lau-nua-r51978303.epi</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Sữa giả và những hiểm họa khôn lường với sức khỏe cộng đồng</t>
+          <t>Nhật Bản khẳng định không có kế hoạch 'nhượng bộ' khi đàm phán thuế với Mỹ</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51976424/3f3ee404874a6e14375b.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/sua-gia-va-nhung-hiem-hoa-khon-luong-voi-suc-khoe-cong-dong-r51976424.epi</t>
+          <t>https://lite.baomoi.com/nhat-ban-khang-dinh-khong-co-ke-hoach-nhuong-bo-khi-dam-phan-thue-voi-my-r51977584.epi</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Vesak 2025: Loạt hoạt động trong ngày hội lớn nhất của Phật giáo tại núi Bà Đen</t>
+          <t>Giá vàng dự báo đạt 4.000 USD/ounce trong một năm tới</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975959/f9f434af57e1bebfe7f0.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/vesak-2025-loat-hoat-dong-trong-ngay-hoi-lon-nhat-cua-phat-giao-tai-nui-ba-den-r51975959.epi</t>
+          <t>https://lite.baomoi.com/gia-vang-du-bao-dat-4-000-usd-ounce-trong-mot-nam-toi-r51977617.epi</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Ba vấn đề nóng mà Tổng thống Trump phải quyết định trong vài tháng tới</t>
+          <t>Xử lý vụ 'đòi phí' chụp ảnh cây gạo ở Hà Nam</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975717/a1795d373e79d7278e68.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ba-van-de-nong-ma-tong-thong-trump-phai-quyet-dinh-trong-vai-thang-toi-r51975717.epi</t>
+          <t>https://lite.baomoi.com/xu-ly-vu-doi-phi-chup-anh-cay-gao-o-ha-nam-r51977461.epi</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Tươi thắm sắc màu tình hữu nghị 'vừa là đồng chí, vừa là anh em'</t>
+          <t>Tổng Bí thư Tô Lâm và Tổng Bí thư Tập Cận Bình xem 45 văn kiện hợp tác</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51975919/dbce47f924b7cde994a6.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977630/12fc651a3954d00a8945.jpg</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tuoi-tham-sac-mau-tinh-huu-nghi-vua-la-dong-chi-vua-la-anh-em-r51975919.epi</t>
+          <t>https://lite.baomoi.com/tong-bi-thu-to-lam-va-tong-bi-thu-tap-can-binh-xem-45-van-kien-hop-tac-r51977630.epi</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Cựu Chủ tịch FLC Trịnh Văn Quyết khắc phục thêm 100 tỷ đồng</t>
+          <t>Sáp nhập Bắc Giang và Bắc Ninh: Hình thành 'siêu tỉnh công nghiệp'</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51975946/735fee078d4964173d58.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_35_51978320/6b822d5e7110984ec101.jpg</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/cuu-chu-tich-flc-trinh-van-quyet-khac-phuc-them-100-ty-dong-r51975946.epi</t>
+          <t>https://lite.baomoi.com/sap-nhap-bac-giang-va-bac-ninh-hinh-thanh-sieu-tinh-cong-nghiep-r51978320.epi</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Tuyên dương cô giáo sáng lập Quỹ học bổng Nhất Tâm</t>
+          <t>Bé trai sơ sinh bị bỏ rơi trên đường ở Hải Dương</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_181_51977031/6ca0baacd9e230bc69f3.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_94_51976548/e02d821be155080b5144.jpg</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tuyen-duong-co-giao-sang-lap-quy-hoc-bong-nhat-tam-r51977031.epi</t>
+          <t>https://lite.baomoi.com/be-trai-so-sinh-bi-bo-roi-tren-duong-o-hai-duong-r51976548.epi</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Miền Bắc có thể còn đón 1-2 đợt không khí lạnh, Hà Nội sắp nắng 37 độ</t>
+          <t>Katy Perry hôn mặt đất sau khi hoàn thành chuyến bay vào không gian</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975307/0132dc4ebf00565e0f11.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977776/52225ad1069fefc1b68e.jpg</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/mien-bac-co-the-con-don-1-2-dot-khong-khi-lanh-ha-noi-sap-nang-37-do-r51975307.epi</t>
+          <t>https://lite.baomoi.com/katy-perry-hon-mat-dat-sau-khi-hoan-thanh-chuyen-bay-vao-khong-gian-r51977776.epi</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Ngôi sao bóng chuyền nữ Việt Nam bị hàng loạt câu lạc bộ Hàn Quốc từ chối là ai?</t>
+          <t>Gã trai dùng thủ đoạn lừa đảo tiền đặt cọc thuê nhà</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51975457/471c1a5e7910904ec901.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_106_51977527/3eacf86ca4224d7c1433.jpg</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/ngoi-sao-bong-chuyen-nu-viet-nam-bi-hang-loat-cau-lac-bo-han-quoc-tu-choi-la-ai-r51975457.epi</t>
+          <t>https://lite.baomoi.com/ga-trai-dung-thu-doan-lua-dao-tien-dat-coc-thue-nha-r51977527.epi</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Khách sạn TP.HCM hết phòng vì sức hút của đại lễ 50 năm mới có một lần</t>
+          <t>Chính sách thuế Mỹ: 'Không biết ngủ dậy đã thay đổi thế nào'</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975262/1503c84cab02425c1b13.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977768/32fe560d0a43e31dba52.jpg</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/khach-san-tp-hcm-het-phong-vi-suc-hut-cua-dai-le-50-nam-moi-co-mot-lan-r51975262.epi</t>
+          <t>https://lite.baomoi.com/chinh-sach-thue-my-khong-biet-ngu-day-da-thay-doi-the-nao-r51977768.epi</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>CLIP: Hổ dữ 'nếm trái đắng' khi cố gắng truy sát khỉ trên cây</t>
+          <t>CSGT Nghệ An dẫn đường khẩn cấp đưa cháu bé nguy kịch đến bệnh viện</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_304_51976629/2d828db8eef607a85ee7.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_94_51977751/3fbc4e4c1202fb5ca213.jpg</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/clip-ho-du-nem-trai-dang-khi-co-gang-truy-sat-khi-tren-cay-r51976629.epi</t>
+          <t>https://lite.baomoi.com/csgt-nghe-an-dan-duong-khan-cap-dua-chau-be-nguy-kich-den-benh-vien-r51977751.epi</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Huyện Vĩnh Hưng: Bán đấu giá 69 lô đất tại Cụm dân cư Trung Trực với nhiều dấu hiệu bất thường</t>
+          <t>Thông xe 5 dự án cao tốc dịp 30/4</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_236_51977978/75bc67413b0fd2518b1e.jpg</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/huyen-vinh-hung-ban-dau-gia-69-lo-dat-tai-cum-dan-cu-trung-truc-voi-nhieu-dau-hieu-bat-thuong-r51975745.epi</t>
+          <t>https://lite.baomoi.com/thong-xe-5-du-an-cao-toc-dip-30-4-r51977978.epi</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Hải Phòng bắn pháo hoa tại 6 điểm mừng 70 năm Giải phóng</t>
+          <t>Thông xe kỹ thuật cao tốc Biên Hòa - Vũng Tàu vào ngày 19 - 4</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977468/c787679804d6ed88b4c7.jpg</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/hai-phong-ban-phao-hoa-tai-6-diem-mung-70-nam-giai-phong-r51975828.epi</t>
+          <t>https://lite.baomoi.com/thong-xe-ky-thuat-cao-toc-bien-hoa-vung-tau-vao-ngay-19-4-r51977468.epi</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>TP.HCM hợp nhất Sở Giao thông công chánh và Sở Xây dựng</t>
+          <t>Một dự án năng lượng tái tạo chuyển tiếp hoàn tất thỏa thuận giá bán điện với EVN</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51977638/0174e19cbdd2548c0dc3.jpg</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/tp-hcm-hop-nhat-so-giao-thong-cong-chanh-va-so-xay-dung-r51974999.epi</t>
+          <t>https://lite.baomoi.com/mot-du-an-nang-luong-tai-tao-chuyen-tiep-hoan-tat-thoa-thuan-gia-ban-dien-voi-evn-r51977638.epi</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Phê chuẩn khởi tố hai đối tượng trộm 6 cây gỗ Sưa</t>
+          <t>Vùng Cảnh sát biển 4 đã khởi tố 2 vụ án vi phạm IUU</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51975549/369f47d82496cdc89487.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977198/56f863eb00a5e9fbb0b4.jpg</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phe-chuan-khoi-to-hai-doi-tuong-trom-6-cay-go-sua-r51975549.epi</t>
+          <t>https://lite.baomoi.com/vung-canh-sat-bien-4-da-khoi-to-2-vu-an-vi-pham-iuu-r51977198.epi</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Phát hiện đường dây buôn lậu linh kiện UAV tại châu Âu liên quan đến Hezbollah</t>
+          <t>Đài Truyền hình Việt Nam và Đài Phát thanh - Truyền hình Trung ương Trung Quốc giới thiệu các dự án truyền thông trọng điểm</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51975976/4154080f6b41821fdb50.jpg</t>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51977904/9013d8eb84a56dfb34b4.jpg</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/phat-hien-duong-day-buon-lau-linh-kien-uav-tai-chau-au-lien-quan-den-hezbollah-r51975976.epi</t>
+          <t>https://lite.baomoi.com/dai-truyen-hinh-viet-nam-va-dai-phat-thanh-truyen-hinh-trung-uong-trung-quoc-gioi-thieu-cac-du-an-truyen-thong-trong-diem-r51977904.epi</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Xét xử 13 bị cáo vụ sai phạm tại Trung tâm đăng kiểm xe cơ giới Đồng Nai</t>
+          <t>Hóa chất Cơ bản Miền Nam (CSV): Tổng mức đầu tư dự kiến cho Nhà máy Hóa chất Nhơn Trạch là 1.828,9 tỷ đồng</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51975354/f5a990e1f3af1af143be.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/xet-xu-13-bi-cao-vu-sai-pham-tai-trung-tam-dang-kiem-xe-co-gioi-dong-nai-r51975354.epi</t>
+          <t>https://lite.baomoi.com/hoa-chat-co-ban-mien-nam-csv-tong-muc-dau-tu-du-kien-cho-nha-may-hoa-chat-nhon-trach-la-1-828-9-ty-dong-r51977632.epi</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Những nghi lễ chính của Tết Chôl Chnăm Thmây</t>
+          <t>Chi tiết chương trình lễ kỷ niệm cấp Quốc gia chào mừng 50 năm Giải phóng miền Nam</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51975302/3d10706d1323fa7da332.jpg</t>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>https://lite.baomoi.com/nhung-nghi-le-chinh-cua-tet-chol-chnam-thmay-r51975302.epi</t>
+          <t>https://lite.baomoi.com/chi-tiet-chuong-trinh-le-ky-niem-cap-quoc-gia-chao-mung-50-nam-giai-phong-mien-nam-r51977730.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Tập đoàn công nghệ hàng đầu Việt Nam CMC bị tấn công ransomware</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tap-doan-cong-nghe-hang-dau-viet-nam-cmc-bi-tan-cong-ransomware-r51977798.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Saudi Arabia lên kế hoạch trả hết nợ cho Syria tại WB, đẩy nhanh quá trình tái thiết</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/saudi-arabia-len-ke-hoach-tra-het-no-cho-syria-tai-wb-day-nhanh-qua-trinh-tai-thiet-r51977683.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hà Nam đẩy mạnh tuyên truyền về sắp xếp bộ máy, phát triển khoa học công nghệ và chuyển đổi số</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-nam-day-manh-tuyen-truyen-ve-sap-xep-bo-may-phat-trien-khoa-hoc-cong-nghe-va-chuyen-doi-so-r51978144.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Hà Nội: Tạm dừng giải quyết thủ tục hành chính liên quan đến các hội</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51977452/f2d8a7c4c48a2dd4749b.jpg</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-tam-dung-giai-quyet-thu-tuc-hanh-chinh-lien-quan-den-cac-hoi-r51977452.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hoạt náo viên nổi nhất TikTok bị chê mặc 'hở hang'</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977778/6d1819e145afacf1f5be.jpg</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoat-nao-vien-noi-nhat-tiktok-bi-che-mac-ho-hang-r51977778.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mở thẻ tín dụng online, nam thanh niên 'bốc hơi' 50 triệu đồng</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51977253/f1a8dbbdb8f351ad08e2.jpg</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mo-the-tin-dung-online-nam-thanh-nien-boc-hoi-50-trieu-dong-r51977253.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Cảnh giác thủ đoạn cầm cố điện thoại kèm hóa đơn giả</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51978279/dd78c4ac98e271bc28f3.jpg</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/canh-giac-thu-doan-cam-co-dien-thoai-kem-hoa-don-gia-r51978279.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Xe tăng M1A2 SEPv3 mạnh nhất do Mỹ sản xuất gầm rú ở Ba Lan</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51977589/642bc6ce9a8073de2a91.jpg</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xe-tang-m1a2-sepv3-manh-nhat-do-my-san-xuat-gam-ru-o-ba-lan-r51977589.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Kết quả kiểm tra sức khỏe Tổng thống Donald Trump 'đạt yêu cầu tuyệt đối'</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51977971/11931e6e4220ab7ef231.jpg</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ket-qua-kiem-tra-suc-khoe-tong-thong-donald-trump-dat-yeu-cau-tuyet-doi-r51977971.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Đại sứ Mai Phan Dũng: Cam kết mạnh mẽ và thông điệp ý nghĩa Việt Nam gửi gắm tại Hội đồng Nhân quyền Liên hợp quốc</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51977692/65e43b0a67448e1ad755.jpg</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-su-mai-phan-dung-cam-ket-manh-me-va-thong-diep-y-nghia-viet-nam-gui-gam-tai-hoi-dong-nhan-quyen-lien-hop-quoc-r51977692.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>'Tổ viral độ': HIEUTHUHAI, HURRYKNG đi ăn đám cưới cũng gây xôn xao mạng xã hội</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_105_51977804/ee176fe233acdaf283bd.jpg</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/to-viral-do-hieuthuhai-hurrykng-di-an-dam-cuoi-cung-gay-xon-xao-mang-xa-hoi-r51977804.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Trưng bày các văn kiện hợp tác giữa hai nước Việt Nam-Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_342_51977675/3f2887c7db8932d76b98.jpg</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-bay-cac-van-kien-hop-tac-giua-hai-nuoc-viet-nam-trung-quoc-r51977675.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Điện Kremlin: Cuộc gặp giữa Tổng thống Nga và đặc phái viên Mỹ là 'hữu ích và hiệu quả'</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977746/19be774e2b00c25e9b11.jpg</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dien-kremlin-cuoc-gap-giua-tong-thong-nga-va-dac-phai-vien-my-la-huu-ich-va-hieu-qua-r51977746.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hà Nội công bố tình huống khẩn cấp sạt lở bờ sông Đuống tại quận Long Biên</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51978574/65c29da6c1e828b671f9.jpg</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-cong-bo-tinh-huong-khan-cap-sat-lo-bo-song-duong-tai-quan-long-bien-r51978574.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BTV Hoàng Linh phản ứng ra sao giữa ồn ào quảng cáo sữa giả?</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976858/e315d912ba5c53020a4d.jpg</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/btv-hoang-linh-phan-ung-ra-sao-giua-on-ao-quang-cao-sua-gia-r51976858.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hoạt náo viên nổi nhất TikTok khoe vẻ gợi cảm trên sân</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977881/d630aec9f2871bd94296.jpg</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoat-nao-vien-noi-nhat-tiktok-khoe-ve-goi-cam-tren-san-r51977881.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Xác nhận mới nhất của Phó Thủ tướng Ukraine về thỏa thuận khoáng sản với Mỹ</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977132/4f8fc39ea0d0498e10c1.jpg</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xac-nhan-moi-nhat-cua-pho-thu-tuong-ukraine-ve-thoa-thuan-khoang-san-voi-my-r51977132.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sẽ sớm hoàn thiện chính sách đất đai cho chính quyền địa phương hai cấp</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/se-som-hoan-thien-chinh-sach-dat-dai-cho-chinh-quyen-dia-phuong-hai-cap-r51977737.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>TPHCM rực rỡ cờ hoa mừng 50 năm thống nhất đất nước</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tphcm-ruc-ro-co-hoa-mung-50-nam-thong-nhat-dat-nuoc-r51977707.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Khai mạc Gặp gỡ hữu nghị thanh niên Việt Nam - Trung Quốc năm 2025</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khai-mac-gap-go-huu-nghi-thanh-nien-viet-nam-trung-quoc-nam-2025-r51977475.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Nga cảnh báo Đức không leo thang xung đột, Ukraine muốn nhận thêm hỗ trợ từ Mỹ</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nga-canh-bao-duc-khong-leo-thang-xung-dot-ukraine-muon-nhan-them-ho-tro-tu-my-r51976947.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Quảng Nam: Khẩn trương điều tra sự việc bạo hành trẻ em tại nhóm trẻ tư thục</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51977240/150d8a18e95600085947.jpg</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quang-nam-khan-truong-dieu-tra-su-viec-bao-hanh-tre-em-tai-nhom-tre-tu-thuc-r51977240.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Bình Thuận có thêm ca tử vong thứ 4 nghi do bệnh dại</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977914/fc0830dd6c9385cddc82.jpg</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/binh-thuan-co-them-ca-tu-vong-thu-4-nghi-do-benh-dai-r51977914.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Thăm Smolensk – 'Quảng Trị' của nước Nga</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977747/452b22db7e9597cbce84.jpg</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tham-smolensk-quang-tri-cua-nuoc-nga-r51977747.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Bộ Công an đánh giá phương án sắp xếp Phân trại tạm giam, kho vật chứng tại Công an tỉnh Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51977888/c7e7f51ea950400e1941.jpg</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-cong-an-danh-gia-phuong-an-sap-xep-phan-trai-tam-giam-kho-vat-chung-tai-cong-an-tinh-thanh-hoa-r51977888.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Hà Nội chi 880 tỷ đồng xây cầu vượt nút giao đường Lê Trọng Tấn với Quốc lộ 6</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977505/75d7fc36a07849261069.jpg</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-chi-880-ty-dong-xay-cau-vuot-nut-giao-duong-le-trong-tan-voi-quoc-lo-6-r51977505.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Thủ tướng đề nghị hãng máy bay Trung Quốc hỗ trợ phát triển đội bay</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_112_51977317/12ce35d95697bfc9e686.jpg</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-de-nghi-hang-may-bay-trung-quoc-ho-tro-phat-trien-doi-bay-r51977317.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Việt Nam-Hàn Quốc thúc đẩy hợp tác năng lượng hạt nhân và công nghệ mới</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51977469/08fb5be438aad1f488bb.jpg</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-han-quoc-thuc-day-hop-tac-nang-luong-hat-nhan-va-cong-nghe-moi-r51977469.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh: Kiểm tra an toàn thực phẩm tại các bếp ăn tập thể và cơ sở dịch vụ ăn uống</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977381/bb5230495307ba59e316.jpg</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-kiem-tra-an-toan-thuc-pham-tai-cac-bep-an-tap-the-va-co-so-dich-vu-an-uong-r51977381.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Xác định 48 đội tuyển tham dự World Cup U17</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_181_51977119/be25d42bb7655e3b0774.jpg</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xac-dinh-48-doi-tuyen-tham-du-world-cup-u17-r51977119.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Thêm một trường học bị phản ánh về suất ăn bán trú 'kém chất lượng', quận đề nghị công an điều tra</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_125_51978249/fd8266573a19d3478a08.jpg</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/them-mot-truong-hoc-bi-phan-anh-ve-suat-an-ban-tru-kem-chat-luong-quan-de-nghi-cong-an-dieu-tra-r51978249.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Quận 11 đề xuất lập 4 phường mới tên Bình Thới, Phú Thọ, Hòa Bình, Minh Phụng</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977154/2b06c116a2584b061249.jpg</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quan-11-de-xuat-lap-4-phuong-moi-ten-binh-thoi-phu-tho-hoa-binh-minh-phung-r51977154.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Tổng thống Trump phát cảnh báo cứng rắn với đài CBS và chương trình '60 Minutes'</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977514/4d3a5bdb0795eecbb784.jpg</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-trump-phat-canh-bao-cung-ran-voi-dai-cbs-va-chuong-trinh-60-minutes-r51977514.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Ngọc Thanh Tâm vượt qua giới hạn bản thân nhờ tham gia 'Chị đẹp'</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_338_51977980/ac9540691c27f579ac36.jpg</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngoc-thanh-tam-vuot-qua-gioi-han-ban-than-nho-tham-gia-chi-dep-r51977980.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Tổng thống Trump sắp áp dụng mức thuế mới với smartphone</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977446/a0d145cd2683cfdd9692.jpg</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-trump-sap-ap-dung-muc-thue-moi-voi-smartphone-r51977446.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Đài TNVN ký thỏa thuận hợp tác với Đài PT-TH Trung ương Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-tnvn-ky-thoa-thuan-hop-tac-voi-dai-pt-th-trung-uong-trung-quoc-r51976603.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Rò rỉ thông tin bất ngờ mẫu Galaxy Z Fold7</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ro-ri-thong-tin-bat-ngo-mau-galaxy-z-fold7-r51977507.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Hoa hậu Ý Nhi 'biến hình' ấn tượng trước thềm cuộc thi Miss World</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoa-hau-y-nhi-bien-hinh-an-tuong-truoc-them-cuoc-thi-miss-world-r51977445.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Nam hành khách gây rối, máy bay quay đầu hạ cánh khẩn</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977477/acf1d7eeb4a05dfe04b1.jpg</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-hanh-khach-gay-roi-may-bay-quay-dau-ha-canh-khan-r51977477.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Đoàn đại biểu Quốc hội Hải Phòng tiếp xúc cử tri quận Lê Chân và huyện Bạch Long Vĩ</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_14_51978882/f52aab5af7141e4a4705.jpg</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/doan-dai-bieu-quoc-hoi-hai-phong-tiep-xuc-cu-tri-quan-le-chan-va-huyen-bach-long-vi-r51978882.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Cô gái chi gần 8,5 triệu đồng mỗi tháng để thuê căn phòng 7m2</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976978/e7f050fa33b4daea83a5.jpg</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-gai-chi-gan-8-5-trieu-dong-moi-thang-de-thue-can-phong-7m2-r51976978.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Giá cà phê hôm nay 15/4: Giá cà phê Robusta và Arabia tăng giảm trái chiều</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977516/6220bfc0e38e0ad0539f.jpg</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-ca-phe-hom-nay-15-4-gia-ca-phe-robusta-va-arabia-tang-giam-trai-chieu-r51977516.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Trung Quốc đình chỉ xuất khẩu nam châm và một số khoáng sản quan trọng sang Mỹ</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_309_51977288/9e8759903aded3808acf.jpg</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-quoc-dinh-chi-xuat-khau-nam-cham-va-mot-so-khoang-san-quan-trong-sang-my-r51977288.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Tưởng khăn quàng bị rơi, khiếp vía nhận ra là 'quái thú nằm vùng'</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976700/b52d9312f05c1902404d.jpg</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tuong-khan-quang-bi-roi-khiep-via-nhan-ra-la-quai-thu-nam-vung-r51976700.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Ban Chỉ đạo phòng, chống tham nhũng, lãng phí, tiêu cực thành phố Đà Nẵng đưa thêm 2 vụ án vào diện theo dõi</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977258/0cddd4c9b7875ed90796.jpg</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ban-chi-dao-phong-chong-tham-nhung-lang-phi-tieu-cuc-thanh-pho-da-nang-dua-them-2-vu-an-vao-dien-theo-doi-r51977258.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Novaland phải mua lại bắt buộc lô trái phiếu 225 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977709/c03eafcff3811adf4390.jpg</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/novaland-phai-mua-lai-bat-buoc-lo-trai-phieu-225-ty-dong-r51977709.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Vụ sữa giả: Luật sư nói gì về trách nhiệm của những người nổi tiếng?</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_65_51976605/3b2c4f292c67c5399c76.jpg</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-sua-gia-luat-su-noi-gi-ve-trach-nhiem-cua-nhung-nguoi-noi-tieng-r51976605.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Phân luồng giao thông để phục vụ công tác lắp đặt lễ đài trên đường Lê Duẩn</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51977754/ee5110a24ceca5b2fcfd.jpg</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phan-luong-giao-thong-de-phuc-vu-cong-tac-lap-dat-le-dai-tren-duong-le-duan-r51977754.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Chủ rạp phim Galaxy lỗ lũy kế gần 1.300 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977488/84317bd0279ecec0978f.jpg</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chu-rap-phim-galaxy-lo-luy-ke-gan-1-300-ty-dong-r51977488.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Hoa hậu Xuân Hạnh xin lỗi</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977364/5ef0fee99da774f92db6.jpg</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoa-hau-xuan-hanh-xin-loi-r51977364.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Metro số 1 sẽ hoạt động từ 4g30 sáng để phục vụ người dân dịp Lễ 30-4</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_114_51976982/2260536a3024d97a8035.jpg</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/metro-so-1-se-hoat-dong-tu-4g30-sang-de-phuc-vu-nguoi-dan-dip-le-30-4-r51976982.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>7 loại thực phẩm gây mất ngủ nên hạn chế</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/7-loai-thuc-pham-gay-mat-ngu-nen-han-che-r51976824.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>SUV lớn hơn Hyundai Santa Fe, công suất 632 mã lực, trang bị 'đỉnh nóc', giá ngang Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/suv-lon-hon-hyundai-santa-fe-cong-suat-632-ma-luc-trang-bi-dinh-noc-gia-ngang-toyota-corolla-cross-r51978215.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Mưa đá kèm lốc xoáy làm tốc mái nhà, gãy đổ hàng chục cây sầu riêng ở Bảo Lộc</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mua-da-kem-loc-xoay-lam-toc-mai-nha-gay-do-hang-chuc-cay-sau-rieng-o-bao-loc-r51976927.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Greenland không phải 'mỏ vàng' như ông Trump kỳ vọng</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/greenland-khong-phai-mo-vang-nhu-ong-trump-ky-vong-r51976912.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Người phất cờ quân giải phóng tại Dinh Độc Lập kể lại khoảnh khắc lịch sử</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-phat-co-quan-giai-phong-tai-dinh-doc-lap-ke-lai-khoanh-khac-lich-su-r51977421.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2 địa phương cấp huyện tại Quảng Bình hoàn thành xây dựng nông thôn mới</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977346/9ec7cd25916b7835217a.jpg</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/2-dia-phuong-cap-huyen-tai-quang-binh-hoan-thanh-xay-dung-nong-thon-moi-r51977346.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Thuế quan của ông Donald Trump làm cho một tỷ phú càng giàu hơn</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976831/307b6d7f0e31e76fbe20.jpg</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thue-quan-cua-ong-donald-trump-lam-cho-mot-ty-phu-cang-giau-hon-r51976831.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Những 'thiên đường du lịch' khi sáp nhập Lâm Đồng, Bình Thuận và Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977216/aebbf9a99ae773b92af6.jpg</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhung-thien-duong-du-lich-khi-sap-nhap-lam-dong-binh-thuan-va-dak-nong-r51977216.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Cổ động viên đòi 'cấm mọi hoạt động bóng đá' với Mbappe</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_181_51976908/a654a95dca13234d7a02.jpg</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-dong-vien-doi-cam-moi-hoat-dong-bong-da-voi-mbappe-r51976908.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Phương án nhân sự cấp ủy cấp tỉnh thuộc diện sáp nhập</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_35_51978314/f7c476192a57c3099a46.jpg</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phuong-an-nhan-su-cap-uy-cap-tinh-thuoc-dien-sap-nhap-r51978314.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Thảm bại 6 bàn không gỡ, U17 Indonesia dừng bước ở tứ kết U17 châu Á 2025</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_65_51978459/be4d47d31b9df2c3ab8c.jpg</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tham-bai-6-ban-khong-go-u17-indonesia-dung-buoc-o-tu-ket-u17-chau-a-2025-r51978459.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Dự báo thời tiết ngày 15/4: Miền Bắc sắp đón nắng gắt, dự báo Hà Nội nóng 40 độ C</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_296_51978409/0f2fcbb697f87ea627e9.jpg</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/du-bao-thoi-tiet-ngay-15-4-mien-bac-sap-don-nang-gat-du-bao-ha-noi-nong-40-do-c-r51978409.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>U17 Hàn Quốc vào bán kết sau trận cầu nghẹt thở</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978593/603e575a0b14e24abb05.jpg</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/u17-han-quoc-vao-ban-ket-sau-tran-cau-nghet-tho-r51978593.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Người may 'niềm tin chiến thắng'</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_294_51975781/7bd5a686c5c82c9675d9.jpg</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-may-niem-tin-chien-thang-r51975781.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Giá vàng hôm nay 15/4: Giá vàng SJC tiếp tục tăng 500.000 đồng/lượng</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_65_51978457/944118db4495adcbf484.jpg</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-gia-vang-sjc-tiep-tuc-tang-500-000-dong-luong-r51978457.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Kết quả bóng đá hôm nay 15/4: Atletico Madrid thổi lửa vào cuộc đua vô địch La Liga</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_65_51978572/226320067c489516cc59.jpg</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ket-qua-bong-da-hom-nay-15-4-atletico-madrid-thoi-lua-vao-cuoc-dua-vo-dich-la-liga-r51978572.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Công an chính thức thông tin vụ ông Đoàn Văn Báu gây tai nạn giao thông</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978423/8bf49d6dc123287d7132.jpg</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cong-an-chinh-thuc-thong-tin-vu-ong-doan-van-bau-gay-tai-nan-giao-thong-r51978423.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Quyền Linh xin lỗi</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51977763/3915eae6b6a85ff606b9.jpg</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quyen-linh-xin-loi-r51977763.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Kết quả bóng đá hôm nay 15/4: U17 Indonesia thảm bại, Hàn Quốc vào bán kết</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978592/46dc49b815f6fca8a5e7.jpg</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ket-qua-bong-da-hom-nay-15-4-u17-indonesia-tham-bai-han-quoc-vao-ban-ket-r51978592.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hà Nội xén vỉa hè, dải phân cách để giảm ùn tắc</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_294_51978494/7c3b94a5c8eb21b578fa.jpg</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-xen-via-he-dai-phan-cach-de-giam-un-tac-r51978494.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Giá vàng hôm nay 15/04: Bất ngờ 'rơi' từ đỉnh?</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-04-bat-ngo-roi-tu-dinh-r51978420.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Thời tiết hôm nay 15/4: Miền Bắc có mưa vài nơi, trưa chiều trời nắng</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thoi-tiet-hom-nay-15-4-mien-bac-co-mua-vai-noi-trua-chieu-troi-nang-r51977450.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Từ việc không yêu cầu nộp giấy tờ đã tích hợp trên VNeID: Cần phân biệt công chứng và chứng thực</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_114_51978479/f929c3b49ffa76a42feb.jpg</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tu-viec-khong-yeu-cau-nop-giay-to-da-tich-hop-tren-vneid-can-phan-biet-cong-chung-va-chung-thuc-r51978479.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>MU chọn cựu thủ môn Arsenal thay Onana</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mu-chon-cuu-thu-mon-arsenal-thay-onana-r51978524.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Vụ án Phúc Sơn: Lái xe của Nguyễn Văn Hậu được giao thêm việc mang valy và túi tiền</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_65_51978542/060852680e26e778be37.jpg</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-an-phuc-son-lai-xe-cua-nguyen-van-hau-duoc-giao-them-viec-mang-valy-va-tui-tien-r51978542.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Mê mẩn với 'vương giả chi hoa' đua nhau khoe sắc giữa Hoàng cung Huế</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_20_51976024/b4ca48972bd9c2879bc8.jpg</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/me-man-voi-vuong-gia-chi-hoa-dua-nhau-khoe-sac-giua-hoang-cung-hue-r51976024.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Nhận định Aston Villa vs PSG: Nhiệm vụ bất khả thi</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhan-dinh-aston-villa-vs-psg-nhiem-vu-bat-kha-thi-r51978594.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Hé lộ hình ảnh có thể là của tàu chiến lớn nhất, hiện đại nhất Triều Tiên</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/he-lo-hinh-anh-co-the-la-cua-tau-chien-lon-nhat-hien-dai-nhat-trieu-tien-r51978525.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Đề xuất thu phí 5 tuyến cao tốc do Nhà nước đầu tư</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/de-xuat-thu-phi-5-tuyen-cao-toc-do-nha-nuoc-dau-tu-r51978537.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Vạch mắt võng là gì, dừng xe trên vạch có bị phạt?</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vach-mat-vong-la-gi-dung-xe-tren-vach-co-bi-phat-r51978560.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Italy sẵn sàng hỗ trợ đàm phán Mỹ-Iran, Tổng thống Trump cảnh báo Tehran</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/italy-san-sang-ho-tro-dam-phan-my-iran-tong-thong-trump-canh-bao-tehran-r51978562.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Việt Nam thanh toán bệnh mắt hột sau hơn 70 năm</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-thanh-toan-benh-mat-hot-sau-hon-70-nam-r51978828.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>EU có thể nối lại nhập khẩu một phần khí đốt của Nga</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/eu-co-the-noi-lai-nhap-khau-mot-phan-khi-dot-cua-nga-r51978563.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Tuyển Việt Nam: Bão chấn thương và thử thách cho HLV Kim Sang Sik</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tuyen-viet-nam-bao-chan-thuong-va-thu-thach-cho-hlv-kim-sang-sik-r51978426.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Đèn đỏ rẽ phải bị phạt bao nhiêu tiền?</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/den-do-re-phai-bi-phat-bao-nhieu-tien-r51978478.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>McTominay và Lukaku thăng hoa</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mctominay-va-lukaku-thang-hoa-r51978606.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Hoa anh đào 'nhuộm hồng' đường phố ở Đức</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_14_465_51970988/30704c882fc6c6989fd7.jpg</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoa-anh-dao-nhuom-hong-duong-pho-o-duc-r51970988.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Clip Hoa hậu H'Hen Niê xúc động rơi nước mắt khi nói về cuộc sống 'rất màu hồng' sau hôn nhân</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-hoa-hau-h-hen-nie-xuc-dong-roi-nuoc-mat-khi-noi-ve-cuoc-song-rat-mau-hong-sau-hon-nhan-r51978531.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Xung đột Nga – Ukraine làm 'hồi sinh' loạt vũ khí lỗi thời</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xung-dot-nga-ukraine-lam-hoi-sinh-loat-vu-khi-loi-thoi-r51978467.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Giá vàng hôm nay 15/4/2025: Thế giới lao dốc, nhẫn và vàng SJC sẽ 'rơi tự do'?</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-2025-the-gioi-lao-doc-nhan-va-vang-sjc-se-roi-tu-do-r51978509.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Cuộc chiến quyền lực Thổ Nhĩ Kỳ - Israel tại 'Syria mới'</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cuoc-chien-quyen-luc-tho-nhi-ky-israel-tai-syria-moi-r51978488.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Mở đường tăng trưởng tín dụng xanh</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mo-duong-tang-truong-tin-dung-xanh-r51978532.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Hôm nay, Thủ tướng Phạm Minh Chính chủ trì lễ đón Thủ tướng Ethiopia</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hom-nay-thu-tuong-pham-minh-chinh-chu-tri-le-don-thu-tuong-ethiopia-r51978448.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Thay đổi bước ngoặt ở FIFA Club World Cup</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thay-doi-buoc-ngoat-o-fifa-club-world-cup-r51978522.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Lấy chồng hơn 14 tuổi, cô gái Quảng Nam tổ chức đám cưới 'lạ lùng' giữa rừng</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978508/6ba0313e6d70842edd61.jpg</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lay-chong-hon-14-tuoi-co-gai-quang-nam-to-chuc-dam-cuoi-la-lung-giua-rung-r51978508.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Thanh long bất ngờ soán ngôi 'vua' trái cây Việt Nam</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_20_51978535/668182e1deaf37f16ebe.jpg</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thanh-long-bat-ngo-soan-ngoi-vua-trai-cay-viet-nam-r51978535.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Cận cảnh đường 750 tỷ ở Hà Nội thông xe sau 2 lần trễ hẹn</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_04_15_23_51978433/32ce9756cb1822467b09.jpg</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/can-canh-duong-750-ty-o-ha-noi-thong-xe-sau-2-lan-tre-hen-r51978433.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Đàm phán ngừng bắn vẫn bế tắc, phái đoàn Hamas rời Cairo</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_65_51978544/d90a8e6cd2223b7c6233.jpg</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dam-phan-ngung-ban-van-be-tac-phai-doan-hamas-roi-cairo-r51978544.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Phát huy hiệu quả mô hình cơ quan công an 3 cấp-Bài 3: Chỉ đạo sâu sát, thông suốt từ Bộ đến xã</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_16_51978554/c129304a6c04855adc15.jpg</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phat-huy-hieu-qua-mo-hinh-co-quan-cong-an-3-cap-bai-3-chi-dao-sau-sat-thong-suot-tu-bo-den-xa-r51978554.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Giá xăng hôm nay 15/4: Tăng bật dữ dội?</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_180_51978559/e447ec24b06a5934007b.jpg</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-xang-hom-nay-15-4-tang-bat-du-doi-r51978559.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Bộ Chính trị hướng dẫn cách chọn nhân sự cấp tỉnh và xã khi sáp nhập</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977866/cf1cd9ea85a46cfa35b5.jpg</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-chinh-tri-huong-dan-cach-chon-nhan-su-cap-tinh-va-xa-khi-sap-nhap-r51977866.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Sự thật về 'nước thần' chanh, mía, sả, gừng, muối biển</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978450/bcd39348cf0626587f17.jpg</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/su-that-ve-nuoc-than-chanh-mia-sa-gung-muoi-bien-r51978450.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Hơn 400 người thiệt mạng do xung đột tại Darfur, Sudan</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_65_51978561/9babeddbb19558cb0184.jpg</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hon-400-nguoi-thiet-mang-do-xung-dot-tai-darfur-sudan-r51978561.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Ngỡ thất lạc, tập thơ quay về với Trần Đăng Khoa sau gần 60 năm</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978555/8e1f437c1f32f66caf23.jpg</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngo-that-lac-tap-tho-quay-ve-voi-tran-dang-khoa-sau-gan-60-nam-r51978555.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Xác định 2 cặp đấu bán kết U17 châu Á 2025</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978591/cbac5dc3018de8d3b19c.jpg</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xac-dinh-2-cap-dau-ban-ket-u17-chau-a-2025-r51978591.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Phó chủ tịch chạy đua với thời gian ở 'siêu' phường Hà Nội, nơi trẻ sinh ra trong năm đủ 1 trường</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978425/c65b2dc3718d98d3c19c.jpg</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/pho-chu-tich-chay-dua-voi-thoi-gian-o-sieu-phuong-ha-noi-noi-tre-sinh-ra-trong-nam-du-1-truong-r51978425.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Nam sinh vào chung kết Olympia và giai thoại 'Lam không muốn nghỉ'</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-sinh-vao-chung-ket-olympia-va-giai-thoai-lam-khong-muon-nghi-r51978475.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>'Người đàn ông nhanh nhất châu Á' muốn nghỉ hưu ở tuổi 35</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-dan-ong-nhanh-nhat-chau-a-muon-nghi-huu-o-tuoi-35-r51978608.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Morata bị lôi vào đường dây cá độ</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/morata-bi-loi-vao-duong-day-ca-do-r51978521.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Nữ diễn viên 17 tuổi được chú ý</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978534/290a226b7e25977bce34.jpg</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nu-dien-vien-17-tuoi-duoc-chu-y-r51978534.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Video Ấn Độ thử nghiệm vũ khí laser bắn hạ UAV trên không</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/video-an-do-thu-nghiem-vu-khi-laser-ban-ha-uav-tren-khong-r51978421.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Xử lý nghiêm hành vi vi phạm an toàn thực phẩm</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_17_51978558/6275a016fc5815064c49.jpg</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xu-ly-nghiem-hanh-vi-vi-pham-an-toan-thuc-pham-r51978558.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Phê duyệt Đề án sắp xếp, tổ chức lại đơn vị hành chính các cấp và xây dựng mô hình tổ chức chính quyền địa phương 2 cấp</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51978345/85f4596c0522ec7cb533.jpg</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phe-duyet-de-an-sap-xep-to-chuc-lai-don-vi-hanh-chinh-cac-cap-va-xay-dung-mo-hinh-to-chuc-chinh-quyen-dia-phuong-2-cap-r51978345.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Tỷ giá USD hôm nay 15/4: Giá bán USD bất ngờ tăng mạnh đạt 26.089 đồng/USD</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_65_51978458/56eb3c8f60c1899fd0d0.jpg</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ty-gia-usd-hom-nay-15-4-gia-ban-usd-bat-ngo-tang-manh-dat-26-089-dong-usd-r51978458.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Một số cổ phiếu cần quan tâm ngày 15/4</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_65_51978447/119976eb2aa5c3fb9ab4.jpg</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mot-so-co-phieu-can-quan-tam-ngay-15-4-r51978447.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Người trẻ tìm tình yêu qua... AI:Lợi hay hại?</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_20_51978533/0739355869168048d907.jpg</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-tre-tim-tinh-yeu-qua-ai-loi-hay-hai-r51978533.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Xác định thời điểm thủ môn Đình Triệu trở lại thi đấu</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_181_51978518/7501ca60962e7f70263f.jpg</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xac-dinh-thoi-diem-thu-mon-dinh-trieu-tro-lai-thi-dau-r51978518.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>BTV Thu Hà bức xúc vì chồng bị uống sữa giả khi vừa mổ não</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_23_51978242/8d882a5d76139f4dc602.jpg</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/btv-thu-ha-buc-xuc-vi-chong-bi-uong-sua-gia-khi-vua-mo-nao-r51978242.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Trung Quốc kiên định cùng Việt Nam gìn giữ tình hữu nghị, hiện thực hóa mục tiêu '6 hơn'</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_35_51978315/68b2ee6db2235b7d0232.jpg</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-quoc-kien-dinh-cung-viet-nam-gin-giu-tinh-huu-nghi-hien-thuc-hoa-muc-tieu-6-hon-r51978315.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Đồng tiền đè thanh danh</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_17_51978736/de2e2443780d9153c81c.jpg</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dong-tien-de-thanh-danh-r51978736.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Đài truyền hình Mỹ vừa phỏng vấn Tổng thống Ukraine, ông Trump công kích dữ dội</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_296_51976784/d0b8a8bacbf422aa7be5.jpg</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-truyen-hinh-my-vua-phong-van-tong-thong-ukraine-ong-trump-cong-kich-du-doi-r51976784.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Hạ thân nhiệt ở trẻ sơ sinh: Nguyên nhân, biểu hiện, cách điều trị và phòng bệnh</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_94_51978481/aa2a63b63ff8d6a68fe9.jpg</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-than-nhiet-o-tre-so-sinh-nguyen-nhan-bieu-hien-cach-dieu-tri-va-phong-benh-r51978481.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Chế độ ăn cho người mắc hội chứng Catatonia</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_94_51978422/7b7668ef34a1ddff84b0.jpg</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/che-do-an-cho-nguoi-mac-hoi-chung-catatonia-r51978422.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Đại hội đảng bộ các tỉnh, xã sau sáp nhập sẽ không làm công tác nhân sự</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-hoi-dang-bo-cac-tinh-xa-sau-sap-nhap-se-khong-lam-cong-tac-nhan-su-r51977512.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Báu vật HAGL hồi phục thần tốc, sẵn sàng trở lại, HLV Kim Sang-sik tính đường mới cho ĐT Việt Nam</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bau-vat-hagl-hoi-phuc-than-toc-san-sang-tro-lai-hlv-kim-sang-sik-tinh-duong-moi-cho-dt-viet-nam-r51978371.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Giá vàng hôm nay 15/4 cập nhật mới nhất</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-cap-nhat-moi-nhat-r51978438.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Đức muốn 'bắn mũi tên thần', Nga phản ứng gắt</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/duc-muon-ban-mui-ten-than-nga-phan-ung-gat-r51977311.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Đạo đức kinh doanh và lỗ hổng quản lý</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dao-duc-kinh-doanh-va-lo-hong-quan-ly-r51978538.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Xem ngay lịch âm dương hôm nay 15/4</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_324_51978418/16e33e7a62348b6ad225.jpg</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xem-ngay-lich-am-duong-hom-nay-15-4-r51978418.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Xe tay ga Ý 150cc, thiết kế siêu cá tính, giá chỉ gần 70 triệu đồng, 'đe nẹt' Honda SH 160i</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978904/256d0d1e5150b80ee141.jpg</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xe-tay-ga-y-150cc-thiet-ke-sieu-ca-tinh-gia-chi-gan-70-trieu-dong-de-net-honda-sh-160i-r51978904.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Ngày mai, TP.HCM, Bình Dương, Bà Rịa - Vũng Tàu sẽ bàn việc ghép ranh giới hành chính</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977019/7789ca86a9c8409619d9.jpg</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngay-mai-tp-hcm-binh-duong-ba-ria-vung-tau-se-ban-viec-ghep-ranh-gioi-hanh-chinh-r51977019.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Kỳ thi đánh giá năng lực Đại học Quốc gia Thành phố Hồ Chí Minh: cao nhất 1.060 điểm, thấp nhất 40 điểm</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_601_51978556/94b45cd70099e9c7b088.jpg</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ky-thi-danh-gia-nang-luc-dai-hoc-quoc-gia-thanh-pho-ho-chi-minh-cao-nhat-1-060-diem-thap-nhat-40-diem-r51978556.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Hy vọng mới cho ngành cà phê Cuba</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_324_51978543/e08cbbece7a20efc57b3.jpg</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hy-vong-moi-cho-nganh-ca-phe-cuba-r51978543.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Cần xử lý nghiêm những người nổi tiếng quảng cáo sữa sai sự thật</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_338_51974236/65a390b5f3fb1aa543ea.jpg</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/can-xu-ly-nghiem-nhung-nguoi-noi-tieng-quang-cao-sua-sai-su-that-r51974236.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>CLIP: Đụng độ đàn chó nhà, sói đồng cỏ bị kẻ thù lao tới cắn xé</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978396/bcb4b726eb6802365b79.jpg</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-dung-do-dan-cho-nha-soi-dong-co-bi-ke-thu-lao-toi-can-xe-r51978396.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Có thể áp dụng mức hình phạt đến tù chung thân?</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_15_204_51978463/9b00e29abed4578a0ec5.jpg</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-the-ap-dung-muc-hinh-phat-den-tu-chung-than-r51978463.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Chuẩn bị sẵn sàng vận hành bộ máy chính quyền địa phương hai cấp từ 1/7</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_146_51977053/0e493b45580bb155e81a.jpg</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chuan-bi-san-sang-van-hanh-bo-may-chinh-quyen-dia-phuong-hai-cap-tu-1-7-r51977053.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Cần Thơ còn 32 đơn vị hành chính cấp xã sau khi sắp xếp</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977517/767e759d29d3c08d99c2.jpg</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/can-tho-con-32-don-vi-hanh-chinh-cap-xa-sau-khi-sap-xep-r51977517.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Nga xác nhận tấn công Sumy, nhưng cung cấp thông tin hoàn toàn khác</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51976894/2e44e94d8a03635d3a12.jpg</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nga-xac-nhan-tan-cong-sumy-nhung-cung-cap-thong-tin-hoan-toan-khac-r51976894.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>3 Bí thư Tỉnh ủy nói về phương án sáp nhập Phú Thọ, Vĩnh Phúc và Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977459/f3ea470a1b44f21aab55.jpg</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/3-bi-thu-tinh-uy-noi-ve-phuong-an-sap-nhap-phu-tho-vinh-phuc-va-hoa-binh-r51977459.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>CLIP: Hung hăng lao ra hù dọa voi đang chở người, hổ nhận cái kết khó tin</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978369/fc03db8187cf6e9137de.jpg</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-hung-hang-lao-ra-hu-doa-voi-dang-cho-nguoi-ho-nhan-cai-ket-kho-tin-r51978369.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Ông Nguyễn Văn Được: 'Chắc chắn có một lượng cán bộ khó khăn, tâm tư khi sắp xếp'</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976808/47958280e1ce089051df.jpg</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ong-nguyen-van-duoc-chac-chan-co-mot-luong-can-bo-kho-khan-tam-tu-khi-sap-xep-r51976808.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Học giả Trung Quốc nêu bật ý nghĩa bài viết của Tổng Bí thư Tô Lâm</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51978213/d9a405775939b067e928.jpg</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoc-gia-trung-quoc-neu-bat-y-nghia-bai-viet-cua-tong-bi-thu-to-lam-r51978213.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Trung Quốc luôn coi Việt Nam là ưu tiên trong chính sách ngoại giao</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-quoc-luon-coi-viet-nam-la-uu-tien-trong-chinh-sach-ngoai-giao-r51978125.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Xe sedan hạng C, công suất 197 mã lực, nội thất 'trên cơ' Honda Civic, Toyota Corolla Altis, giá chỉ hơn 410 triệu đồng</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xe-sedan-hang-c-cong-suat-197-ma-luc-noi-that-tren-co-honda-civic-toyota-corolla-altis-gia-chi-hon-410-trieu-dong-r51978397.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Bellingham và đồng đội Real xô xát trước trận đại chiến Arsenal</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bellingham-va-dong-doi-real-xo-xat-truoc-tran-dai-chien-arsenal-r51977958.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Giá vàng hôm nay 15/4/2025: vàng giảm nhẹ nhưng xu hướng tăng giá còn tiếp tục</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978723/0b77571d0b53e20dbb42.jpg</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-2025-vang-giam-nhe-nhung-xu-huong-tang-gia-con-tiep-tuc-r51978723.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Vụ người đàn ông mất tích: Tìm thấy thi thể đang phân hủy</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51977595/3e7cb099ecd705895cc6.jpg</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-nguoi-dan-ong-mat-tich-tim-thay-thi-the-dang-phan-huy-r51977595.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Infographic: Dự kiến tên gọi 34 tỉnh, thành phố và trung tâm chính trị - hành chính sau sáp nhập</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_309_51978328/1aa04c14105af904a04b.jpg</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/infographic-du-kien-ten-goi-34-tinh-thanh-pho-va-trung-tam-chinh-tri-hanh-chinh-sau-sap-nhap-r51978328.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Lãnh đạo Việt Nam gửi thư chúc mừng năm mới Lào và Campuchia</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_595_51978287/a92774f028bec1e098af.jpg</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lanh-dao-viet-nam-gui-thu-chuc-mung-nam-moi-lao-va-campuchia-r51978287.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>CLIP: 'Cười đau bụng' trước cảnh khỉ đầu chó bị rắn dọa tới mức bất tỉnh</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978367/ccf560743c3ad5648c2b.jpg</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-cuoi-dau-bung-truoc-canh-khi-dau-cho-bi-ran-doa-toi-muc-bat-tinh-r51978367.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Trung tâm tài chính quốc tế đưa Việt Nam hội nhập toàn cầu</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_59_51978336/f3808523d96d3033697c.jpg</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-tam-tai-chinh-quoc-te-dua-viet-nam-hoi-nhap-toan-cau-r51978336.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Tỉnh Quảng Ninh đề xuất giảm 2/3 đơn vị hành chính cấp xã</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977283/762b24374779ae27f768.jpg</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tinh-quang-ninh-de-xuat-giam-2-3-don-vi-hanh-chinh-cap-xa-r51977283.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Vụ sữa giả doanh thu gần 500 tỉ đồng: Bộ Công Thương nói gì?</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977555/0b2881cadd8434da6d95.jpg</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-sua-gia-doanh-thu-gan-500-ti-dong-bo-cong-thuong-noi-gi-r51977555.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2 trường hợp văn bản quy phạm pháp luật thuộc đối tượng xử lý từ ngày 1/4/2025</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978464/c3cbb951e51f0c41550e.jpg</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/2-truong-hop-van-ban-quy-pham-phap-luat-thuoc-doi-tuong-xu-ly-tu-ngay-1-4-2025-r51978464.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Hoàng Tử Thao mất gần 500.000 người theo dõi</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_119_51978323/6c0ff5d0a99e40c0198f.jpg</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoang-tu-thao-mat-gan-500-000-nguoi-theo-doi-r51978323.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Động thái của Vân Hugo, Doãn Quốc Đam vụ quảng cáo sữa</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977988/2ca23c5e6010894ed001.jpg</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dong-thai-cua-van-hugo-doan-quoc-dam-vu-quang-cao-sua-r51977988.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Á hậu Hoàng Oanh 'rực lửa', chứng minh '30 không phải là giới hạn'</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978370/fe06c1849dca74942ddb.jpg</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/a-hau-hoang-oanh-ruc-lua-chung-minh-30-khong-phai-la-gioi-han-r51978370.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Xe tay ga Yamaha 155cc, trang bị hiện đại, giá gần 92 triệu đồng, so kè cùng Honda SH</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978373/3f56a7d0fb9e12c04b8f.jpg</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xe-tay-ga-yamaha-155cc-trang-bi-hien-dai-gia-gan-92-trieu-dong-so-ke-cung-honda-sh-r51978373.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Khi nghệ thuật từ AI đặt ra câu hỏi về đạo đức và bản sắc</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_338_51978329/98ab950ac944201a7955.jpg</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khi-nghe-thuat-tu-ai-dat-ra-cau-hoi-ve-dao-duc-va-ban-sac-r51978329.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Người đẹp gốc Việt và Chris Brown làm lành?</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-dep-goc-viet-va-chris-brown-lam-lanh-r51978324.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Trường Đại học Vinh: Rơi lan can làm 3 học sinh bị thương</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/truong-dai-hoc-vinh-roi-lan-can-lam-3-hoc-sinh-bi-thuong-r51978085.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Amanda Nguyễn - Người phụ nữ gốc Việt đầu tiên bay vào không gian</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/amanda-nguyen-nguoi-phu-nu-goc-viet-dau-tien-bay-vao-khong-gian-r51977674.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>CLIP: Người đàn ông tay không khống chế rắn hổ mang chúa dài 3 mét</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-nguoi-dan-ong-tay-khong-khong-che-ran-ho-mang-chua-dai-3-met-r51978364.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Quy hoạch cấu trúc đô thị Hà Nội với sông Hồng là trục xanh</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978480/0586a5eef9a010fe49b1.jpg</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quy-hoach-cau-truc-do-thi-ha-noi-voi-song-hong-la-truc-xanh-r51978480.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>TP HCM dự kiến sẽ có phường Sài Gòn ở trung tâm</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_15_51977805/1d7a7a8f26c1cf9f96d0.jpg</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-hcm-du-kien-se-co-phuong-sai-gon-o-trung-tam-r51977805.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Hẹn đến quán cà phê giải quyết mâu thuẫn, 3 người bị chém trọng thương</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977878/8a4013b94ff7a6a9ffe6.jpg</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hen-den-quan-ca-phe-giai-quyet-mau-thuan-3-nguoi-bi-chem-trong-thuong-r51977878.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Xuân Son báo tin cực vui: Sắp tái xuất sân cỏ, HLV Kim Sang-sik thở phào nhẹ nhõm</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978346/3e0355ac09e2e0bcb9f3.jpg</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xuan-son-bao-tin-cuc-vui-sap-tai-xuat-san-co-hlv-kim-sang-sik-tho-phao-nhe-nhom-r51978346.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>CLIP: Đụng độ báo hoa mai, chó hoang châu Phi trả giá bằng cả tính mạng</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978359/7f5b03e25facb6f2efbd.jpg</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-dung-do-bao-hoa-mai-cho-hoang-chau-phi-tra-gia-bang-ca-tinh-mang-r51978359.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Dính 'bẫy lừa' của 'Thủ lĩnh dự án Sybbex', người phụ nữ mất trắng hơn 2 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_106_51978106/53780fbd53f3baade3e2.jpg</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dinh-bay-lua-cua-thu-linh-du-an-sybbex-nguoi-phu-nu-mat-trang-hon-2-ty-dong-r51978106.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Việt Nam-Hàn Quốc tận dụng các FTA, sớm đưa thương mại song phương lên 150 tỷ USD</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51978121/9533a1f7fdb914e74da8.jpg</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-han-quoc-tan-dung-cac-fta-som-dua-thuong-mai-song-phuong-len-150-ty-usd-r51978121.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Chi tiết lịch xem 3D mapping và pháo hoa mừng 30/4 tại TP.HCM</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51978228/6675ada7f1e918b741f8.jpg</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chi-tiet-lich-xem-3d-mapping-va-phao-hoa-mung-30-4-tai-tp-hcm-r51978228.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>18 trường đại học Đức tìm kiếm cơ hội hợp tác với các đối tác Việt Nam</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_338_51978270/2a2bf8ffa4b14def14a0.jpg</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/18-truong-dai-hoc-duc-tim-kiem-co-hoi-hop-tac-voi-cac-doi-tac-viet-nam-r51978270.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Thủ tướng: Sớm trình Bộ Chính trị đề án phát triển kinh tế tư nhân</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51978266/380902dc5e92b7ccee83.jpg</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-som-trinh-bo-chinh-tri-de-an-phat-trien-kinh-te-tu-nhan-r51978266.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Hà Nội công nhận điểm du lịch Thụy Lâm</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_72_51978142/3bd4bd12e15c0802514d.jpg</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-cong-nhan-diem-du-lich-thuy-lam-r51978142.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Nữ sinh Hà Nội giỏi lịch sử, là phiên dịch viên 3 ngôn ngữ</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_204_51978416/bc4aded3829d6bc3328c.jpg</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nu-sinh-ha-noi-gioi-lich-su-la-phien-dich-vien-3-ngon-ngu-r51978416.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Việt Nam sở hữu nhiều 'át chủ bài' trong một thế giới biến động</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51978151/2ad02c1870569908c047.jpg</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-so-huu-nhieu-at-chu-bai-trong-mot-the-gioi-bien-dong-r51978151.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Tìm bị hại của nhóm thanh niên ném vỏ chai thủy tinh vào người đi đường</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51978201/6c51749f28d1c18f98c0.jpg</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tim-bi-hai-cua-nhom-thanh-nien-nem-vo-chai-thuy-tinh-vao-nguoi-di-duong-r51978201.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>CLIP: Bị 'tử thần vùng đầm lầy' giữ chân, linh dương con nỗ lực hết sức giành sự sống</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-bi-tu-than-vung-dam-lay-giu-chan-linh-duong-con-no-luc-het-suc-gianh-su-song-r51978350.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Giá vàng hôm nay 15/4/2025: Giá vàng 'ngủ Đông' chờ ngày tiếp tục bùng nổ, nỗi sợ hãi và hỗn loạn sẽ củng cố mức giá nào?</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-hom-nay-15-4-2025-gia-vang-ngu-dong-cho-ngay-tiep-tuc-bung-no-noi-so-hai-va-hon-loan-se-cung-co-muc-gia-nao-r51977765.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Long An: TP Tân An dự kiến còn 3 đơn vị hành chính</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/long-an-tp-tan-an-du-kien-con-3-don-vi-hanh-chinh-r51978045.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Dùng dao khống chế, cướp tài sản của xe ôm</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dung-dao-khong-che-cuop-tai-san-cua-xe-om-r51978094.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Ukraine sẵn sàng chi 15 tỷ USD mua 10 hệ thống phòng không Patriot từ Mỹ</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51977529/612074c0288ec1d0989f.jpg</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ukraine-san-sang-chi-15-ty-usd-mua-10-he-thong-phong-khong-patriot-tu-my-r51977529.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Sỹ quan Nga ví phi đội F-16 của Ukraine như 'giọt nước giữa đại dương'</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51976883/ce68326e5120b87ee131.jpg</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/sy-quan-nga-vi-phi-doi-f-16-cua-ukraine-nhu-giot-nuoc-giua-dai-duong-r51976883.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Ô tô khách va chạm với xe máy khiến 2 người tử vong</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51978007/da0296fdcab323ed7aa2.jpg</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/o-to-khach-va-cham-voi-xe-may-khien-2-nguoi-tu-vong-r51978007.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Ký ức cựu binh chiến dịch Hồ Chí Minh: 'Chúng tôi luôn cảm thấy may mắn khi được trở về...'</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51978046/1752299275dc9c82c5cd.jpg</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ky-uc-cuu-binh-chien-dich-ho-chi-minh-chung-toi-luon-cam-thay-may-man-khi-duoc-tro-ve-r51978046.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Khởi tố đối tượng giấu súng, đạn trong chuồng lợn</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_258_51978016/c21031ee6da084feddb1.jpg</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khoi-to-doi-tuong-giau-sung-dan-trong-chuong-lon-r51978016.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>TP.HCM tập trung số hóa hồ sơ trước khi kết thúc hoạt động của cấp huyện</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51978073/10872e44720a9b54c21b.jpg</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-hcm-tap-trung-so-hoa-ho-so-truoc-khi-ket-thuc-hoat-dong-cua-cap-huyen-r51978073.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Bắt giữ 3 phương tiện vận chuyển hàng trăm bình khí cười</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51978160/33cb37006b4e8210db5f.jpg</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bat-giu-3-phuong-tien-van-chuyen-hang-tram-binh-khi-cuoi-r51978160.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Thái Lan ban hành sắc lệnh khẩn cấp chống lừa đảo qua điện thoại</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_207_51978062/657e0fbd53f3baade3e2.jpg</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thai-lan-ban-hanh-sac-lenh-khan-cap-chong-lua-dao-qua-dien-thoai-r51978062.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Hải Phòng, Hải Dương sắp xếp cho cán bộ làm việc sau sáp nhập</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977373/92d0fcc99f8776d92f96.jpg</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hai-phong-hai-duong-sap-xep-cho-can-bo-lam-viec-sau-sap-nhap-r51977373.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Tạm giam lãnh đạo Bảo hiểm xã hội huyện Yên Mỹ (Hưng Yên)</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_16_51978199/353e14f048bea1e0f8af.jpg</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tam-giam-lanh-dao-bao-hiem-xa-hoi-huyen-yen-my-hung-yen-r51978199.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>CLIP: Bị rắn tấn công bất ngờ khi đang đi trong sân, người phụ nữ la hét hoảng sợ</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978347/0f5371fc2db2c4ec9da3.jpg</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-bi-ran-tan-cong-bat-ngo-khi-dang-di-trong-san-nguoi-phu-nu-la-het-hoang-so-r51978347.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>SUV cùng phân khúc với Toyota Fortuner, công suất 238 mã lực, trang bị tối tân, giá ngang Mitsubishi Xforce</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978360/63f6164f4a01a35ffa10.jpg</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/suv-cung-phan-khuc-voi-toyota-fortuner-cong-suat-238-ma-luc-trang-bi-toi-tan-gia-ngang-mitsubishi-xforce-r51978360.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Modric mua CLB ở Anh</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976786/570a37085446bd18e457.jpg</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/modric-mua-clb-o-anh-r51976786.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Cảnh sát giao thông kịp thời hỗ trợ đưa cháu bé có dấu hiệu ngưng thở đi bệnh viện</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977973/c3f4dd34817a6824316b.jpg</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/canh-sat-giao-thong-kip-thoi-ho-tro-dua-chau-be-co-dau-hieu-ngung-tho-di-benh-vien-r51977973.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Xử lý 78 thanh thiếu niên vi phạm giao thông khi tụ tập 'sống ảo' tại điểm săn mây</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977879/a9753f8c63c28a9cd3d3.jpg</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xu-ly-78-thanh-thieu-nien-vi-pham-giao-thong-khi-tu-tap-song-ao-tai-diem-san-may-r51977879.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Nam sinh Huế giao nộp chim đuôi cụt bụng đỏ quý hiếm cho kiểm lâm</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-sinh-hue-giao-nop-chim-duoi-cut-bung-do-quy-hiem-cho-kiem-lam-r51977551.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Trúc Anh theo phong cách gợi cảm</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/truc-anh-theo-phong-cach-goi-cam-r51978134.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>CLIP: Cá sấu liều lĩnh tấn công voi và nhận cái kết 'đắng chát'</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978337/adae020c5e42b71cee53.jpg</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-ca-sau-lieu-linh-tan-cong-voi-va-nhan-cai-ket-dang-chat-r51978337.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>3 con giáp Trời thương, 7 ngày tới thuận lợi trăm bề</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51977115/1b9978971bd9f287abc8.jpg</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/3-con-giap-troi-thuong-7-ngay-toi-thuan-loi-tram-be-r51977115.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Liên minh châu Âu theo dõi chặt chẽ đàm phán hạt nhân Mỹ-Iran</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51978004/b98ffb70a73e4e60172f.jpg</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lien-minh-chau-au-theo-doi-chat-che-dam-phan-hat-nhan-my-iran-r51978004.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Trầm cảm kéo dài không được phát hiện, nữ sinh 19 tuổi nảy sinh ý định tiêu cực</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_309_51977995/105ccfa393ed7ab323fc.jpg</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tram-cam-keo-dai-khong-duoc-phat-hien-nu-sinh-19-tuoi-nay-sinh-y-dinh-tieu-cuc-r51977995.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Ngắm đàn cò bay lượn 'phủ kín' bầu trời Phong Nha - Kẻ Bàng</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_207_51978185/2ec25d0d0143e81db152.jpg</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngam-dan-co-bay-luon-phu-kin-bau-troi-phong-nha-ke-bang-r51978185.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Lời khai của người phụ nữ dùng dao chém chồng lúc nửa đêm</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976640/971b9c21ff6f16314f7e.jpg</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/loi-khai-cua-nguoi-phu-nu-dung-dao-chem-chong-luc-nua-dem-r51976640.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Tước giấy phép tài xế xe tải cố tình vượt đường ngang khi gác chắn tàu đã đóng</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977735/6e26ecd6b09859c60089.jpg</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tuoc-giay-phep-tai-xe-xe-tai-co-tinh-vuot-duong-ngang-khi-gac-chan-tau-da-dong-r51977735.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Quảng Bình: Có bao nhiêu đơn vị hành chính cấp xã sau sáp nhập?</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_35_51977733/b18f407f1c31f56fac20.jpg</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quang-binh-co-bao-nhieu-don-vi-hanh-chinh-cap-xa-sau-sap-nhap-r51977733.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Văn Thanh công khai bạn gái</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976775/552e68220b6ce232bb7d.jpg</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/van-thanh-cong-khai-ban-gai-r51976775.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Trước sức ép thuế quan, Nvidia công bố kế hoạch sản xuất trị giá 500 tỷ USD tại Mỹ</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977922/f80ac3f19fbf76e12fae.jpg</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/truoc-suc-ep-thue-quan-nvidia-cong-bo-ke-hoach-san-xuat-tri-gia-500-ty-usd-tai-my-r51977922.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Tại sao vàng lại đắt như vậy? Bí mật đằng sau giá trị trường tồn của kim loại quý</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978357/cd8d4c34107af924a06b.jpg</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tai-sao-vang-lai-dat-nhu-vay-bi-mat-dang-sau-gia-tri-truong-ton-cua-kim-loai-quy-r51978357.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Katy Perry và phi hành đoàn toàn nữ bay vào không gian</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977544/51dd5e2e0260eb3eb271.jpg</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/katy-perry-va-phi-hanh-doan-toan-nu-bay-vao-khong-gian-r51977544.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Bộ Quốc phòng xây dựng Thông tư liên quan tiêu chuẩn, quy chuẩn kỹ thuật đối với tàu bay không người lái</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51978135/05c8310f6d41841fdd50.jpg</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-quoc-phong-xay-dung-thong-tu-lien-quan-tieu-chuan-quy-chuan-ky-thuat-doi-voi-tau-bay-khong-nguoi-lai-r51978135.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Hà Nội công bố tình huống khẩn cấp sạt lở bờ sông Đuống tại quận Long Biên</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-cong-bo-tinh-huong-khan-cap-sat-lo-bo-song-duong-tai-quan-long-bien-r51978574.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Mưa dông mạnh bất thường ở Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mua-dong-manh-bat-thuong-o-dak-nong-r51977691.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Bổ nhiệm lãnh đạo Chi cục Quản lý thị trường Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-nhiem-lanh-dao-chi-cuc-quan-ly-thi-truong-hai-phong-r51978068.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh: Xử lý phòng khám thẩm mỹ quảng cáo trái phép, thu tiền dịch vụ giá cao</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-xu-ly-phong-kham-tham-my-quang-cao-trai-phep-thu-tien-dich-vu-gia-cao-r51977680.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Nhật Bản khẳng định không có kế hoạch 'nhượng bộ' khi đàm phán thuế với Mỹ</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhat-ban-khang-dinh-khong-co-ke-hoach-nhuong-bo-khi-dam-phan-thue-voi-my-r51977584.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Xử lý vụ 'đòi phí' chụp ảnh cây gạo ở Hà Nam</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51977461/7d1dfd029e4c77122e5d.jpg</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xu-ly-vu-doi-phi-chup-anh-cay-gao-o-ha-nam-r51977461.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Trái Đất bao nhiêu tuổi? Và loài người sẽ tồn tại được bao lâu nữa?</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_304_51978303/69ea8433d87d3123686c.jpg</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trai-dat-bao-nhieu-tuoi-va-loai-nguoi-se-ton-tai-duoc-bao-lau-nua-r51978303.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Giá vàng dự báo đạt 4.000 USD/ounce trong một năm tới</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977617/0af8f81fa4514d0f1440.jpg</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-du-bao-dat-4-000-usd-ounce-trong-mot-nam-toi-r51977617.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Tổng Bí thư Tô Lâm và Tổng Bí thư Tập Cận Bình xem 45 văn kiện hợp tác</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977630/12fc651a3954d00a8945.jpg</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-bi-thu-to-lam-va-tong-bi-thu-tap-can-binh-xem-45-van-kien-hop-tac-r51977630.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Sáp nhập Bắc Giang và Bắc Ninh: Hình thành 'siêu tỉnh công nghiệp'</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_15_35_51978320/6b822d5e7110984ec101.jpg</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/sap-nhap-bac-giang-va-bac-ninh-hinh-thanh-sieu-tinh-cong-nghiep-r51978320.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Katy Perry hôn mặt đất sau khi hoàn thành chuyến bay vào không gian</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977776/52225ad1069fefc1b68e.jpg</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/katy-perry-hon-mat-dat-sau-khi-hoan-thanh-chuyen-bay-vao-khong-gian-r51977776.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Bé trai sơ sinh bị bỏ rơi trên đường ở Hải Dương</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_94_51976548/e02d821be155080b5144.jpg</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/be-trai-so-sinh-bi-bo-roi-tren-duong-o-hai-duong-r51976548.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Chính sách thuế Mỹ: 'Không biết ngủ dậy đã thay đổi thế nào'</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_20_51977768/32fe560d0a43e31dba52.jpg</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chinh-sach-thue-my-khong-biet-ngu-day-da-thay-doi-the-nao-r51977768.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Gã trai dùng thủ đoạn lừa đảo tiền đặt cọc thuê nhà</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_106_51977527/3eacf86ca4224d7c1433.jpg</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ga-trai-dung-thu-doan-lua-dao-tien-dat-coc-thue-nha-r51977527.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>CSGT Nghệ An dẫn đường khẩn cấp đưa cháu bé nguy kịch đến bệnh viện</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_94_51977751/3fbc4e4c1202fb5ca213.jpg</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/csgt-nghe-an-dan-duong-khan-cap-dua-chau-be-nguy-kich-den-benh-vien-r51977751.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Thông xe 5 dự án cao tốc dịp 30/4</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_236_51977978/75bc67413b0fd2518b1e.jpg</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thong-xe-5-du-an-cao-toc-dip-30-4-r51977978.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Thông xe kỹ thuật cao tốc Biên Hòa - Vũng Tàu vào ngày 19 - 4</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977468/c787679804d6ed88b4c7.jpg</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thong-xe-ky-thuat-cao-toc-bien-hoa-vung-tau-vao-ngay-19-4-r51977468.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Một dự án năng lượng tái tạo chuyển tiếp hoàn tất thỏa thuận giá bán điện với EVN</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_95_51977638/0174e19cbdd2548c0dc3.jpg</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mot-du-an-nang-luong-tai-tao-chuyen-tiep-hoan-tat-thoa-thuan-gia-ban-dien-voi-evn-r51977638.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Vùng Cảnh sát biển 4 đã khởi tố 2 vụ án vi phạm IUU</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51977198/56f863eb00a5e9fbb0b4.jpg</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vung-canh-sat-bien-4-da-khoi-to-2-vu-an-vi-pham-iuu-r51977198.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Đài Truyền hình Việt Nam và Đài Phát thanh - Truyền hình Trung ương Trung Quốc giới thiệu các dự án truyền thông trọng điểm</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51977904/9013d8eb84a56dfb34b4.jpg</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-truyen-hinh-viet-nam-va-dai-phat-thanh-truyen-hinh-trung-uong-trung-quoc-gioi-thieu-cac-du-an-truyen-thong-trong-diem-r51977904.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Chi tiết chương trình lễ kỷ niệm cấp Quốc gia chào mừng 50 năm Giải phóng miền Nam</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chi-tiet-chuong-trinh-le-ky-niem-cap-quoc-gia-chao-mung-50-nam-giai-phong-mien-nam-r51977730.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Hóa chất Cơ bản Miền Nam (CSV): Tổng mức đầu tư dự kiến cho Nhà máy Hóa chất Nhơn Trạch là 1.828,9 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoa-chat-co-ban-mien-nam-csv-tong-muc-dau-tu-du-kien-cho-nha-may-hoa-chat-nhon-trach-la-1-828-9-ty-dong-r51977632.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Tập đoàn công nghệ hàng đầu Việt Nam CMC bị tấn công ransomware</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tap-doan-cong-nghe-hang-dau-viet-nam-cmc-bi-tan-cong-ransomware-r51977798.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Saudi Arabia lên kế hoạch trả hết nợ cho Syria tại WB, đẩy nhanh quá trình tái thiết</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_294_51977683/aeb9f256ae1847461e09.jpg</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/saudi-arabia-len-ke-hoach-tra-het-no-cho-syria-tai-wb-day-nhanh-qua-trinh-tai-thiet-r51977683.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Hà Nam đẩy mạnh tuyên truyền về sắp xếp bộ máy, phát triển khoa học công nghệ và chuyển đổi số</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51978144/2f825d44010ae854b11b.jpg</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-nam-day-manh-tuyen-truyen-ve-sap-xep-bo-may-phat-trien-khoa-hoc-cong-nghe-va-chuyen-doi-so-r51978144.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Mở thẻ tín dụng online, nam thanh niên 'bốc hơi' 50 triệu đồng</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51977253/f1a8dbbdb8f351ad08e2.jpg</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mo-the-tin-dung-online-nam-thanh-nien-boc-hoi-50-trieu-dong-r51977253.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Hoạt náo viên nổi nhất TikTok bị chê mặc 'hở hang'</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977778/6d1819e145afacf1f5be.jpg</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoat-nao-vien-noi-nhat-tiktok-bi-che-mac-ho-hang-r51977778.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Cảnh giác thủ đoạn cầm cố điện thoại kèm hóa đơn giả</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51978279/dd78c4ac98e271bc28f3.jpg</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/canh-giac-thu-doan-cam-co-dien-thoai-kem-hoa-don-gia-r51978279.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Hà Nội: Tạm dừng giải quyết thủ tục hành chính liên quan đến các hội</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51977452/f2d8a7c4c48a2dd4749b.jpg</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-tam-dung-giai-quyet-thu-tuc-hanh-chinh-lien-quan-den-cac-hoi-r51977452.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Xe tăng M1A2 SEPv3 mạnh nhất do Mỹ sản xuất gầm rú ở Ba Lan</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_106_51977589/642bc6ce9a8073de2a91.jpg</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xe-tang-m1a2-sepv3-manh-nhat-do-my-san-xuat-gam-ru-o-ba-lan-r51977589.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Kết quả kiểm tra sức khỏe Tổng thống Donald Trump 'đạt yêu cầu tuyệt đối'</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_94_51977971/11931e6e4220ab7ef231.jpg</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ket-qua-kiem-tra-suc-khoe-tong-thong-donald-trump-dat-yeu-cau-tuyet-doi-r51977971.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Đại sứ Mai Phan Dũng: Cam kết mạnh mẽ và thông điệp ý nghĩa Việt Nam gửi gắm tại Hội đồng Nhân quyền Liên hợp quốc</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_194_51977692/65e43b0a67448e1ad755.jpg</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-su-mai-phan-dung-cam-ket-manh-me-va-thong-diep-y-nghia-viet-nam-gui-gam-tai-hoi-dong-nhan-quyen-lien-hop-quoc-r51977692.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>'Tổ viral độ': HIEUTHUHAI, HURRYKNG đi ăn đám cưới cũng gây xôn xao mạng xã hội</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_105_51977804/ee176fe233acdaf283bd.jpg</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/to-viral-do-hieuthuhai-hurrykng-di-an-dam-cuoi-cung-gay-xon-xao-mang-xa-hoi-r51977804.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Trưng bày các văn kiện hợp tác giữa hai nước Việt Nam-Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_342_51977675/3f2887c7db8932d76b98.jpg</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-bay-cac-van-kien-hop-tac-giua-hai-nuoc-viet-nam-trung-quoc-r51977675.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Điện Kremlin: Cuộc gặp giữa Tổng thống Nga và đặc phái viên Mỹ là 'hữu ích và hiệu quả'</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977746/19be774e2b00c25e9b11.jpg</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dien-kremlin-cuoc-gap-giua-tong-thong-nga-va-dac-phai-vien-my-la-huu-ich-va-hieu-qua-r51977746.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Hoạt náo viên nổi nhất TikTok khoe vẻ gợi cảm trên sân</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977881/d630aec9f2871bd94296.jpg</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoat-nao-vien-noi-nhat-tiktok-khoe-ve-goi-cam-tren-san-r51977881.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>BTV Hoàng Linh phản ứng ra sao giữa ồn ào quảng cáo sữa giả?</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/btv-hoang-linh-phan-ung-ra-sao-giua-on-ao-quang-cao-sua-gia-r51976858.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Sẽ sớm hoàn thiện chính sách đất đai cho chính quyền địa phương hai cấp</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/se-som-hoan-thien-chinh-sach-dat-dai-cho-chinh-quyen-dia-phuong-hai-cap-r51977737.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Xác nhận mới nhất của Phó Thủ tướng Ukraine về thỏa thuận khoáng sản với Mỹ</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xac-nhan-moi-nhat-cua-pho-thu-tuong-ukraine-ve-thoa-thuan-khoang-san-voi-my-r51977132.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>TPHCM rực rỡ cờ hoa mừng 50 năm thống nhất đất nước</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tphcm-ruc-ro-co-hoa-mung-50-nam-thong-nhat-dat-nuoc-r51977707.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Khai mạc Gặp gỡ hữu nghị thanh niên Việt Nam - Trung Quốc năm 2025</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khai-mac-gap-go-huu-nghi-thanh-nien-viet-nam-trung-quoc-nam-2025-r51977475.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Bà Rịa – Vũng Tàu dự kiến sẽ còn 29 xã, phường và 1 đặc khu</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977284/941d48fd14b3fdeda4a2.jpg</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ba-ria-vung-tau-du-kien-se-con-29-xa-phuong-va-1-dac-khu-r51977284.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Quảng Nam: Khẩn trương điều tra sự việc bạo hành trẻ em tại nhóm trẻ tư thục</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51977240/150d8a18e95600085947.jpg</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quang-nam-khan-truong-dieu-tra-su-viec-bao-hanh-tre-em-tai-nhom-tre-tu-thuc-r51977240.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Cử tri Hải Phòng đồng tình chủ trương sáp nhập đơn vị hành chính cấp tỉnh, bỏ cấp huyện, sắp xếp lại cấp xã - phường.</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_197_51977206/8c45a056c3182a467309.jpg</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cu-tri-hai-phong-dong-tinh-chu-truong-sap-nhap-don-vi-hanh-chinh-cap-tinh-bo-cap-huyen-sap-xep-lai-cap-xa-phuong-r51977206.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Bình Thuận có thêm ca tử vong thứ 4 nghi do bệnh dại</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977914/fc0830dd6c9385cddc82.jpg</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/binh-thuan-co-them-ca-tu-vong-thu-4-nghi-do-benh-dai-r51977914.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Thăm Smolensk – 'Quảng Trị' của nước Nga</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977747/452b22db7e9597cbce84.jpg</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tham-smolensk-quang-tri-cua-nuoc-nga-r51977747.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Bộ Công an đánh giá phương án sắp xếp Phân trại tạm giam, kho vật chứng tại Công an tỉnh Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_258_51977888/c7e7f51ea950400e1941.jpg</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-cong-an-danh-gia-phuong-an-sap-xep-phan-trai-tam-giam-kho-vat-chung-tai-cong-an-tinh-thanh-hoa-r51977888.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Nga cảnh báo Đức không leo thang xung đột, Ukraine muốn nhận thêm hỗ trợ từ Mỹ</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976947/70833b8858c6b198e8d7.jpg</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nga-canh-bao-duc-khong-leo-thang-xung-dot-ukraine-muon-nhan-them-ho-tro-tu-my-r51976947.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Hà Nội chi 880 tỷ đồng xây cầu vượt nút giao đường Lê Trọng Tấn với Quốc lộ 6</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977505/75d7fc36a07849261069.jpg</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-chi-880-ty-dong-xay-cau-vuot-nut-giao-duong-le-trong-tan-voi-quoc-lo-6-r51977505.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Thủ tướng đề nghị hãng máy bay Trung Quốc hỗ trợ phát triển đội bay</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_112_51977317/12ce35d95697bfc9e686.jpg</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-de-nghi-hang-may-bay-trung-quoc-ho-tro-phat-trien-doi-bay-r51977317.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Việt Nam-Hàn Quốc thúc đẩy hợp tác năng lượng hạt nhân và công nghệ mới</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51977469/08fb5be438aad1f488bb.jpg</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/viet-nam-han-quoc-thuc-day-hop-tac-nang-luong-hat-nhan-va-cong-nghe-moi-r51977469.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh: Kiểm tra an toàn thực phẩm tại các bếp ăn tập thể và cơ sở dịch vụ ăn uống</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977381/bb5230495307ba59e316.jpg</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-kiem-tra-an-toan-thuc-pham-tai-cac-bep-an-tap-the-va-co-so-dich-vu-an-uong-r51977381.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Thêm một trường học bị phản ánh về suất ăn bán trú 'kém chất lượng', quận đề nghị công an điều tra</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_125_51978249/fd8266573a19d3478a08.jpg</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/them-mot-truong-hoc-bi-phan-anh-ve-suat-an-ban-tru-kem-chat-luong-quan-de-nghi-cong-an-dieu-tra-r51978249.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Xác định 48 đội tuyển tham dự World Cup U17</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xac-dinh-48-doi-tuyen-tham-du-world-cup-u17-r51977119.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Tổng thống Trump phát cảnh báo cứng rắn với đài CBS và chương trình '60 Minutes'</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-trump-phat-canh-bao-cung-ran-voi-dai-cbs-va-chuong-trinh-60-minutes-r51977514.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Quận 11 đề xuất lập 4 phường mới tên Bình Thới, Phú Thọ, Hòa Bình, Minh Phụng</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quan-11-de-xuat-lap-4-phuong-moi-ten-binh-thoi-phu-tho-hoa-binh-minh-phung-r51977154.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Ngọc Thanh Tâm vượt qua giới hạn bản thân nhờ tham gia 'Chị đẹp'</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_338_51977980/ac9540691c27f579ac36.jpg</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngoc-thanh-tam-vuot-qua-gioi-han-ban-than-nho-tham-gia-chi-dep-r51977980.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Tổng thống Trump sắp áp dụng mức thuế mới với smartphone</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977446/a0d145cd2683cfdd9692.jpg</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-trump-sap-ap-dung-muc-thue-moi-voi-smartphone-r51977446.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Đài TNVN ký thỏa thuận hợp tác với Đài PT-TH Trung ương Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51976603/8b76f773943d7d63242c.jpg</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-tnvn-ky-thoa-thuan-hop-tac-voi-dai-pt-th-trung-uong-trung-quoc-r51976603.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Rò rỉ thông tin bất ngờ mẫu Galaxy Z Fold7</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51977507/291063f13fbfd6e18fae.jpg</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ro-ri-thong-tin-bat-ngo-mau-galaxy-z-fold7-r51977507.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Hoa hậu Ý Nhi 'biến hình' ấn tượng trước thềm cuộc thi Miss World</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51977445/afd4a9c9ca8723d97a96.jpg</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoa-hau-y-nhi-bien-hinh-an-tuong-truoc-them-cuoc-thi-miss-world-r51977445.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Nam hành khách gây rối, máy bay quay đầu hạ cánh khẩn</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51977477/acf1d7eeb4a05dfe04b1.jpg</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-hanh-khach-gay-roi-may-bay-quay-dau-ha-canh-khan-r51977477.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Tưởng khăn quàng bị rơi, khiếp vía nhận ra là 'quái thú nằm vùng'</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_180_51976700/b52d9312f05c1902404d.jpg</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tuong-khan-quang-bi-roi-khiep-via-nhan-ra-la-quai-thu-nam-vung-r51976700.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Giá cà phê hôm nay 15/4: Giá cà phê Robusta và Arabia tăng giảm trái chiều</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_65_51977516/6220bfc0e38e0ad0539f.jpg</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-ca-phe-hom-nay-15-4-gia-ca-phe-robusta-va-arabia-tang-giam-trai-chieu-r51977516.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Trung Quốc đình chỉ xuất khẩu nam châm và một số khoáng sản quan trọng sang Mỹ</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_309_51977288/9e8759903aded3808acf.jpg</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-quoc-dinh-chi-xuat-khau-nam-cham-va-mot-so-khoang-san-quan-trong-sang-my-r51977288.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Cô gái chi gần 8,5 triệu đồng mỗi tháng để thuê căn phòng 7m2</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_23_51976978/e7f050fa33b4daea83a5.jpg</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-gai-chi-gan-8-5-trieu-dong-moi-thang-de-thue-can-phong-7m2-r51976978.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Ban Chỉ đạo phòng, chống tham nhũng, lãng phí, tiêu cực thành phố Đà Nẵng đưa thêm 2 vụ án vào diện theo dõi</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_294_51977258/0cddd4c9b7875ed90796.jpg</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ban-chi-dao-phong-chong-tham-nhung-lang-phi-tieu-cuc-thanh-pho-da-nang-dua-them-2-vu-an-vao-dien-theo-doi-r51977258.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Novaland phải mua lại bắt buộc lô trái phiếu 225 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51977709/c03eafcff3811adf4390.jpg</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/novaland-phai-mua-lai-bat-buoc-lo-trai-phieu-225-ty-dong-r51977709.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Vụ sữa giả: Luật sư nói gì về trách nhiệm của những người nổi tiếng?</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_04_14_65_51976605/3b2c4f292c67c5399c76.jpg</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-sua-gia-luat-su-noi-gi-ve-trach-nhiem-cua-nhung-nguoi-noi-tieng-r51976605.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Phân luồng giao thông để phục vụ công tác lắp đặt lễ đài trên đường Lê Duẩn</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_5_51977754/ee5110a24ceca5b2fcfd.jpg</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phan-luong-giao-thong-de-phuc-vu-cong-tac-lap-dat-le-dai-tren-duong-le-duan-r51977754.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Chủ rạp phim Galaxy lỗ lũy kế gần 1.300 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chu-rap-phim-galaxy-lo-luy-ke-gan-1-300-ty-dong-r51977488.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Hoa hậu Xuân Hạnh xin lỗi</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hoa-hau-xuan-hanh-xin-loi-r51977364.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Metro số 1 sẽ hoạt động từ 4g30 sáng để phục vụ người dân dịp Lễ 30-4</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/metro-so-1-se-hoat-dong-tu-4g30-sang-de-phuc-vu-nguoi-dan-dip-le-30-4-r51976982.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>SUV lớn hơn Hyundai Santa Fe, công suất 632 mã lực, trang bị 'đỉnh nóc', giá ngang Toyota Corolla Cross</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/suv-lon-hon-hyundai-santa-fe-cong-suat-632-ma-luc-trang-bi-dinh-noc-gia-ngang-toyota-corolla-cross-r51978215.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Mưa đá kèm lốc xoáy làm tốc mái nhà, gãy đổ hàng chục cây sầu riêng ở Bảo Lộc</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976927/4507e70884466d183457.jpg</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mua-da-kem-loc-xoay-lam-toc-mai-nha-gay-do-hang-chuc-cay-sau-rieng-o-bao-loc-r51976927.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>7 loại thực phẩm gây mất ngủ nên hạn chế</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_114_51976824/195e9f5afc14154a4c05.jpg</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/7-loai-thuc-pham-gay-mat-ngu-nen-han-che-r51976824.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Thêm nhiều loại máy bay được nhập vào Việt Nam, giải 'cơn khát' cho hàng không</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_83_51976750/1479f684aaca43941adb.jpg</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/them-nhieu-loai-may-bay-duoc-nhap-vao-viet-nam-giai-con-khat-cho-hang-khong-r51976750.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Greenland không phải 'mỏ vàng' như ông Trump kỳ vọng</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_119_51976912/512bce23ad6d44331d7c.jpg</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/greenland-khong-phai-mo-vang-nhu-ong-trump-ky-vong-r51976912.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Người phất cờ quân giải phóng tại Dinh Độc Lập kể lại khoảnh khắc lịch sử</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_04_14_293_51977421/47edaef0cdbe24e07daf.jpg</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-phat-co-quan-giai-phong-tai-dinh-doc-lap-ke-lai-khoanh-khac-lich-su-r51977421.epi</t>
         </is>
       </c>
     </row>

--- a/data/raw-data/news.xlsx
+++ b/data/raw-data/news.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C522"/>
+  <dimension ref="A1:C750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9312,6 +9312,3882 @@
         </is>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Thủ tướng: Nâng cao chất lượng dịch vụ y tế, hướng tới mục tiêu miễn viện phí</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_608_52152342/cec85824e56a0c34557b.jpg</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-nang-cao-chat-luong-dich-vu-y-te-huong-toi-muc-tieu-mien-vien-phi-r52152342.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Tổng thống Vladimir Putin: Quyết định bầu chọn người kế nhiệm thuộc về người dân Nga</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_294_52150038/6408a2211e6ff731ae7e.jpg</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-vladimir-putin-quyet-dinh-bau-chon-nguoi-ke-nhiem-thuoc-ve-nguoi-dan-nga-r52150038.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Biên tập viên Quang Minh và MC Vân Hugo bị phạt nặng do vi phạm về quảng cáo</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_293_52150761/aff08acd3683dfdd8692.jpg</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bien-tap-vien-quang-minh-va-mc-van-hugo-bi-phat-nang-do-vi-pham-ve-quang-cao-r52150761.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Harry Kane vô địch cùng Bayern: Phá vỡ lời nguyền</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_23_52148949/336a5721eb6f02315b7e.jpg</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/harry-kane-vo-dich-cung-bayern-pha-vo-loi-nguyen-r52148949.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Tâm tình những người bám công trường cao tốc Cần Thơ - Cà Mau xuyên lễ</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_04_56_52143328/d5fb81a6c2e82bb672f9.jpg</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tam-tinh-nhung-nguoi-bam-cong-truong-cao-toc-can-tho-ca-mau-xuyen-le-r52143328.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Vụ tố 'nộp đủ tiền mới cấp cứu' ở Nam Định: Đình chỉ một số nhân viên y tế</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_608_52152118/0ee627009a4e73102a5f.jpg</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-to-nop-du-tien-moi-cap-cuu-o-nam-dinh-dinh-chi-mot-so-nhan-vien-y-te-r52152118.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Cô giáo nghi bị sát hại trên đường tới trường</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_15_52149776/1863fa43460daf53f61c.jpg</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-giao-nghi-bi-sat-hai-tren-duong-toi-truong-r52149776.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Sự thật thông tin tài xế bồi thường 1 tỷ cho gia đình nữ sinh tử vong ở Vĩnh Long</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_23_52151184/aafeb1160c58e506bc49.jpg</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/su-that-thong-tin-tai-xe-boi-thuong-1-ty-cho-gia-dinh-nu-sinh-tu-vong-o-vinh-long-r52151184.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Thăm bé trai bị xe chèn qua người, Bộ trưởng Đào Hồng Lan động viên gia đình 'hãy yên tâm'</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_309_52151188/1cad1bbea7f04eae17e1.jpg</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tham-be-trai-bi-xe-chen-qua-nguoi-bo-truong-dao-hong-lan-dong-vien-gia-dinh-hay-yen-tam-r52151188.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Ngã ngửa với ''sữa cỏ'': Quảng cáo rất bốc, chất lượng tù mù</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_608_52152116/354a19aca4e24dbc14f3.jpg</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nga-ngua-voi-sua-co-quang-cao-rat-boc-chat-luong-tu-mu-r52152116.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Thường trực Chính phủ cho ý kiến về nhiều nội dung quan trọng</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_04_146_52144962/daf2c9ea8aa463fa3ab5.jpg</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thuong-truc-chinh-phu-cho-y-kien-ve-nhieu-noi-dung-quan-trong-r52144962.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Cận cảnh SUV hiệu năng cao Aston Martin DBX S vừa ra mắt, mạnh 716 mã lực</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/can-canh-suv-hieu-nang-cao-aston-martin-dbx-s-vua-ra-mat-manh-716-ma-luc-r52151162.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Giá xăng dầu giảm nhẹ</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-xang-dau-giam-nhe-r52152336.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Khai mạc trọng thể Kỳ họp thứ chín, Quốc hội khóa XV: Kỳ họp có ý nghĩa lịch sử, đưa đất nước bước vào kỷ nguyên phát triển mới</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_16_52149216/c10b505bec15054b5c04.jpg</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khai-mac-trong-the-ky-hop-thu-chin-quoc-hoi-khoa-xv-ky-hop-co-y-nghia-lich-su-dua-dat-nuoc-buoc-vao-ky-nguyen-phat-trien-moi-r52149216.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Tổng Bí thư: Lắng nghe ý kiến cử tri khi sửa đổi, bổ sung Hiến pháp</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-bi-thu-lang-nghe-y-kien-cu-tri-khi-sua-doi-bo-sung-hien-phap-r52151548.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Đề xuất 2 nhóm nội dung trọng tâm sửa đổi, bổ sung Hiến pháp 2013</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/de-xuat-2-nhom-noi-dung-trong-tam-sua-doi-bo-sung-hien-phap-2013-r52151716.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Ngắm 'dải lụa trắng' Phi Liêng giữa rừng già Tây Nguyên</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_04_465_52145017/9d17f706b4485d160459.jpg</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngam-dai-lua-trang-phi-lieng-giua-rung-gia-tay-nguyen-r52145017.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Vụ nữ sinh tử vong ở Vĩnh Long: Nhiều nhân chứng hiện trường lên tiếng</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-nu-sinh-tu-vong-o-vinh-long-nhieu-nhan-chung-hien-truong-len-tieng-r52149581.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Tình trạng nghệ sĩ Thương Tín</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tinh-trang-nghe-si-thuong-tin-r52150974.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Chưa có ai giỏi như Đoàn Văn Hậu</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chua-co-ai-gioi-nhu-doan-van-hau-r52151148.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Xử phạt BTV Quang Minh 37,5 triệu đồng, MC Vân Hugo 70 triệu đồng</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xu-phat-btv-quang-minh-37-5-trieu-dong-mc-van-hugo-70-trieu-dong-r52151582.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>CLIP: Tiết lộ bất ngờ của người đưa bé gái bị tai nạn giao thông ở Vĩnh Long đi cấp cứu</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-tiet-lo-bat-ngo-cua-nguoi-dua-be-gai-bi-tai-nan-giao-thong-o-vinh-long-di-cap-cuu-r52151008.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Vụ nộp đủ tiền mới cấp cứu: Bệnh viện nhận trách nhiệm, đình chỉ nhân viên có liên quan</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_114_52151337/f294fa8046ceaf90f6df.jpg</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-nop-du-tien-moi-cap-cuu-benh-vien-nhan-trach-nhiem-dinh-chi-nhan-vien-co-lien-quan-r52151337.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Nổ lớn rung chuyển tòa chung cư ở Mátxcơva</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_20_52148918/d9907dd8c19628c87187.jpg</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/no-lon-rung-chuyen-toa-chung-cu-o-matxcova-r52148918.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Tập trung điều trị, chăm sóc tốt nhất cho cháu bé bị công nông cán qua người tại Nam Định</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tap-trung-dieu-tri-cham-soc-tot-nhat-cho-chau-be-bi-cong-nong-can-qua-nguoi-tai-nam-dinh-r52151116.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Bên trong những ngôi chùa tôn trí xá lợi Đức Phật tại Vesak 2025</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_119_52151492/b8974f83f3cd1a9343dc.jpg</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ben-trong-nhung-ngoi-chua-ton-tri-xa-loi-duc-phat-tai-vesak-2025-r52151492.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Vụ bé trai bị từ chối cấp cứu vì chưa đóng đủ viện phí: Tạm đình chỉ một số nhân viên y tế</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-be-trai-bi-tu-choi-cap-cuu-vi-chua-dong-du-vien-phi-tam-dinh-chi-mot-so-nhan-vien-y-te-r52151651.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Chiêm ngưỡng vườn đỗ quyên trong Công viên hoàng gia Richmond tại Anh</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_293_52149040/115f0f13b35d5a03034c.jpg</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chiem-nguong-vuon-do-quyen-trong-cong-vien-hoang-gia-richmond-tai-anh-r52149040.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Chính thức vận hành chuyến tàu đặc biệt 'Hoa Phượng Đỏ' tuyến Hà Nội – Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chinh-thuc-van-hanh-chuyen-tau-dac-biet-hoa-phuong-do-tuyen-ha-noi-hai-phong-r52151620.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Tập trung phát triển kinh tế - xã hội, cải thiện đời sống của nhân dân</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tap-trung-phat-trien-kinh-te-xa-hoi-cai-thien-doi-song-cua-nhan-dan-r52150768.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Bé sơ sinh bị ném xuống giếng: Lộ chuyện cặp đôi yêu 8 năm từng 3 lần phá thai, người mẹ khóc lóc xin sửa sai</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/be-so-sinh-bi-nem-xuong-gieng-lo-chuyen-cap-doi-yeu-8-nam-tung-3-lan-pha-thai-nguoi-me-khoc-loc-xin-sua-sai-r52150690.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Thủ tướng Phạm Minh Chính: Đã đề xuất Bộ Chính trị, Quốc hội gỡ vướng cho hơn 2.200 dự án</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-pham-minh-chinh-da-de-xuat-bo-chinh-tri-quoc-hoi-go-vuong-cho-hon-2-200-du-an-r52149173.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Tổng thống Putin: Quyết định bầu chọn người kế nhiệm thuộc về người dân Nga</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-putin-quyet-dinh-bau-chon-nguoi-ke-nhiem-thuoc-ve-nguoi-dan-nga-r52150249.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Chiến đấu cơ Thổ Nhĩ Kỳ xuất kích sẵn sàng bắn hạ tiêm kích Israel tấn công Syria?</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chien-dau-co-tho-nhi-ky-xuat-kich-san-sang-ban-ha-tiem-kich-israel-tan-cong-syria-r52149893.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Kiến nghị về nâng mức xử phạt đối với hành vi điều khiển xe máy khi chưa đủ tuổi</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/kien-nghi-ve-nang-muc-xu-phat-doi-voi-hanh-vi-dieu-khien-xe-may-khi-chua-du-tuoi-r52151681.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Xe tang cháy ngùn ngụt trên cao tốc Nội Bài - Lào Cai</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_83_52151636/5cb81aa3a6ed4fb316fc.jpg</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xe-tang-chay-ngun-ngut-tren-cao-toc-noi-bai-lao-cai-r52151636.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Cây xanh chết bất thường giữa TP Quảng Ngãi, nghi bị đầu độc bằng hóa chất</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w300_r3x2/2025_05_05_114_52151585/8186be9f02d1eb8fb2c0.jpg</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cay-xanh-chet-bat-thuong-giua-tp-quang-ngai-nghi-bi-dau-doc-bang-hoa-chat-r52151585.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>10 ngày tới, 4 tuổi đạt đỉnh sự nghiệp, cuối tháng giàu vỡ két</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52150997/1e503f54831a6a44330b.jpg</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/10-ngay-toi-4-tuoi-dat-dinh-su-nghiep-cuoi-thang-giau-vo-ket-r52150997.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Tài xế ô tô tử vong khi lao vào đuôi xe tải đang lùi trên quốc lộ</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52151345/b0d8fac84686afd8f697.jpg</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tai-xe-o-to-tu-vong-khi-lao-vao-duoi-xe-tai-dang-lui-tren-quoc-lo-r52151345.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Võ Hạ Trâm lên tiếng</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52150560/da780c4cb002595c0013.jpg</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vo-ha-tram-len-tieng-r52150560.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Diễn biến mới vụ làm giả giấy tờ để xin cấp chứng chỉ hành nghề cho bác sĩ</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_20_52151463/e20f201a9c54750a2c45.jpg</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dien-bien-moi-vu-lam-gia-giay-to-de-xin-cap-chung-chi-hanh-nghe-cho-bac-si-r52151463.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Lễ thượng cờ Phật giáo tại đại lễ Vesak 2025</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52151638/99e24602fb4c12124b5d.jpg</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/le-thuong-co-phat-giao-tai-dai-le-vesak-2025-r52151638.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Xuất hiện vết nứt kéo dài, tạm dừng lưu thông qua cầu Ka Long</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_20_52151598/228e9f9723d9ca8793c8.jpg</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/xuat-hien-vet-nut-keo-dai-tam-dung-luu-thong-qua-cau-ka-long-r52151598.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Giá vàng thế giới giảm mạnh, trong nước giảm nhẹ, người dân vẫn ồ ạt đi mua</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_65_52150778/1f680a54b61a5f44060b.jpg</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gia-vang-the-gioi-giam-manh-trong-nuoc-giam-nhe-nguoi-dan-van-o-at-di-mua-r52150778.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Dạo chơi trong công viên, người đàn ông nhặt được viên kim cương quý giá</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52151341/db21e831547fbd21e46e.jpg</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dao-choi-trong-cong-vien-nguoi-dan-ong-nhat-duoc-vien-kim-cuong-quy-gia-r52151341.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Ông Trump nói 4 năm là đủ thời gian để làm điều gì đó 'thực sự ngoạn mục'</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_296_52151762/bc39ee25526bbb35e27a.jpg</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ong-trump-noi-4-nam-la-du-thoi-gian-de-lam-dieu-gi-do-thuc-su-ngoan-muc-r52151762.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Sai phạm đất rừng 'treo' suốt 15 năm tại một địa phương ở Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52151593/d3498b50371ede40870f.jpg</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/sai-pham-dat-rung-treo-suot-15-nam-tai-mot-dia-phuong-o-quang-binh-r52151593.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Quy trình sửa đổi, bổ sung Hiến pháp đảm bảo chặt chẽ, cẩn trọng</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_17_52152295/34e85905e44b0d15545a.jpg</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quy-trinh-sua-doi-bo-sung-hien-phap-dam-bao-chat-che-can-trong-r52152295.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Vụ nộp đủ tiền mới cấp cứu bé trai bị tai nạn giao thông: Bộ trưởng Y tế Đào Hồng Lan nói gì?</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-nop-du-tien-moi-cap-cuu-be-trai-bi-tai-nan-giao-thong-bo-truong-y-te-dao-hong-lan-noi-gi-r52151135.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Dự kiến lộ trình tinh giản 1.557 biên chế cấp xã của Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/du-kien-lo-trinh-tinh-gian-1-557-bien-che-cap-xa-cua-hung-yen-r52151666.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Hải Phòng hợp luyện diễu hành kỷ niệm 70 năm ngày giải phóng</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hai-phong-hop-luyen-dieu-hanh-ky-niem-70-nam-ngay-giai-phong-r52151797.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>10 đổi mới quan trọng của Luật Khoa học Công nghệ (sửa đổi)</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52151667/c9a689b935f7dca985e6.jpg</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/10-doi-moi-quan-trong-cua-luat-khoa-hoc-cong-nghe-sua-doi-r52151667.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>TP Hồ Chí Minh: Xử phạt nhiều công ty vi phạm trong quảng cáo, kinh doanh mỹ phẩm</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52151639/4f2e1c35a07b4925106a.jpg</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-ho-chi-minh-xu-phat-nhieu-cong-ty-vi-pham-trong-quang-cao-kinh-doanh-my-pham-r52151639.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Cục Người có công khẳng định không có 'liệt sĩ 6 tuổi' như thông tin trên mạng</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_05_05_114_52151155/973baf31137ffa21a36e.jpg</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cuc-nguoi-co-cong-khang-dinh-khong-co-liet-si-6-tuoi-nhu-thong-tin-tren-mang-r52151155.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Thầy giáo trẻ gục chết ngay tại văn phòng sau nhiều đêm thức trắng vì deadline</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_625_52149243/a20bf2584e16a748fe07.jpg</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thay-giao-tre-guc-chet-ngay-tai-van-phong-sau-nhieu-dem-thuc-trang-vi-deadline-r52149243.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Người phụ nữ xin nước uống rồi tiện tay trộm cái bàn của quán cà phê</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52151487/84795b6de7230e7d5732.jpg</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-phu-nu-xin-nuoc-uong-roi-tien-tay-trom-cai-ban-cua-quan-ca-phe-r52151487.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Đại tướng Phan Văn Giang chủ trì Hội nghị xây dựng dự án luật về lĩnh vực quân sự, quốc phòng</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_16_52151105/bbf7d4ff68b181efd8a0.jpg</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-tuong-phan-van-giang-chu-tri-hoi-nghi-xay-dung-du-an-luat-ve-linh-vuc-quan-su-quoc-phong-r52151105.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Bên trong chiếc máy bay cũ Mỹ mua lại để thay thế Không lực Một của ông Trump</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ben-trong-chiec-may-bay-cu-my-mua-lai-de-thay-the-khong-luc-mot-cua-ong-trump-r52151569.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Tổng Bí thư Tô Lâm và Phu nhân rời Hà Nội, lên đường thăm bốn nước</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_20_52151204/2f727964c52a2c74753b.jpg</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-bi-thu-to-lam-va-phu-nhan-roi-ha-noi-len-duong-tham-bon-nuoc-r52151204.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Top sự thật khó tin về loài nhện đáng sợ nhất thế giới</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52151503/af1b8c0c3042d91c8053.jpg</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/top-su-that-kho-tin-ve-loai-nhen-dang-so-nhat-the-gioi-r52151503.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>iPhone 18 sẽ có thay đổi lịch sử</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52151708/7b962b8b97c57e9b27d4.jpg</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/iphone-18-se-co-thay-doi-lich-su-r52151708.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Lịch thi đấu và trực tiếp bán kết lượt về Cúp C1 châu Âu 2024/2025</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_65_52151360/e55da2bb1ff5f6abafe4.jpg</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lich-thi-dau-va-truc-tiep-ban-ket-luot-ve-cup-c1-chau-au-2024-2025-r52151360.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Cuộc chia tay âm thầm giữa người dân Mỹ và chiếc ô tô</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_309_52151668/c012a9081546fc18a557.jpg</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cuoc-chia-tay-am-tham-giua-nguoi-dan-my-va-chiec-o-to-r52151668.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Cầu Phước Khánh trên tuyến cao tốc Bến Lức - Long Thành chính thức thi công trở lại</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cau-phuoc-khanh-tren-tuyen-cao-toc-ben-luc-long-thanh-chinh-thuc-thi-cong-tro-lai-r52151390.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Hé lộ ảnh cận cảnh xuồng không người lái Ukraine gắn tên lửa Mỹ</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/he-lo-anh-can-canh-xuong-khong-nguoi-lai-ukraine-gan-ten-lua-my-r52151344.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Quốc hội khóa XV: Cử tri đồng thuận cao về cuộc cách mạng tinh gọn bộ máy</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quoc-hoi-khoa-xv-cu-tri-dong-thuan-cao-ve-cuoc-cach-mang-tinh-gon-bo-may-r52151422.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Điều tra nguyên nhân vụ nổ khiến 1 người chết, 3 người bị thương</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dieu-tra-nguyen-nhan-vu-no-khien-1-nguoi-chet-3-nguoi-bi-thuong-r52151297.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Đại kỳ Phật giáo lớn nhất thế giới tung bay tại Đại lễ Vesak 2025</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_65_52151517/2b238b383776de288767.jpg</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-ky-phat-giao-lon-nhat-the-gioi-tung-bay-tai-dai-le-vesak-2025-r52151517.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Nhân viên sửa chữa điều hòa hoảng sợ bỏ chạy khi bình gas bất ngờ phát nổ như bom</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/16b4d28a57c7be99e7d6.png</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhan-vien-sua-chua-dieu-hoa-hoang-so-bo-chay-khi-binh-gas-bat-ngo-phat-no-nhu-bom-r52151203.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Cảnh báo của công an về ưu đãi 'phòng 5 sao giá 500.000 đồng/đêm'</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52151290/e60f5d01e14f0811515e.jpg</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/canh-bao-cua-cong-an-ve-uu-dai-phong-5-sao-gia-500-000-dong-dem-r52151290.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Nghị quyết 68 của Bộ Chính trị: Phải xóa bỏ triệt để định kiến về kinh tế tư nhân Việt Nam</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150176/3364fa70463eaf60f62f.jpg</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nghi-quyet-68-cua-bo-chinh-tri-phai-xoa-bo-triet-de-dinh-kien-ve-kinh-te-tu-nhan-viet-nam-r52150176.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Tăng trưởng GDP quý I/2025 ước đạt 6,93%</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_207_52151559/9d8126979ad973872ac8.jpg</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tang-truong-gdp-quy-i-2025-uoc-dat-6-93-r52151559.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Nam Định chấn chỉnh tình trạng cán bộ thờ ơ, vô cảm với dân</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_05_05_65_52151480/822513c5ae8b47d51e9a.jpg</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-dinh-chan-chinh-tinh-trang-can-bo-tho-o-vo-cam-voi-dan-r52151480.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Đồng USD suy yếu, thị trường tài chính biến động mạnh</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_293_52151646/23df51c4ed8a04d45d9b.jpg</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dong-usd-suy-yeu-thi-truong-tai-chinh-bien-dong-manh-r52151646.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Lịch âm 6/5 - Âm lịch hôm nay 6/5 chính xác nhất - lịch vạn niên 6/5/2025</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52151245/6627a32b1f65f63baf74.jpg</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lich-am-6-5-am-lich-hom-nay-6-5-chinh-xac-nhat-lich-van-nien-6-5-2025-r52151245.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2 loại rau ít 'ngậm' thuốc trừ sâu nhất chợ, nhất là cái số 1 ở quê mọc đầy</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_296_52151146/acb360b8dcf635a86ce7.jpg</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/2-loai-rau-it-ngam-thuoc-tru-sau-nhat-cho-nhat-la-cai-so-1-o-que-moc-day-r52151146.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Bản quyền âm nhạc: Bài toán khó TikTok buộc phải giải nếu không muốn 'vỡ trận'</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52151567/6b6ea8781436fd68a427.jpg</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ban-quyen-am-nhac-bai-toan-kho-tiktok-buoc-phai-giai-neu-khong-muon-vo-tran-r52151567.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Toàn cảnh lâu đài lớn nhất Đông Nam Á ở Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52151092/597fb8760438ed66b429.jpg</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/toan-canh-lau-dai-lon-nhat-dong-nam-a-o-ninh-binh-r52151092.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Bí ẩn ngọn núi thiêng cấm phụ nữ, đàn ông không có râu suốt hơn 1.000 năm</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52151568/8f09541fe851010f5840.jpg</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bi-an-ngon-nui-thieng-cam-phu-nu-dan-ong-khong-co-rau-suot-hon-1-000-nam-r52151568.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Giới trẻ độc thân Trung Quốc tìm người yêu qua livestream</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_20_52151510/00f83aef86a16fff36b0.jpg</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/gioi-tre-doc-than-trung-quoc-tim-nguoi-yeu-qua-livestream-r52151510.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Toàn văn Nghị quyết số 68-NQ/TW của Bộ Chính trị về phát triển kinh tế tư nhân</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_65_52151019/529f668bdac5339b6ad4.jpg</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/toan-van-nghi-quyet-so-68-nq-tw-cua-bo-chinh-tri-ve-phat-trien-kinh-te-tu-nhan-r52151019.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Lý do bất động sản thương mại tại lõi trung tâm tăng nhiệt trên toàn cầu</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_341_52151310/19234b32f77c1e22476d.jpg</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ly-do-bat-dong-san-thuong-mai-tai-loi-trung-tam-tang-nhiet-tren-toan-cau-r52151310.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Amorim thừa nhận đáng lo ngại về Champions League</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52151104/35e858e0e4ae0df054bf.jpg</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/amorim-thua-nhan-dang-lo-ngai-ve-champions-league-r52151104.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Đề xuất thu phí cao tốc Bến Lức - Long Thành giá 2.000 đồng/km</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/de-xuat-thu-phi-cao-toc-ben-luc-long-thanh-gia-2-000-dong-km-r52151277.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Con gái trộm vàng, điện thoại của mẹ đưa bạn trai đem bán</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/con-gai-trom-vang-dien-thoai-cua-me-dua-ban-trai-dem-ban-r52151078.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Hợp nhất tỉnh Bạc Liêu và Cà Mau: Phát huy tiềm năng, thế mạnh địa phương</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hop-nhat-tinh-bac-lieu-va-ca-mau-phat-huy-tiem-nang-the-manh-dia-phuong-r52151470.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Tại sao Đông Nam Á đặt cược lớn vào ngành công nghiệp bán dẫn?</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_3_52151703/8720d83d64738d2dd462.jpg</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tai-sao-dong-nam-a-dat-cuoc-lon-vao-nganh-cong-nghiep-ban-dan-r52151703.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Trái Đất lộ ra hàng loạt mặt trăng mới?</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52150968/b7564f54f31a1a44430b.jpg</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trai-dat-lo-ra-hang-loat-mat-trang-moi-r52150968.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Vì sao một số kiến nghị của cử tri còn chậm được giải quyết?</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52151321/6314f0054c4ba515fc5a.jpg</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vi-sao-mot-so-kien-nghi-cua-cu-tri-con-cham-duoc-giai-quyet-r52151321.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>14 giờ phẫu thuật cứu thiếu nữ mắc bệnh hiếm, 10 năm chỉ ghi nhận 3 ca</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52151689/3c23dc3960778929d066.jpg</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/14-gio-phau-thuat-cuu-thieu-nu-mac-benh-hiem-10-nam-chi-ghi-nhan-3-ca-r52151689.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Hà Nội kiểm tra nhà 'siêu mỏng, siêu méo' trên đường Nguyễn Tuân mở rộng</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_20_52151378/a6fe57eeeba002fe5bb1.jpg</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-noi-kiem-tra-nha-sieu-mong-sieu-meo-tren-duong-nguyen-tuan-mo-rong-r52151378.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Năm mục tiêu chiến lược của Mỹ đằng sau thỏa thuận khoáng sản ký với Ukraine</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_05_05_294_52151442/8c3bc22e7e60973ece71.jpg</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-muc-tieu-chien-luoc-cua-my-dang-sau-thoa-thuan-khoang-san-ky-voi-ukraine-r52151442.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Ca sĩ Hồng Hạnh thông báo ly hôn chồng doanh nhân hơn 18 tuổi</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52150418/4b5ef86e4420ad7ef431.jpg</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ca-si-hong-hanh-thong-bao-ly-hon-chong-doanh-nhan-hon-18-tuoi-r52150418.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Thu ngân sách 4 tháng đầu năm 2025 tăng 26,3% so cùng kỳ năm trước</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_3_52151131/6e0f4404f84a1114485b.jpg</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-ngan-sach-4-thang-dau-nam-2025-tang-26-3-so-cung-ky-nam-truoc-r52151131.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Những đối tượng sẽ bị tạm dừng chi trả lương hưu, trợ cấp bảo hiểm xã hội</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_106_52151159/57190f13b35d5a03034c.jpg</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhung-doi-tuong-se-bi-tam-dung-chi-tra-luong-huu-tro-cap-bao-hiem-xa-hoi-r52151159.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Ứng đủ tiền mới cấp cứu: Sự vô cảm không thể chấp nhận trong y đức</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52150764/bb1d0a0ab6445f1a0655.jpg</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ung-du-tien-moi-cap-cuu-su-vo-cam-khong-the-chap-nhan-trong-y-duc-r52150764.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Quy mô kinh tế năm nay dự kiến vượt 500 tỷ USD, vào top 30 thế giới</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52151278/cb93a68b1ac5f39baad4.jpg</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quy-mo-kinh-te-nam-nay-du-kien-vuot-500-ty-usd-vao-top-30-the-gioi-r52151278.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Ái nữ Minh Nhựa bụng bầu vượt mặt vẫn cực cuốn hút</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52151313/4ec939d885966cc83587.jpg</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ai-nu-minh-nhua-bung-bau-vuot-mat-van-cuc-cuon-hut-r52151313.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Bình Dương khai thác 'báu vật' bị lãng quên</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_20_52151248/56e3a5ef19a1f0ffa9b0.jpg</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/binh-duong-khai-thac-bau-vat-bi-lang-quen-r52151248.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Nguy cơ xung đột hạt nhân 'ngủ quên' giữa Ấn Độ và Pakistan trỗi dậy sau 6 năm</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_309_52151431/79417654ca1a23447a0b.jpg</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguy-co-xung-dot-hat-nhan-ngu-quen-giua-an-do-va-pakistan-troi-day-sau-6-nam-r52151431.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>ĐH Nông Lâm TP HCM: Gói thầu sửa chữa khu nội trú tiết kiệm được 17 triệu đồng</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dh-nong-lam-tp-hcm-goi-thau-sua-chua-khu-noi-tru-tiet-kiem-duoc-17-trieu-dong-r52151371.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Công an xác minh vụ Bệnh viện Đa khoa Nam Định bị tố 'nộp đủ tiền mới cấp cứu'</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cong-an-xac-minh-vu-benh-vien-da-khoa-nam-dinh-bi-to-nop-du-tien-moi-cap-cuu-r52150639.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Cây bồ đề chiết từ Bồ đề thiêng sẽ được trồng tại Học viện Phật giáo Việt Nam, TP HCM</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cay-bo-de-chiet-tu-bo-de-thieng-se-duoc-trong-tai-hoc-vien-phat-giao-viet-nam-tp-hcm-r52151095.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Tự ý dùng phương tiện cá nhân chặn đường giao thông, xử lý hành chính hay hình sự?</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_236_52151545/17736a65d62b3f75663a.jpg</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tu-y-dung-phuong-tien-ca-nhan-chan-duong-giao-thong-xu-ly-hanh-chinh-hay-hinh-su-r52151545.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Vụ nữ sinh tử vong ở Vĩnh Long: Hai biên bản hiện trường có 'bất thường'?</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52150123/aa0ce6265a68b336ea79.jpg</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vu-nu-sinh-tu-vong-o-vinh-long-hai-bien-ban-hien-truong-co-bat-thuong-r52150123.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Nguyện vọng lớn nhất đời Tần Thủy Hoàng đến chết vẫn không đạt được là gì?</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52150953/c0a15da3e1ed08b351fc.jpg</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguyen-vong-lon-nhat-doi-tan-thuy-hoang-den-chet-van-khong-dat-duoc-la-gi-r52150953.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>3 mẫu xe Ford khiến tài xế 'ôm hận' sau khi xuống tiền</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52151343/c8d681c63d88d4d68d99.jpg</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/3-mau-xe-ford-khien-tai-xe-om-han-sau-khi-xuong-tien-r52151343.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Chi tiết CFMoto 675NK - naked bike từ Trung Quốc, chưa chốt giá bán</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52151493/9bb482a33eedd7b38efc.jpg</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chi-tiet-cfmoto-675nk-naked-bike-tu-trung-quoc-chua-chot-gia-ban-r52151493.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Cơ quan thuế cảnh báo nguy cơ tạm hoãn xuất cảnh do nợ thuế</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52150860/6749fa484606af58f617.jpg</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-quan-thue-canh-bao-nguy-co-tam-hoan-xuat-canh-do-no-thue-r52150860.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Ông Phan Văn Mãi: Lễ diễu binh, diễu hành khơi dậy khát vọng xây dựng đất nước phồn vinh</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52150314/598eb7a00beee2b0bbff.jpg</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ong-phan-van-mai-le-dieu-binh-dieu-hanh-khoi-day-khat-vong-xay-dung-dat-nuoc-phon-vinh-r52150314.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Ngày đầu tiên vận hành hệ thống KRX: Thị trường khởi sắc nhưng còn trục trặc nhỏ</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52150917/b297c59479da9084c9cb.jpg</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngay-dau-tien-van-hanh-he-thong-krx-thi-truong-khoi-sac-nhung-con-truc-trac-nho-r52150917.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Bộ Công an có thư khen và thưởng 6 tập thể Công an TP.HCM</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150862/cec05cc1e08f09d1509e.jpg</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-cong-an-co-thu-khen-va-thuong-6-tap-the-cong-an-tp-hcm-r52150862.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Cole Palmer phản pháo chỉ trích sau bàn thắng hạ Liverpool</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52151018/345ed25a6e14874ade05.jpg</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cole-palmer-phan-phao-chi-trich-sau-ban-thang-ha-liverpool-r52151018.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Bảng giá ô tô Land Rover mới nhất tháng 5/2025</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52151244/dee92ae596ab7ff526ba.jpg</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bang-gia-o-to-land-rover-moi-nhat-thang-5-2025-r52151244.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Karen Nguyễn trở lại ấn tượng trong phim kinh dị</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52151137/13ed82e63ea8d7f68eb9.jpg</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/karen-nguyen-tro-lai-an-tuong-trong-phim-kinh-di-r52151137.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Truy tìm ẩn ý trong tranh lụa của Nguyễn Thu Hương</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52151138/7c2aee21526fbb31e27e.jpg</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/truy-tim-an-y-trong-tranh-lua-cua-nguyen-thu-huong-r52151138.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Công Phượng đối diện nỗi buồn lớn nhất sự nghiệp</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_329_52151006/14684f6cf3221a7c4333.jpg</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cong-phuong-doi-dien-noi-buon-lon-nhat-su-nghiep-r52151006.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Bắt giữ 2 người liên quan vụ nổ tại cảng của Iran</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bat-giu-2-nguoi-lien-quan-vu-no-tai-cang-cua-iran-r52151357.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Cử tri bất bình về tình trạng sữa giả, thuốc giả, thực phẩm kém chất lượng</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cu-tri-bat-binh-ve-tinh-trang-sua-gia-thuoc-gia-thuc-pham-kem-chat-luong-r52150580.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Trường đại học bỏ quy định cộng 3 điểm cho thí sinh có IELTS từ 4.0</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/truong-dai-hoc-bo-quy-dinh-cong-3-diem-cho-thi-sinh-co-ielts-tu-4-0-r52151183.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Thủ tướng Australia và Tổng thống Mỹ Trump thảo luận về an ninh và thuế quan</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-australia-va-tong-thong-my-trump-thao-luan-ve-an-ninh-va-thue-quan-r52151425.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Solskjaer phản ứng trước khó khăn của MU</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150866/4671b870043eed60b42f.jpg</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/solskjaer-phan-ung-truoc-kho-khan-cua-mu-r52150866.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Robot hình người: Tham vọng công nghiệp mới của Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_181_52151892/baa41c45a10b4855111a.jpg</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/robot-hinh-nguoi-tham-vong-cong-nghiep-moi-cua-trung-quoc-r52151892.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Tài sản đã chia xong, con riêng có được quyền đòi hưởng thừa kế không?</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52151017/0861c2657e2b9775ce3a.jpg</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tai-san-da-chia-xong-con-rieng-co-duoc-quyen-doi-huong-thua-ke-khong-r52151017.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Cả nước còn khoảng 60.000 biên chế được giao chưa tuyển dụng</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52151103/4c2b1e23a26d4b33127c.jpg</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ca-nuoc-con-khoang-60-000-bien-che-duoc-giao-chua-tuyen-dung-r52151103.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Cử tri và Nhân dân bày tỏ đồng thuận, ủng hộ cao với các chủ trương lớn của Đảng và nhà nước</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_624_52150784/6a9d50a1ecef05b15cfe.jpg</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cu-tri-va-nhan-dan-bay-to-dong-thuan-ung-ho-cao-voi-cac-chu-truong-lon-cua-dang-va-nha-nuoc-r52150784.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Tổng thống Zelensky: Ukraine có thể ngừng bắn với Nga bất cứ lúc nào</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_5_52150647/d3452e73923d7b63222c.jpg</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-zelensky-ukraine-co-the-ngung-ban-voi-nga-bat-cu-luc-nao-r52150647.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Đà Lạt: Hơn 160 ô tô bị phạt nguội, nhiều biển báo giao thông bị che khuất</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_17_52151432/5c5ef1494d07a459fd16.jpg</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/da-lat-hon-160-o-to-bi-phat-nguoi-nhieu-bien-bao-giao-thong-bi-che-khuat-r52151432.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Đồng Nai: Mời thầu gói xây lắp Trạm biến áp 500kV Đồng Nai 2</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_522_52151256/9345d44a6804815ad815.jpg</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dong-nai-moi-thau-goi-xay-lap-tram-bien-ap-500kv-dong-nai-2-r52151256.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Mạch máu càng trẻ, càng sống lâu: Bác sĩ chỉ cách kiểm tra và làm sạch mạch máu</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52151419/c0d3b4c1088fe1d1b89e.jpg</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/mach-mau-cang-tre-cang-song-lau-bac-si-chi-cach-kiem-tra-va-lam-sach-mach-mau-r52151419.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Người đàn ông bị bắt sau 4 ngày trúng số độc đắc hơn 4.300 tỷ đồng</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52148946/c0d392982ed6c7889ec7.jpg</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-dan-ong-bi-bat-sau-4-ngay-trung-so-doc-dac-hon-4-300-ty-dong-r52148946.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Ca tử vong nghi do bệnh dại đầu tiên trong năm 2025 tại Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52152001/94c6a7241a6af334aa7b.jpg</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ca-tu-vong-nghi-do-benh-dai-dau-tien-trong-nam-2025-tai-ba-ria-vung-tau-r52152001.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Liên minh châu Âu tích cực 'chiêu hiền, đãi sỹ' từ Mỹ</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_293_52151141/5470fa7b4635af6bf624.jpg</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lien-minh-chau-au-tich-cuc-chieu-hien-dai-sy-tu-my-r52151141.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Cháy tiệm thuốc tây trên đường Vườn Lài, 2 người thoát nạn</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150760/979ab7a70be9e2b7bbf8.jpg</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chay-tiem-thuoc-tay-tren-duong-vuon-lai-2-nguoi-thoat-nan-r52150760.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Chân dung đối tượng cướp tài sản, hiếp dâm phụ nữ đi qua đoạn đường vắng</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_106_52149477/693e0166bd2854760d39.jpg</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chan-dung-doi-tuong-cuop-tai-san-hiep-dam-phu-nu-di-qua-doan-duong-vang-r52149477.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Mỹ lấp lỗ hổng thuế quan, Temu tuyên bố thay đổi chiến thuật</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/my-lap-lo-hong-thue-quan-temu-tuyen-bo-thay-doi-chien-thuat-r52151215.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Đội tuyển nữ Việt Nam hội quân, hướng tới các nhiệm vụ trọng điểm năm 2025</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/doi-tuyen-nu-viet-nam-hoi-quan-huong-toi-cac-nhiem-vu-trong-diem-nam-2025-r52151291.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Ca sĩ Tùng Dương xúc động hát Quốc ca giữa rừng cờ đỏ sao vàng tại Nhật</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ca-si-tung-duong-xuc-dong-hat-quoc-ca-giua-rung-co-do-sao-vang-tai-nhat-r52150867.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Phát hiện voi con chết dưới giếng ở Đồng Nai... loài cực nguy cấp</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52150885/4398d89864d68d88d4c7.jpg</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phat-hien-voi-con-chet-duoi-gieng-o-dong-nai-loai-cuc-nguy-cap-r52150885.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Khám phá Trường thành nước ở ngoại ô thủ đô Bắc Kinh, Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_14_52151581/e41fd1066d488416dd59.jpg</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/kham-pha-truong-thanh-nuoc-o-ngoai-o-thu-do-bac-kinh-trung-quoc-r52151581.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Doanh nghiệp Mỹ điều chỉnh kế hoạch đầu tư theo chiến lược 'Nước Mỹ trước tiên'</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52150960/4196859439dad08489cb.jpg</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/doanh-nghiep-my-dieu-chinh-ke-hoach-dau-tu-theo-chien-luoc-nuoc-my-truoc-tien-r52150960.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Có ít rau ngổ còn bổ hơn thuốc</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_94_52151629/b39997822bccc2929bdd.jpg</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/co-it-rau-ngo-con-bo-hon-thuoc-r52151629.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Tồn trữ đồng của Trung Quốc có nguy cơ cạn kiệt vì thuế quan Mỹ</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_3_52151130/a5d3b2d80e96e7c8be87.jpg</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ton-tru-dong-cua-trung-quoc-co-nguy-co-can-kiet-vi-thue-quan-my-r52151130.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Chốt thời gian thông xe hầm chui HC1 ở nút giao hiện đại nhất TP.HCM</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_236_52151672/5261c77b7b35926bcb24.jpg</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chot-thoi-gian-thong-xe-ham-chui-hc1-o-nut-giao-hien-dai-nhat-tp-hcm-r52151672.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Bình Dương: Cty Bảo Sơn Phúc, 1 ngày được chỉ định 2 gói thầu</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_05_05_180_52151372/9eb465a4d9ea30b469fb.jpg</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/binh-duong-cty-bao-son-phuc-1-ngay-duoc-chi-dinh-2-goi-thau-r52151372.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Đối thủ của MU tổn thất nặng nề</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52150316/20263417885961073848.jpg</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/doi-thu-cua-mu-ton-that-nang-ne-r52150316.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Năm 2025, cha mẹ muốn sang tên sổ đỏ cho con nhất định phải biết những quy định này</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_625_52148023/cd7f310c8d42641c3d53.jpg</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nam-2025-cha-me-muon-sang-ten-so-do-cho-con-nhat-dinh-phai-biet-nhung-quy-dinh-nay-r52148023.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Đại sứ Nga nêu ý nghĩa việc mời quân đội Việt Nam duyệt binh Ngày Chiến thắng</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52150455/4ae942dbfe9517cb4e84.jpg</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dai-su-nga-neu-y-nghia-viec-moi-quan-doi-viet-nam-duyet-binh-ngay-chien-thang-r52150455.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Đường tránh Buôn Ma Thuột: Hạn chót 15/5 giải phóng mặt bằng</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_236_52151460/3b6ef67b4a35a36bfa24.jpg</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/duong-tranh-buon-ma-thuot-han-chot-15-5-giai-phong-mat-bang-r52151460.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Danh tính của bạn đáng giá bao nhiêu?</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_595_52151067/04c688ce3480ddde8491.jpg</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/danh-tinh-cua-ban-dang-gia-bao-nhieu-r52151067.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>'Flex' có mẹ làm công an, hot girl Bảo Khuyên khiến fan xuýt xoa</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52151093/a5384e31f27f1b21426e.jpg</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/flex-co-me-lam-cong-an-hot-girl-bao-khuyen-khien-fan-xuyt-xoa-r52151093.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>TPHCM sẵn sàng cho Đại lễ Vesak Liên Hợp Quốc lần thứ 20</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tphcm-san-sang-cho-dai-le-vesak-lien-hop-quoc-lan-thu-20-r52151332.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Cột mốc chủ quyền - Biểu tượng thiêng liêng ở Quần đảo Trường Sa</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cot-moc-chu-quyen-bieu-tuong-thieng-lieng-o-quan-dao-truong-sa-r52151118.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Novaland chi 1.400 tỷ mua công ty sở hữu suối nước nóng Bình Châu</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52151124/cf66906d2c23c57d9c32.jpg</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/novaland-chi-1-400-ty-mua-cong-ty-so-huu-suoi-nuoc-nong-binh-chau-r52151124.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Khánh kiệt vì 'tìm con'</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_83_52151156/b83f8c35307bd925806a.jpg</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/khanh-kiet-vi-tim-con-r52151156.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Đụng trúng 'kho báu' Nội Mông, cả công trường lập tức dừng hoạt động</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52150829/322e2910955e7c00254f.jpg</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dung-trung-kho-bau-noi-mong-ca-cong-truong-lap-tuc-dung-hoat-dong-r52150829.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Tiếp tục gỡ nút thắt xử lý nợ xấu</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_95_52150891/d52c1a2ca6624f3c1673.jpg</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tiep-tuc-go-nut-that-xu-ly-no-xau-r52150891.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Top 10 xe hạng sang bán chạy nhất tại Mỹ năm 2025</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_326_52151122/01ccfdc4418aa8d4f19b.jpg</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/top-10-xe-hang-sang-ban-chay-nhat-tai-my-nam-2025-r52151122.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Bệnh viện Chợ Rẫy tiếp nhận gần 1.400 ca cấp cứu trong kỳ nghỉ lễ</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52151055/2e2cb42a0864e13ab875.jpg</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/benh-vien-cho-ray-tiep-nhan-gan-1-400-ca-cap-cuu-trong-ky-nghi-le-r52151055.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Harry Kane lên tiếng sau khi Bayern Munich chính thức vô địch Bundesliga</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150769/17458f783336da688327.jpg</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/harry-kane-len-tieng-sau-khi-bayern-munich-chinh-thuc-vo-dich-bundesliga-r52150769.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Công an vào cuộc xác minh vụ tài xế công nghệ bị hành hung</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_236_52151168/a4b820b29cfc75a22ced.jpg</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cong-an-vao-cuoc-xac-minh-vu-tai-xe-cong-nghe-bi-hanh-hung-r52151168.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Chuyện khó tin: Mèo rơi vào nồi lẩu khiến 9 người nhập viện ở Trung Quốc</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_15_52149259/ccca8a9836d6df8886c7.jpg</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chuyen-kho-tin-meo-roi-vao-noi-lau-khien-9-nguoi-nhap-vien-o-trung-quoc-r52149259.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Israel tuyên bố sẽ trả đũa Houthi và Iran sau vụ tấn công sân bay</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_106_52150996/1c5d0959b5175c490506.jpg</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/israel-tuyen-bo-se-tra-dua-houthi-va-iran-sau-vu-tan-cong-san-bay-r52150996.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Giết chồng vũ phu trong lúc bỏ trốn, người phụ nữ lĩnh án 11 năm tù</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_625_52149773/d21d033dbf73562d0f62.jpg</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/giet-chong-vu-phu-trong-luc-bo-tron-nguoi-phu-nu-linh-an-11-nam-tu-r52149773.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Bắt đối tượng gây rối khu vực bảo vệ đoàn khách quốc tế</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/e9b048137951900fc940.png</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bat-doi-tuong-gay-roi-khu-vuc-bao-ve-doan-khach-quoc-te-r52150789.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>ASEAN+3 cảnh báo tác động từ chủ nghĩa bảo hộ</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52151089/3d44374c8b02625c3b13.jpg</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/asean-3-canh-bao-tac-dong-tu-chu-nghia-bao-ho-r52151089.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Người đàn ông gặp nạn kinh hoàng vì cố chụp ảnh tự sướng</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_23_52150783/fa80ddbc61f288acd1e3.jpg</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-dan-ong-gap-nan-kinh-hoang-vi-co-chup-anh-tu-suong-r52150783.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Nhặt được chìa khóa ô tô, nam thanh niên liền trộm xe, mang cất giấu</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_94_52150751/6699e5a359edb0b3e9fc.jpg</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhat-duoc-chia-khoa-o-to-nam-thanh-nien-lien-trom-xe-mang-cat-giau-r52150751.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Nhảy khỏi thùng xe tải, con bò bị ô tô đâm trúng</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhay-khoi-thung-xe-tai-con-bo-bi-o-to-dam-trung-r52150923.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Đề xuất hai phương án xử lý nền đất yếu dự án cao tốc Châu Đốc - Cần Thơ - Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/de-xuat-hai-phuong-an-xu-ly-nen-dat-yeu-du-an-cao-toc-chau-doc-can-tho-soc-trang-r52150985.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Tổng thống Trump lên tiếng sau khi bị Tổng thống Mexico từ chối yêu cầu</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tong-thong-trump-len-tieng-sau-khi-bi-tong-thong-mexico-tu-choi-yeu-cau-r52148822.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Hành động nhận được hàng nghìn lời khen của Đức Phúc sau đại lễ 30/4</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_181_52151296/a6f0bce100afe9f1b0be.jpg</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hanh-dong-nhan-duoc-hang-nghin-loi-khen-cua-duc-phuc-sau-dai-le-30-4-r52151296.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Theo quy định mới nhất, vượt xe không đúng quy định bị phạt bao nhiêu tiền?</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_296_52150922/38c2a5c1198ff0d1a99e.jpg</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/theo-quy-dinh-moi-nhat-vuot-xe-khong-dung-quy-dinh-bi-phat-bao-nhieu-tien-r52150922.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Vietnam AutoExpo 2025 thu hút sự tham dự của hơn 180 doanh nghiệp trong nước và quốc tế</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_72_52150804/4f9d63a2dfec36b26ffd.jpg</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vietnam-autoexpo-2025-thu-hut-su-tham-du-cua-hon-180-doanh-nghiep-trong-nuoc-va-quoc-te-r52150804.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>TPHCM: Trường nào có điểm chuẩn vào lớp 10 công lập cao nhất trong 3 năm qua</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_181_52151481/be80f89444daad84f4cb.jpg</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tphcm-truong-nao-co-diem-chuan-vao-lop-10-cong-lap-cao-nhat-trong-3-nam-qua-r52151481.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>TP.HCM chi hơn 1.100 tỉ xây dựng Cung Thiếu nhi tại khu đô thị mới Thủ Thiêm</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150785/9719d0256c6b8535dc7a.jpg</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-hcm-chi-hon-1-100-ti-xay-dung-cung-thieu-nhi-tai-khu-do-thi-moi-thu-thiem-r52150785.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Sáp nhập tỉnh, cán bộ tỉnh Bình Phước đi đường nào sang Đồng Nai?</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150014/1207c521796f9031c97e.jpg</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/sap-nhap-tinh-can-bo-tinh-binh-phuoc-di-duong-nao-sang-dong-nai-r52150014.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Đèo Cả thu BOT gần 6 tỷ đồng mỗi ngày, lãi kỷ lục quý đầu năm</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52151059/998e2e8892c67b9822d7.jpg</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/deo-ca-thu-bot-gan-6-ty-dong-moi-ngay-lai-ky-luc-quy-dau-nam-r52151059.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>TP.HCM: Gấp rút tháo dỡ khán đài hơn 5.000 chỗ trên đường Lê Duẩn</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_236_52151262/688b90842ccac5949cdb.jpg</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tp-hcm-gap-rut-thao-do-khan-dai-hon-5-000-cho-tren-duong-le-duan-r52151262.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Kế hoạch để Venice không bị nhấn chìm</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_125_52150826/0c9de4a258ecb1b2e8fd.jpg</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ke-hoach-de-venice-khong-bi-nhan-chim-r52150826.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>Ngắm mô hình Tôn tượng Phật lớn nhất thế giới ở Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150740/9bc70dfab1b458ea01a5.jpg</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngam-mo-hinh-ton-tuong-phat-lon-nhat-the-gioi-o-thanh-hoa-r52150740.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Thêm nhiều nhà hàng Việt được cẩm nang ẩm thực MICHELIN vinh danh</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_65_52150744/e2586467d82931776838.jpg</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/them-nhieu-nha-hang-viet-duoc-cam-nang-am-thuc-michelin-vinh-danh-r52150744.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Thủ tướng Thái Lan tiết lộ đang 'thảo luận bí mật' với Mỹ về thuế quan</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_595_52150946/802c5329ef6706395f76.jpg</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-thai-lan-tiet-lo-dang-thao-luan-bi-mat-voi-my-ve-thue-quan-r52150946.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Giải pháp nào cho mục tiêu tăng trưởng 8%</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_59_52150964/b8ad5cafe0e109bf50f0.jpg</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/giai-phap-nao-cho-muc-tieu-tang-truong-8-r52150964.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Kênh đào Panama 'lao đao' giữa trong cuộc chiến thương mại Mỹ - Trung</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52150951/82770375bf3b56650f2a.jpg</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/kenh-dao-panama-lao-dao-giua-trong-cuoc-chien-thuong-mai-my-trung-r52150951.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Ông Trump nói về người kế nhiệm</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ong-trump-noi-ve-nguoi-ke-nhiem-r52150699.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Chủ nhiệm UBKT Phan Văn Mãi: Kinh tế tư nhân chưa tạo được đột phá</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/chu-nhiem-ubkt-phan-van-mai-kinh-te-tu-nhan-chua-tao-duoc-dot-pha-r52150935.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Dừng xe dụi mắt, hai cô gái trẻ tránh được tai nạn thảm khốc trong tích tắc</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/26dc73b3aef047ae1ee1.png</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dung-xe-dui-mat-hai-co-gai-tre-tranh-duoc-tai-nan-tham-khoc-trong-tich-tac-r52149949.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Bộ Tư pháp ban hành Kế hoạch lấy ý kiến Nhân dân về sửa đổi, bổ sung một số điều của Hiến pháp năm 2013</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_3_52149201/8ad8da8866c68f98d6d7.jpg</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-tu-phap-ban-hanh-ke-hoach-lay-y-kien-nhan-dan-ve-sua-doi-bo-sung-mot-so-dieu-cua-hien-phap-nam-2013-r52149201.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Công an phường 'khoanh vùng' nhanh nhóm người sử dụng ma túy và tàng trữ vũ khí</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_5_52151058/c07c6f7ad3343a6a6325.jpg</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cong-an-phuong-khoanh-vung-nhanh-nhom-nguoi-su-dung-ma-tuy-va-tang-tru-vu-khi-r52151058.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Hiểu về lỗ kép trong đầu tư chứng khoán</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_95_52150399/a18b39bb85f56cab35e4.jpg</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hieu-ve-lo-kep-trong-dau-tu-chung-khoan-r52150399.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Nhặt viên đá lạ, tưởng miếng thịt lợn ai ngờ là 'báu vật' tiền tỷ</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52150619/b6a2f49448daa184f8cb.jpg</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nhat-vien-da-la-tuong-mieng-thit-lon-ai-ngo-la-bau-vat-tien-ty-r52150619.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Amorim lo lắng về chấn thương nặng của trụ cột MU</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_114_52150328/628d3cbc80f269ac30e3.jpg</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/amorim-lo-lang-ve-chan-thuong-nang-cua-tru-cot-mu-r52150328.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Nga sẵn sàng làm trung gian hòa giải Ấn Độ - Pakistan</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_14_52151303/82e6eef752b9bbe7e2a8.jpg</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nga-san-sang-lam-trung-gian-hoa-giai-an-do-pakistan-r52151303.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Biểu dương thành tích triệt phá đường dây ma túy ở Điện Biên</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52150816/2a8bd58969c78099d9d6.jpg</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bieu-duong-thanh-tich-triet-pha-duong-day-ma-tuy-o-dien-bien-r52150816.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Người đàn ông cởi trần, 'múa' rựa trên phố ở Bình Dương</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/e9b048137951900fc940.png</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nguoi-dan-ong-coi-tran-mua-rua-tren-pho-o-binh-duong-r52150574.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi dừng đầu tư 3.800 tỷ đồng vào đảo Ngọc</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_180_52150920/4bbfcbbc77f29eacc7e3.jpg</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/quang-ngai-dung-dau-tu-3-800-ty-dong-vao-dao-ngoc-r52150920.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh: Tìm thấy thi thể bé trai 12 tuổi sau hai ngày mất tích</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_56_52151649/27a58cbe30f0d9ae80e1.jpg</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ha-tinh-tim-thay-thi-the-be-trai-12-tuoi-sau-hai-ngay-mat-tich-r52151649.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Giải cứu cá thể rùa biển quý hiếm mắc 'lưới ma' ở Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/e9b048137951900fc940.png</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/giai-cuu-ca-the-rua-bien-quy-hiem-mac-luoi-ma-o-quang-ngai-r52150616.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Ngày 7.5, khánh thành Cột cờ A Pa Chải</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_125_52151777/914b23579f1976472f08.jpg</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ngay-7-5-khanh-thanh-cot-co-a-pa-chai-r52151777.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Hai ngày nữa, Việt Nam sẽ đàm phán phiên đầu tiên về thuế với Mỹ</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_112_52150322/72365007ec4905175c58.jpg</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/hai-ngay-nua-viet-nam-se-dam-phan-phien-dau-tien-ve-thue-voi-my-r52150322.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Ứa nước mắt vì cách trả nợ 'không giống ai' của một người già bán xôi đầu ngõ</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2_sm/2025_05_05_125_52150128/eb3abe10025eeb00b24f.jpg</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/ua-nuoc-mat-vi-cach-tra-no-khong-giong-ai-cua-mot-nguoi-gia-ban-xoi-dau-ngo-r52150128.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Bayern Munich đã đúng về Kane</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bayern-munich-da-dung-ve-kane-r52150567.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Ngành du lịch 'đại thắng' dịp lễ 30-4 khi đón hơn 10,5 triệu lượt khách</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/nganh-du-lich-dai-thang-dip-le-30-4-khi-don-hon-10-5-trieu-luot-khach-r52150643.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Tự đốt nhà mình 2 lần để thỏa mãn ước mơ ngắm lính cứu hỏa tác nghiệp</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tu-dot-nha-minh-2-lan-de-thoa-man-uoc-mo-ngam-linh-cuu-hoa-tac-nghiep-r52150323.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Vì sao Tòa tuyên bác đơn kiện đòi 7,5 tỷ đồng?</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_236_52151041/f8e500e2bcac55f20cbd.jpg</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/vi-sao-toa-tuyen-bac-don-kien-doi-7-5-ty-dong-r52151041.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Uống nước chanh 'liều cao', người phụ nữ viêm ruột cấp phải nhập viện khẩn</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_94_52149543/8d0b4f51f31f1a41430e.jpg</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/uong-nuoc-chanh-lieu-cao-nguoi-phu-nu-viem-ruot-cap-phai-nhap-vien-khan-r52149543.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Di tích thuyền cổ độc đáo ở Bắc Ninh có từ thời nhà Lý</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_207_52150847/fed420ea9ca475fa2cb5.jpg</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/di-tich-thuyen-co-doc-dao-o-bac-ninh-co-tu-thoi-nha-ly-r52150847.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Thực hiện bảo vệ và phát huy giá trị di sản 'Lễ hội Vía Bà Chúa Xứ núi Sam'</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_181_52151295/31cb29da95947cca2585.jpg</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thuc-hien-bao-ve-va-phat-huy-gia-tri-di-san-le-hoi-via-ba-chua-xu-nui-sam-r52151295.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Antony giá 100 triệu euro đã thực sự xuất hiện</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52149859/0175ec575019b947e008.jpg</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/antony-gia-100-trieu-euro-da-thuc-su-xuat-hien-r52149859.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Bắt đối tượng trộm cắp xe máy sau 12 giờ gây án</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_236_52150893/09c6c0c67c8895d6cc99.jpg</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bat-doi-tuong-trom-cap-xe-may-sau-12-gio-gay-an-r52150893.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Phát hiện ra nguồn gốc gây bất ngờ của vàng và các kim loại nặng trên Trái Đất</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52150552/20ada6991ad7f389aac6.jpg</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/phat-hien-ra-nguon-goc-gay-bat-ngo-cua-vang-va-cac-kim-loai-nang-tren-trai-dat-r52150552.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Lisa gây chú ý tại giải đua xe F1</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52150851/1b0d070cbb42521c0b53.jpg</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/lisa-gay-chu-y-tai-giai-dua-xe-f1-r52150851.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Vận hành hệ thống giao dịch mới, VN-Index tăng lên 1.231 điểm, điểm sáng cổ phiếu 'nhà' Vingroup</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_72_52150594/c5766b41d70f3e51671e.jpg</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/van-hanh-he-thong-giao-dich-moi-vn-index-tang-len-1-231-diem-diem-sang-co-phieu-nha-vingroup-r52150594.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Cao nguyên đá Đồng Văn: Điểm sáng trong phát triển kinh tế - xã hội vùng núi phía Bắc</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_624_52150913/d9468545390bd055891a.jpg</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/cao-nguyen-da-dong-van-diem-sang-trong-phat-trien-kinh-te-xa-hoi-vung-nui-phia-bac-r52150913.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Thủ tướng: Hoàn thiện mô hình tổ chức của hệ thống chính trị với tinh thần 'không làm nửa vời'</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_20_52150348/c9796648da0633586a17.jpg</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thu-tuong-hoan-thien-mo-hinh-to-chuc-cua-he-thong-chinh-tri-voi-tinh-than-khong-lam-nua-voi-r52150348.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Đảng ủy Sư đoàn 390 tổng kết 10 năm thực hiện Nghị quyết 347 của Quân ủy Trung ương</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_16_52150817/87ea2bd5979b7ec5278a.jpg</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/dang-uy-su-doan-390-tong-ket-10-nam-thuc-hien-nghi-quyet-347-cua-quan-uy-trung-uong-r52150817.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Rủi ro thuế quan đẩy ngành sản xuất Việt Nam vào đà suy giảm</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_358_52150850/9f6b996a2524cc7a9535.jpg</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/rui-ro-thue-quan-day-nganh-san-xuat-viet-nam-vao-da-suy-giam-r52150850.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Trần Quyết Chiến vào ban chấp hành liên đoàn Billiards TP.HCM</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_119_52150747/1c346f0ed3403a1e6351.jpg</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tran-quyet-chien-vao-ban-chap-hanh-lien-doan-billiards-tp-hcm-r52150747.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>CLIP: Hoảng hồn trước màn mở cửa xe ô tô bằng răng của sư tử và cái kết gay cấn</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/clip-hoang-hon-truoc-man-mo-cua-xe-o-to-bang-rang-cua-su-tu-va-cai-ket-gay-can-r52151684.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Sinh viên ngành Triết học có được miễn học phí?</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/sinh-vien-nganh-triet-hoc-co-duoc-mien-hoc-phi-r52150821.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Bé 4 tuổi vụ bệnh viện bị tố 'nộp đủ tiền mới cấp cứu' không còn phải thở máy</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/be-4-tuoi-vu-benh-vien-bi-to-nop-du-tien-moi-cap-cuu-khong-con-phai-tho-may-r52149229.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>TPHCM: Hàng ngàn người đổ về chùa Thanh Tâm chiêm bái Xá lợi Phật</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>data:image/gif;base64,R0lGODlhAQABAIAAAP///wAAACH5BAEAAAAALAAAAAABAAEAAAICRAEAOw==</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tphcm-hang-ngan-nguoi-do-ve-chua-thanh-tam-chiem-bai-xa-loi-phat-r52150837.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Trung Quốc 'khát' nhân lực cổ cồn xanh lá</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_294_52150961/a85b6d59d11738496106.jpg</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/trung-quoc-khat-nhan-luc-co-con-xanh-la-r52150961.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Bổ sung Bảo tàng Đảng Cộng sản Việt Nam vào Quy hoạch mạng lưới cơ sở văn hóa và thể thao thời kỳ 2021-2030</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_624_52150910/97c3a6c01a8ef3d0aa9f.jpg</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/bo-sung-bao-tang-dang-cong-san-viet-nam-vao-quy-hoach-mang-luoi-co-so-van-hoa-va-the-thao-thoi-ky-2021-2030-r52150910.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Z127: Nơi luyện ý chí thép, rèn lửa Anh hùng</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_16_52150745/98a51598a9d6408819c7.jpg</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/z127-noi-luyen-y-chi-thep-ren-lua-anh-hung-r52150745.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Tập huấn công nghệ thông tin, an toàn thông tin, an ninh mạng phục vụ chuyển đổi số năm 2025</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_16_52150818/0400a03f1c71f52fac60.jpg</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/tap-huan-cong-nghe-thong-tin-an-toan-thong-tin-an-ninh-mang-phuc-vu-chuyen-doi-so-nam-2025-r52150818.epi</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Thành phố Hồ Chí Minh bảo đảm công tác y tế tại Đại lễ Vesak 2025</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>https://photo-baomoi.bmcdn.me/w250_r3x2/2025_05_05_14_52150952/ba4222409e0e77502e1f.jpg</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>https://lite.baomoi.com/thanh-pho-ho-chi-minh-bao-dam-cong-tac-y-te-tai-dai-le-vesak-2025-r52150952.epi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
